--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>237.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>237.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>11</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>238.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>11</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>238.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>13</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20</v>
+      </c>
       <c r="L16" t="n">
         <v>237.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-40</v>
+      </c>
       <c r="L17" t="n">
         <v>237.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>237.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>16</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L19" t="n">
         <v>237.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>17</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>237.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>18</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25</v>
+      </c>
       <c r="L21" t="n">
         <v>237.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>18</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-25</v>
+      </c>
       <c r="L22" t="n">
         <v>237.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L23" t="n">
         <v>236.9</v>
@@ -1466,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>236.8</v>
@@ -1515,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>236.8</v>
@@ -1564,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>237</v>
@@ -1613,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>237.2</v>
@@ -1662,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>237.2</v>
@@ -1711,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="K29" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>237.1</v>
@@ -1760,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>236.9</v>
@@ -1809,7 +1831,7 @@
         <v>23</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>236.8</v>
@@ -1860,7 +1882,7 @@
         <v>23</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>236.7</v>
@@ -1911,7 +1933,7 @@
         <v>24</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L33" t="n">
         <v>236.6</v>
@@ -1962,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>236.3</v>
@@ -2013,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="K35" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>235.9</v>
@@ -2064,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L36" t="n">
         <v>235.5</v>
@@ -2115,7 +2137,7 @@
         <v>26</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>235.3</v>
@@ -2166,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>235.1</v>
@@ -2217,7 +2239,7 @@
         <v>27</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>234.9</v>
@@ -2268,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="K40" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>234.7</v>
@@ -2319,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L41" t="n">
         <v>234.5</v>
@@ -2421,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="K43" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>234.2</v>
@@ -2472,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L44" t="n">
         <v>234.4</v>
@@ -2523,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="L45" t="n">
         <v>234.6</v>
@@ -2574,7 +2596,7 @@
         <v>31</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L46" t="n">
         <v>235</v>
@@ -2625,7 +2647,7 @@
         <v>32</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L47" t="n">
         <v>235.4</v>
@@ -2676,7 +2698,7 @@
         <v>33</v>
       </c>
       <c r="K48" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>235.9</v>
@@ -2727,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>236.5</v>
@@ -2778,7 +2800,7 @@
         <v>37</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>236.7</v>
@@ -2829,7 +2851,7 @@
         <v>37</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L51" t="n">
         <v>236.9</v>
@@ -2880,7 +2902,7 @@
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>237.1</v>
@@ -2931,7 +2953,7 @@
         <v>37</v>
       </c>
       <c r="K53" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>237.3</v>
@@ -2982,7 +3004,7 @@
         <v>37</v>
       </c>
       <c r="K54" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>237.3</v>
@@ -3033,7 +3055,7 @@
         <v>39</v>
       </c>
       <c r="K55" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>237.5</v>
@@ -3084,7 +3106,7 @@
         <v>39</v>
       </c>
       <c r="K56" t="n">
-        <v>28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>237.5</v>
@@ -3135,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>237.4</v>
@@ -3186,7 +3208,7 @@
         <v>39</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>237.2</v>
@@ -3237,7 +3259,7 @@
         <v>39</v>
       </c>
       <c r="K59" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>237</v>
@@ -3288,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>237.2</v>
@@ -3339,7 +3361,7 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>237.5</v>
@@ -3441,7 +3463,7 @@
         <v>43</v>
       </c>
       <c r="K63" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>237.8</v>
@@ -3492,7 +3514,7 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>237.9</v>
@@ -3543,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>237.7</v>
@@ -3594,7 +3616,7 @@
         <v>46</v>
       </c>
       <c r="K66" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L66" t="n">
         <v>237.4</v>
@@ -3645,7 +3667,7 @@
         <v>48</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>237.3</v>
@@ -3696,7 +3718,7 @@
         <v>49</v>
       </c>
       <c r="K68" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>237.3</v>
@@ -3747,7 +3769,7 @@
         <v>49</v>
       </c>
       <c r="K69" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>237.3</v>
@@ -3798,7 +3820,7 @@
         <v>52</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>237</v>
@@ -3849,7 +3871,7 @@
         <v>55</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L71" t="n">
         <v>236.9</v>
@@ -3900,7 +3922,7 @@
         <v>55</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>237</v>
@@ -3951,7 +3973,7 @@
         <v>57</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L73" t="n">
         <v>236.8</v>
@@ -4002,7 +4024,7 @@
         <v>59</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>236.9</v>
@@ -4053,7 +4075,7 @@
         <v>61</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L75" t="n">
         <v>236.9</v>
@@ -4104,7 +4126,7 @@
         <v>61</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L76" t="n">
         <v>237</v>
@@ -4155,7 +4177,7 @@
         <v>63</v>
       </c>
       <c r="K77" t="n">
-        <v>-16.66666666666666</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>236.7</v>
@@ -4206,7 +4228,7 @@
         <v>65</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12.5</v>
       </c>
       <c r="L78" t="n">
         <v>236.5</v>
@@ -4257,7 +4279,7 @@
         <v>65</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L79" t="n">
         <v>236.3</v>
@@ -4308,7 +4330,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>236.4</v>
@@ -4359,7 +4381,7 @@
         <v>66</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L81" t="n">
         <v>236.3</v>
@@ -4410,7 +4432,7 @@
         <v>67</v>
       </c>
       <c r="K82" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>236.1</v>
@@ -4461,7 +4483,7 @@
         <v>68</v>
       </c>
       <c r="K83" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>236</v>
@@ -4512,7 +4534,7 @@
         <v>68</v>
       </c>
       <c r="K84" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>235.7</v>
@@ -4614,7 +4636,7 @@
         <v>70</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>235.6</v>
@@ -4665,7 +4687,7 @@
         <v>70</v>
       </c>
       <c r="K87" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>235.7</v>
@@ -4716,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>235.6</v>
@@ -4767,7 +4789,7 @@
         <v>70</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>235.5</v>
@@ -4818,7 +4840,7 @@
         <v>72</v>
       </c>
       <c r="K90" t="n">
-        <v>-10</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L90" t="n">
         <v>235.2</v>
@@ -4869,7 +4891,7 @@
         <v>72</v>
       </c>
       <c r="K91" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L91" t="n">
         <v>234.8</v>
@@ -4920,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>234.7</v>
@@ -4971,7 +4993,7 @@
         <v>74</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>234.7</v>
@@ -5022,7 +5044,7 @@
         <v>75</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>234.6</v>
@@ -5073,7 +5095,7 @@
         <v>75</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>234.4</v>
@@ -5124,7 +5146,7 @@
         <v>76</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>234.4</v>
@@ -5175,7 +5197,7 @@
         <v>76</v>
       </c>
       <c r="K97" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>234.4</v>
@@ -5226,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>234.4</v>
@@ -5277,7 +5299,7 @@
         <v>77</v>
       </c>
       <c r="K99" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>234.3</v>
@@ -5328,7 +5350,7 @@
         <v>78</v>
       </c>
       <c r="K100" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>234.3</v>
@@ -5379,7 +5401,7 @@
         <v>79</v>
       </c>
       <c r="K101" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>234.4</v>
@@ -5430,7 +5452,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>234.2</v>
@@ -5481,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>234</v>
@@ -5532,7 +5554,7 @@
         <v>82</v>
       </c>
       <c r="K104" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L104" t="n">
         <v>233.7</v>
@@ -5583,7 +5605,7 @@
         <v>84</v>
       </c>
       <c r="K105" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L105" t="n">
         <v>233.6</v>
@@ -5634,7 +5656,7 @@
         <v>85</v>
       </c>
       <c r="K106" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L106" t="n">
         <v>233.5</v>
@@ -5685,7 +5707,7 @@
         <v>85</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L107" t="n">
         <v>233.4</v>
@@ -5736,7 +5758,7 @@
         <v>85</v>
       </c>
       <c r="K108" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>233.3</v>
@@ -5787,7 +5809,7 @@
         <v>85</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>233.3</v>
@@ -5889,7 +5911,7 @@
         <v>88</v>
       </c>
       <c r="K111" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L111" t="n">
         <v>233.8</v>
@@ -5940,7 +5962,7 @@
         <v>90</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L112" t="n">
         <v>234</v>
@@ -5991,7 +6013,7 @@
         <v>91</v>
       </c>
       <c r="K113" t="n">
-        <v>5.88235294117647</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L113" t="n">
         <v>234.3</v>
@@ -6042,7 +6064,7 @@
         <v>93</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L114" t="n">
         <v>234.6</v>
@@ -6093,7 +6115,7 @@
         <v>95</v>
       </c>
       <c r="K115" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>234.5</v>
@@ -6144,7 +6166,7 @@
         <v>96</v>
       </c>
       <c r="K116" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>234.4</v>
@@ -6195,7 +6217,7 @@
         <v>97</v>
       </c>
       <c r="K117" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>234.4</v>
@@ -6246,7 +6268,7 @@
         <v>97</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>234.4</v>
@@ -6297,7 +6319,7 @@
         <v>97</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>234.4</v>
@@ -6348,7 +6370,7 @@
         <v>98</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L120" t="n">
         <v>234.2</v>
@@ -6399,7 +6421,7 @@
         <v>99</v>
       </c>
       <c r="K121" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>233.7</v>
@@ -6450,7 +6472,7 @@
         <v>99</v>
       </c>
       <c r="K122" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L122" t="n">
         <v>233.4</v>
@@ -6501,7 +6523,7 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>-10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>232.9</v>
@@ -6552,7 +6574,7 @@
         <v>101</v>
       </c>
       <c r="K124" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>232.7</v>
@@ -6603,7 +6625,7 @@
         <v>101</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>232.7</v>
@@ -6654,7 +6676,7 @@
         <v>101</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L126" t="n">
         <v>232.6</v>
@@ -6705,7 +6727,7 @@
         <v>101</v>
       </c>
       <c r="K127" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L127" t="n">
         <v>232.4</v>
@@ -6756,7 +6778,7 @@
         <v>101</v>
       </c>
       <c r="K128" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>232.2</v>
@@ -6807,7 +6829,7 @@
         <v>102</v>
       </c>
       <c r="K129" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>232.1</v>
@@ -6858,7 +6880,7 @@
         <v>102</v>
       </c>
       <c r="K130" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>232.1</v>
@@ -6909,7 +6931,7 @@
         <v>102</v>
       </c>
       <c r="K131" t="n">
-        <v>-28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>232.2</v>
@@ -6960,7 +6982,7 @@
         <v>102</v>
       </c>
       <c r="K132" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>232.3</v>
@@ -7011,7 +7033,7 @@
         <v>102</v>
       </c>
       <c r="K133" t="n">
-        <v>-27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>232.5</v>
@@ -7062,7 +7084,7 @@
         <v>102</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>232.6</v>
@@ -7113,7 +7135,7 @@
         <v>102</v>
       </c>
       <c r="K135" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>232.7</v>
@@ -7164,7 +7186,7 @@
         <v>102</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>232.8</v>
@@ -7215,7 +7237,7 @@
         <v>103</v>
       </c>
       <c r="K137" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>232.8</v>
@@ -7266,7 +7288,7 @@
         <v>104</v>
       </c>
       <c r="K138" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L138" t="n">
         <v>232.7</v>
@@ -7317,7 +7339,7 @@
         <v>104</v>
       </c>
       <c r="K139" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>232.5</v>
@@ -7368,7 +7390,7 @@
         <v>105</v>
       </c>
       <c r="K140" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>232.2</v>
@@ -7419,7 +7441,7 @@
         <v>106</v>
       </c>
       <c r="K141" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L141" t="n">
         <v>232</v>
@@ -7470,7 +7492,7 @@
         <v>107</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L142" t="n">
         <v>231.9</v>
@@ -7521,7 +7543,7 @@
         <v>110</v>
       </c>
       <c r="K143" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L143" t="n">
         <v>232.1</v>
@@ -7572,7 +7594,7 @@
         <v>110</v>
       </c>
       <c r="K144" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L144" t="n">
         <v>232.3</v>
@@ -7623,7 +7645,7 @@
         <v>111</v>
       </c>
       <c r="K145" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>232.6</v>
@@ -7674,7 +7696,7 @@
         <v>111</v>
       </c>
       <c r="K146" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>232.9</v>
@@ -7725,7 +7747,7 @@
         <v>112</v>
       </c>
       <c r="K147" t="n">
-        <v>45.45454545454545</v>
+        <v>75</v>
       </c>
       <c r="L147" t="n">
         <v>233.4</v>
@@ -7776,7 +7798,7 @@
         <v>112</v>
       </c>
       <c r="K148" t="n">
-        <v>45.45454545454545</v>
+        <v>75</v>
       </c>
       <c r="L148" t="n">
         <v>234</v>
@@ -7827,7 +7849,7 @@
         <v>113</v>
       </c>
       <c r="K149" t="n">
-        <v>27.27272727272727</v>
+        <v>75</v>
       </c>
       <c r="L149" t="n">
         <v>234.5</v>
@@ -7878,7 +7900,7 @@
         <v>116</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>234.8</v>
@@ -7929,7 +7951,7 @@
         <v>119</v>
       </c>
       <c r="K151" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>235.3</v>
@@ -7980,7 +8002,7 @@
         <v>119</v>
       </c>
       <c r="K152" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L152" t="n">
         <v>235.7</v>
@@ -8031,7 +8053,7 @@
         <v>119</v>
       </c>
       <c r="K153" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>235.8</v>
@@ -8082,7 +8104,7 @@
         <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L154" t="n">
         <v>235.8</v>
@@ -8133,7 +8155,7 @@
         <v>121</v>
       </c>
       <c r="K155" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>235.6</v>
@@ -8184,7 +8206,7 @@
         <v>122</v>
       </c>
       <c r="K156" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L156" t="n">
         <v>235.5</v>
@@ -8235,7 +8257,7 @@
         <v>122</v>
       </c>
       <c r="K157" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L157" t="n">
         <v>235.3</v>
@@ -8286,7 +8308,7 @@
         <v>122</v>
       </c>
       <c r="K158" t="n">
-        <v>22.22222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L158" t="n">
         <v>235.1</v>
@@ -8337,7 +8359,7 @@
         <v>122</v>
       </c>
       <c r="K159" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>235</v>
@@ -8388,7 +8410,7 @@
         <v>122</v>
       </c>
       <c r="K160" t="n">
-        <v>29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>235.2</v>
@@ -8439,7 +8461,7 @@
         <v>122</v>
       </c>
       <c r="K161" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>235.1</v>
@@ -8490,7 +8512,7 @@
         <v>122</v>
       </c>
       <c r="K162" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>235</v>
@@ -8592,7 +8614,7 @@
         <v>122</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>234.9</v>
@@ -8642,9 +8664,7 @@
       <c r="J165" t="n">
         <v>122</v>
       </c>
-      <c r="K165" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>235</v>
       </c>
@@ -8693,9 +8713,7 @@
       <c r="J166" t="n">
         <v>122</v>
       </c>
-      <c r="K166" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>235</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>123</v>
       </c>
       <c r="K167" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L167" t="n">
         <v>234.9</v>
@@ -8796,7 +8814,7 @@
         <v>124</v>
       </c>
       <c r="K168" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>234.9</v>
@@ -8847,7 +8865,7 @@
         <v>125</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>235</v>
@@ -8898,7 +8916,7 @@
         <v>127</v>
       </c>
       <c r="K170" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L170" t="n">
         <v>235.3</v>
@@ -8949,7 +8967,7 @@
         <v>127</v>
       </c>
       <c r="K171" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L171" t="n">
         <v>235.6</v>
@@ -9000,7 +9018,7 @@
         <v>127</v>
       </c>
       <c r="K172" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L172" t="n">
         <v>235.9</v>
@@ -9051,7 +9069,7 @@
         <v>127</v>
       </c>
       <c r="K173" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L173" t="n">
         <v>236.2</v>
@@ -9102,7 +9120,7 @@
         <v>127</v>
       </c>
       <c r="K174" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L174" t="n">
         <v>236.5</v>
@@ -9153,7 +9171,7 @@
         <v>127</v>
       </c>
       <c r="K175" t="n">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L175" t="n">
         <v>236.8</v>
@@ -9204,7 +9222,7 @@
         <v>127</v>
       </c>
       <c r="K176" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L176" t="n">
         <v>237.1</v>
@@ -9255,7 +9273,7 @@
         <v>127</v>
       </c>
       <c r="K177" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>237.5</v>
@@ -9306,7 +9324,7 @@
         <v>130</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>237.5</v>
@@ -9357,7 +9375,7 @@
         <v>134</v>
       </c>
       <c r="K179" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>237.8</v>
@@ -9408,7 +9426,7 @@
         <v>137</v>
       </c>
       <c r="K180" t="n">
-        <v>46.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L180" t="n">
         <v>238.2</v>
@@ -9459,7 +9477,7 @@
         <v>139</v>
       </c>
       <c r="K181" t="n">
-        <v>29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L181" t="n">
         <v>238.4</v>
@@ -9510,7 +9528,7 @@
         <v>139</v>
       </c>
       <c r="K182" t="n">
-        <v>29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L182" t="n">
         <v>238.6</v>
@@ -9561,7 +9579,7 @@
         <v>139</v>
       </c>
       <c r="K183" t="n">
-        <v>29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>238.8</v>
@@ -9612,7 +9630,7 @@
         <v>141</v>
       </c>
       <c r="K184" t="n">
-        <v>36.84210526315789</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L184" t="n">
         <v>239.2</v>
@@ -9663,7 +9681,7 @@
         <v>141</v>
       </c>
       <c r="K185" t="n">
-        <v>36.84210526315789</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L185" t="n">
         <v>239.6</v>
@@ -9714,7 +9732,7 @@
         <v>141</v>
       </c>
       <c r="K186" t="n">
-        <v>36.84210526315789</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L186" t="n">
         <v>240</v>
@@ -9765,7 +9783,7 @@
         <v>144</v>
       </c>
       <c r="K187" t="n">
-        <v>23.80952380952381</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L187" t="n">
         <v>240.1</v>
@@ -9816,7 +9834,7 @@
         <v>145</v>
       </c>
       <c r="K188" t="n">
-        <v>23.80952380952381</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>240.6</v>
@@ -9867,7 +9885,7 @@
         <v>146</v>
       </c>
       <c r="K189" t="n">
-        <v>23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L189" t="n">
         <v>240.8</v>
@@ -9918,7 +9936,7 @@
         <v>146</v>
       </c>
       <c r="K190" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>240.7</v>
@@ -9969,7 +9987,7 @@
         <v>146</v>
       </c>
       <c r="K191" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>240.8</v>
@@ -10020,7 +10038,7 @@
         <v>147</v>
       </c>
       <c r="K192" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L192" t="n">
         <v>241</v>
@@ -10071,7 +10089,7 @@
         <v>147</v>
       </c>
       <c r="K193" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>241.2</v>
@@ -10122,7 +10140,7 @@
         <v>147</v>
       </c>
       <c r="K194" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>241.2</v>
@@ -10173,7 +10191,7 @@
         <v>148</v>
       </c>
       <c r="K195" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>241.1</v>
@@ -10224,7 +10242,7 @@
         <v>148</v>
       </c>
       <c r="K196" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L196" t="n">
         <v>241</v>
@@ -10275,7 +10293,7 @@
         <v>149</v>
       </c>
       <c r="K197" t="n">
-        <v>18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L197" t="n">
         <v>241.3</v>
@@ -10330,7 +10348,7 @@
         <v>151</v>
       </c>
       <c r="K198" t="n">
-        <v>23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L198" t="n">
         <v>241.3</v>
@@ -10387,7 +10405,7 @@
         <v>151</v>
       </c>
       <c r="K199" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>241.2</v>
@@ -10448,7 +10466,7 @@
         <v>151</v>
       </c>
       <c r="K200" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L200" t="n">
         <v>241.1</v>
@@ -10507,7 +10525,7 @@
         <v>152</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L201" t="n">
         <v>240.9</v>
@@ -10570,7 +10588,7 @@
         <v>153</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>240.7</v>
@@ -10633,7 +10651,7 @@
         <v>153</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>240.5</v>
@@ -10696,7 +10714,7 @@
         <v>154</v>
       </c>
       <c r="K204" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>240.2</v>
@@ -10757,7 +10775,7 @@
         <v>155</v>
       </c>
       <c r="K205" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L205" t="n">
         <v>239.9</v>
@@ -10818,7 +10836,7 @@
         <v>157</v>
       </c>
       <c r="K206" t="n">
-        <v>-37.5</v>
+        <v>-75</v>
       </c>
       <c r="L206" t="n">
         <v>239.4</v>
@@ -10877,7 +10895,7 @@
         <v>157</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L207" t="n">
         <v>238.8</v>
@@ -10934,7 +10952,7 @@
         <v>158</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L208" t="n">
         <v>238.5</v>
@@ -10991,7 +11009,7 @@
         <v>159</v>
       </c>
       <c r="K209" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L209" t="n">
         <v>238.1</v>
@@ -11048,7 +11066,7 @@
         <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>-28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L210" t="n">
         <v>237.8</v>
@@ -11105,7 +11123,7 @@
         <v>162</v>
       </c>
       <c r="K211" t="n">
-        <v>-37.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L211" t="n">
         <v>237.4</v>
@@ -11162,7 +11180,7 @@
         <v>164</v>
       </c>
       <c r="K212" t="n">
-        <v>-29.41176470588236</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L212" t="n">
         <v>237.1</v>
@@ -11219,7 +11237,7 @@
         <v>164</v>
       </c>
       <c r="K213" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L213" t="n">
         <v>236.8</v>
@@ -11276,7 +11294,7 @@
         <v>164</v>
       </c>
       <c r="K214" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L214" t="n">
         <v>236.6</v>
@@ -11333,7 +11351,7 @@
         <v>165</v>
       </c>
       <c r="K215" t="n">
-        <v>-17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L215" t="n">
         <v>236.6</v>
@@ -11390,7 +11408,7 @@
         <v>166</v>
       </c>
       <c r="K216" t="n">
-        <v>-22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L216" t="n">
         <v>236.7</v>
@@ -11447,7 +11465,7 @@
         <v>167</v>
       </c>
       <c r="K217" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L217" t="n">
         <v>236.7</v>
@@ -11498,7 +11516,7 @@
         <v>167</v>
       </c>
       <c r="K218" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>236.6</v>
@@ -11549,7 +11567,7 @@
         <v>168</v>
       </c>
       <c r="K219" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>236.7</v>
@@ -11600,7 +11618,7 @@
         <v>169</v>
       </c>
       <c r="K220" t="n">
-        <v>-22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L220" t="n">
         <v>236.6</v>
@@ -11651,7 +11669,7 @@
         <v>171</v>
       </c>
       <c r="K221" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L221" t="n">
         <v>236.5</v>
@@ -11702,7 +11720,7 @@
         <v>172</v>
       </c>
       <c r="K222" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L222" t="n">
         <v>236.1</v>
@@ -11753,7 +11771,7 @@
         <v>172</v>
       </c>
       <c r="K223" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L223" t="n">
         <v>235.7</v>
@@ -11804,7 +11822,7 @@
         <v>175</v>
       </c>
       <c r="K224" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L224" t="n">
         <v>235.6</v>
@@ -11855,7 +11873,7 @@
         <v>176</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L225" t="n">
         <v>235.3</v>
@@ -11906,7 +11924,7 @@
         <v>176</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>235.1</v>
@@ -11957,7 +11975,7 @@
         <v>176</v>
       </c>
       <c r="K227" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L227" t="n">
         <v>235</v>
@@ -12059,7 +12077,7 @@
         <v>180</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L229" t="n">
         <v>234.9</v>
@@ -12110,7 +12128,7 @@
         <v>181</v>
       </c>
       <c r="K230" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>234.7</v>
@@ -12161,7 +12179,7 @@
         <v>181</v>
       </c>
       <c r="K231" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>234.7</v>
@@ -12212,7 +12230,7 @@
         <v>181</v>
       </c>
       <c r="K232" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>234.8</v>
@@ -12263,7 +12281,7 @@
         <v>181</v>
       </c>
       <c r="K233" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>234.9</v>
@@ -12314,7 +12332,7 @@
         <v>181</v>
       </c>
       <c r="K234" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L234" t="n">
         <v>234.7</v>
@@ -12365,7 +12383,7 @@
         <v>181</v>
       </c>
       <c r="K235" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L235" t="n">
         <v>234.6</v>
@@ -12467,7 +12485,7 @@
         <v>181</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L237" t="n">
         <v>234.4</v>
@@ -12518,7 +12536,7 @@
         <v>181</v>
       </c>
       <c r="K238" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L238" t="n">
         <v>234.1</v>
@@ -12568,9 +12586,7 @@
       <c r="J239" t="n">
         <v>181</v>
       </c>
-      <c r="K239" t="n">
-        <v>-23.07692307692308</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>234</v>
       </c>
@@ -12619,9 +12635,7 @@
       <c r="J240" t="n">
         <v>181</v>
       </c>
-      <c r="K240" t="n">
-        <v>-16.66666666666666</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>234</v>
       </c>
@@ -12670,9 +12684,7 @@
       <c r="J241" t="n">
         <v>181</v>
       </c>
-      <c r="K241" t="n">
-        <v>0</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>234</v>
       </c>
@@ -12721,9 +12733,7 @@
       <c r="J242" t="n">
         <v>181</v>
       </c>
-      <c r="K242" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>234</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>182</v>
       </c>
       <c r="K243" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L243" t="n">
         <v>234.1</v>
@@ -12824,7 +12834,7 @@
         <v>183</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L244" t="n">
         <v>234.3</v>
@@ -12875,7 +12885,7 @@
         <v>184</v>
       </c>
       <c r="K245" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>234.6</v>
@@ -12926,7 +12936,7 @@
         <v>185</v>
       </c>
       <c r="K246" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L246" t="n">
         <v>235</v>
@@ -12977,7 +12987,7 @@
         <v>186</v>
       </c>
       <c r="K247" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>235.5</v>

--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S247"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L17" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L18" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L19" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>17</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>18</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>237.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>18</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L22" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L24" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>237.45</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>21</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>237.45</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>21</v>
-      </c>
-      <c r="K26" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L26" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>237.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>22</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>22</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>237.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>23</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>23</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N32" t="n">
-        <v>237.1666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,26 +1541,10 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>24</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L33" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>236.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>236.55</v>
-      </c>
-      <c r="N34" t="n">
-        <v>237.0666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>235.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>236.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>236.9333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>236.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,26 +1681,10 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>26</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L37" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>236.25</v>
-      </c>
-      <c r="N37" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,26 +1716,10 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>26</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>235.1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N38" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>27</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>234.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>236</v>
-      </c>
-      <c r="N39" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>27</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L40" t="n">
-        <v>234.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="N40" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>27</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L41" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>235.65</v>
-      </c>
-      <c r="N41" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>27</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>27</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="N43" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>29</v>
-      </c>
-      <c r="K44" t="n">
-        <v>50</v>
-      </c>
-      <c r="L44" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N44" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>29</v>
-      </c>
-      <c r="K45" t="n">
-        <v>50</v>
-      </c>
-      <c r="L45" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>235.25</v>
-      </c>
-      <c r="N45" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>31</v>
-      </c>
-      <c r="K46" t="n">
-        <v>60</v>
-      </c>
-      <c r="L46" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>235.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>32</v>
-      </c>
-      <c r="K47" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L47" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N47" t="n">
-        <v>235.9666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>33</v>
-      </c>
-      <c r="K48" t="n">
-        <v>100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>235.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>33</v>
-      </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>236.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N49" t="n">
-        <v>236.1666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>37</v>
-      </c>
-      <c r="K50" t="n">
-        <v>20</v>
-      </c>
-      <c r="L50" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N50" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>37</v>
-      </c>
-      <c r="K51" t="n">
-        <v>20</v>
-      </c>
-      <c r="L51" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N51" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>37</v>
-      </c>
-      <c r="K52" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" t="n">
-        <v>237.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>236.0333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>37</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>235.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>236.0333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>37</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N54" t="n">
-        <v>236</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>39</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>236</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>39</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>236.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>236</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>39</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L57" t="n">
-        <v>237.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>236.0333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>39</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>236.55</v>
-      </c>
-      <c r="N58" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>39</v>
-      </c>
-      <c r="K59" t="n">
-        <v>100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>236.1333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>39</v>
-      </c>
-      <c r="K60" t="n">
-        <v>100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N60" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>40</v>
-      </c>
-      <c r="K61" t="n">
-        <v>100</v>
-      </c>
-      <c r="L61" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>42</v>
-      </c>
-      <c r="K62" t="n">
-        <v>20</v>
-      </c>
-      <c r="L62" t="n">
-        <v>237.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>237.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>43</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="N63" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>44</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L64" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="N64" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>45</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L65" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="N65" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,26 +2696,10 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>46</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L66" t="n">
-        <v>237.4</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>237.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>236.6333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>48</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L67" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>237.35</v>
-      </c>
-      <c r="N67" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>49</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>237.25</v>
-      </c>
-      <c r="N68" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>49</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>237.15</v>
-      </c>
-      <c r="N69" t="n">
-        <v>236.9333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,26 +2836,10 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>52</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>237</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="N70" t="n">
-        <v>236.9666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>55</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L71" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>55</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N72" t="n">
-        <v>237.2333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>57</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L73" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N73" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>59</v>
-      </c>
-      <c r="K74" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L74" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="N74" t="n">
-        <v>237.3666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>61</v>
-      </c>
-      <c r="K75" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L75" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N75" t="n">
-        <v>237.3666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>61</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L76" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N76" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>63</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L77" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>237</v>
-      </c>
-      <c r="N77" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>65</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L78" t="n">
-        <v>236.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="N78" t="n">
-        <v>237</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>65</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L79" t="n">
-        <v>236.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="N79" t="n">
-        <v>236.8666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>65</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L80" t="n">
-        <v>236.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="N80" t="n">
-        <v>236.8666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>66</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L81" t="n">
-        <v>236.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="N81" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>67</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>236.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>236.55</v>
-      </c>
-      <c r="N82" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,26 +3291,10 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>68</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>236</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="N83" t="n">
-        <v>236.8666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,26 +3326,10 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>68</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L84" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N84" t="n">
-        <v>236.8333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>69</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N85" t="n">
-        <v>236.7666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,26 +3396,10 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>70</v>
-      </c>
-      <c r="K86" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L86" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N86" t="n">
-        <v>236.6666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,26 +3431,10 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>70</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3466,10 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>70</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>236.4666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,26 +3501,10 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>70</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N89" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>72</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L90" t="n">
-        <v>235.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="N90" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>72</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L91" t="n">
-        <v>234.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>235.55</v>
-      </c>
-      <c r="N91" t="n">
-        <v>236</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,26 +3606,10 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>74</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>234.7</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="N92" t="n">
-        <v>235.9333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,26 +3641,10 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>74</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>234.7</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N93" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>235.15</v>
-      </c>
-      <c r="N94" t="n">
-        <v>235.7333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>75</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,26 +3746,10 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>76</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>234.4</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>235</v>
-      </c>
-      <c r="N96" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,26 +3781,10 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>76</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>234.4</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,26 +3816,10 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>76</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>234.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>235</v>
-      </c>
-      <c r="N98" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>77</v>
-      </c>
-      <c r="K99" t="n">
-        <v>20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="N99" t="n">
-        <v>235.3666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>78</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>234.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>79</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="N101" t="n">
-        <v>235.1666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>80</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>234.45</v>
-      </c>
-      <c r="N102" t="n">
-        <v>235</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>80</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L103" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N103" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>82</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L104" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>234.15</v>
-      </c>
-      <c r="N104" t="n">
-        <v>234.6666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>84</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L105" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>234</v>
-      </c>
-      <c r="N105" t="n">
-        <v>234.5666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>85</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L106" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N106" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>85</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L107" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N107" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>85</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N108" t="n">
-        <v>234.4333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>85</v>
-      </c>
-      <c r="K109" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L109" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N109" t="n">
-        <v>234.3666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,26 +4236,10 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>86</v>
-      </c>
-      <c r="K110" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L110" t="n">
-        <v>233.5</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N110" t="n">
-        <v>234.3333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>88</v>
-      </c>
-      <c r="K111" t="n">
-        <v>50</v>
-      </c>
-      <c r="L111" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>234.3333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,26 +4306,10 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>90</v>
-      </c>
-      <c r="K112" t="n">
-        <v>20</v>
-      </c>
-      <c r="L112" t="n">
-        <v>234</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N112" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>91</v>
-      </c>
-      <c r="K113" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L113" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>234.15</v>
-      </c>
-      <c r="N113" t="n">
-        <v>234.3333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>93</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L114" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>234.15</v>
-      </c>
-      <c r="N114" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>95</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N115" t="n">
-        <v>234.1666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>96</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L116" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>97</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N117" t="n">
-        <v>234.0666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>97</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>234.0333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>97</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L119" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N119" t="n">
-        <v>234</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J120" t="n">
-        <v>98</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L120" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N120" t="n">
-        <v>234</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>99</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L121" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>233.75</v>
-      </c>
-      <c r="N121" t="n">
-        <v>233.9666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J122" t="n">
-        <v>99</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L122" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="N122" t="n">
-        <v>233.8666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>100</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L123" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N123" t="n">
-        <v>233.7333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,31 +4721,21 @@
         <v>234.7</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>101</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>232.7</v>
+        <v>233</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="N124" t="n">
-        <v>233.6666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6616,31 +4762,21 @@
         <v>234.6333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>101</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L125" t="n">
-        <v>232.7</v>
+        <v>232</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N125" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +4803,21 @@
         <v>234.5833333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>101</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L126" t="n">
-        <v>232.6</v>
+        <v>232</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="N126" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,31 +4844,21 @@
         <v>234.5</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>101</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L127" t="n">
-        <v>232.4</v>
+        <v>232</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>233.4</v>
-      </c>
-      <c r="N127" t="n">
-        <v>233.4</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,31 +4885,21 @@
         <v>234.4</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>101</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L128" t="n">
-        <v>232.2</v>
+        <v>232</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="N128" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6820,31 +4926,21 @@
         <v>234.3166666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>102</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>232.1</v>
+        <v>233</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>233.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>233.2666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,31 +4967,21 @@
         <v>234.2833333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>102</v>
-      </c>
-      <c r="K130" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>232.1</v>
+        <v>233</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>233.15</v>
-      </c>
-      <c r="N130" t="n">
-        <v>233.2666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,31 +5008,21 @@
         <v>234.2</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>102</v>
-      </c>
-      <c r="K131" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L131" t="n">
-        <v>232.2</v>
+        <v>233</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>232.95</v>
-      </c>
-      <c r="N131" t="n">
-        <v>233.2333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,31 +5049,21 @@
         <v>234.1166666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>102</v>
-      </c>
-      <c r="K132" t="n">
-        <v>100</v>
-      </c>
-      <c r="L132" t="n">
-        <v>232.3</v>
+        <v>233</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N132" t="n">
-        <v>233.2333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,31 +5090,21 @@
         <v>234.0666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>102</v>
-      </c>
-      <c r="K133" t="n">
-        <v>100</v>
-      </c>
-      <c r="L133" t="n">
-        <v>232.5</v>
+        <v>232</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="N133" t="n">
-        <v>233.2333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7075,31 +5131,21 @@
         <v>233.9833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>102</v>
-      </c>
-      <c r="K134" t="n">
-        <v>100</v>
-      </c>
-      <c r="L134" t="n">
-        <v>232.6</v>
+        <v>232</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N134" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5175,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>102</v>
-      </c>
-      <c r="K135" t="n">
-        <v>100</v>
-      </c>
-      <c r="L135" t="n">
-        <v>232.7</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="N135" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5214,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J136" t="n">
-        <v>102</v>
-      </c>
-      <c r="K136" t="n">
-        <v>100</v>
-      </c>
-      <c r="L136" t="n">
-        <v>232.8</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="N136" t="n">
-        <v>233.2666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5253,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J137" t="n">
-        <v>103</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>232.8</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="N137" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,31 +5289,21 @@
         <v>233.7666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>104</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L138" t="n">
-        <v>232.7</v>
+        <v>231</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>232.45</v>
-      </c>
-      <c r="N138" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7330,31 +5330,21 @@
         <v>233.6833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>104</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L139" t="n">
-        <v>232.5</v>
+        <v>231</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="N139" t="n">
-        <v>233</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,31 +5371,21 @@
         <v>233.5833333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>105</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L140" t="n">
-        <v>232.2</v>
+        <v>230</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>232.15</v>
-      </c>
-      <c r="N140" t="n">
-        <v>232.8333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,31 +5412,21 @@
         <v>233.4833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>106</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L141" t="n">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N141" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,31 +5453,21 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>107</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L142" t="n">
-        <v>231.9</v>
+        <v>232</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N142" t="n">
-        <v>232.5333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,31 +5494,21 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>110</v>
-      </c>
-      <c r="K143" t="n">
-        <v>25</v>
-      </c>
-      <c r="L143" t="n">
-        <v>232.1</v>
+        <v>235</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="N143" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7585,31 +5535,21 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>110</v>
-      </c>
-      <c r="K144" t="n">
-        <v>25</v>
-      </c>
-      <c r="L144" t="n">
-        <v>232.3</v>
+        <v>235</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>232.45</v>
-      </c>
-      <c r="N144" t="n">
-        <v>232.5333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7636,31 +5576,21 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>111</v>
-      </c>
-      <c r="K145" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L145" t="n">
-        <v>232.6</v>
+        <v>234</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N145" t="n">
-        <v>232.6666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7687,31 +5617,21 @@
         <v>233.4333333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>111</v>
-      </c>
-      <c r="K146" t="n">
-        <v>50</v>
-      </c>
-      <c r="L146" t="n">
-        <v>232.9</v>
+        <v>236</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>232.85</v>
-      </c>
-      <c r="N146" t="n">
-        <v>232.7666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5661,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>112</v>
-      </c>
-      <c r="K147" t="n">
-        <v>75</v>
-      </c>
-      <c r="L147" t="n">
-        <v>233.4</v>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="N147" t="n">
-        <v>232.8666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5700,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>112</v>
-      </c>
-      <c r="K148" t="n">
-        <v>75</v>
-      </c>
-      <c r="L148" t="n">
-        <v>234</v>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>233.35</v>
-      </c>
-      <c r="N148" t="n">
-        <v>232.9666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5739,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>113</v>
-      </c>
-      <c r="K149" t="n">
-        <v>75</v>
-      </c>
-      <c r="L149" t="n">
-        <v>234.5</v>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="N149" t="n">
-        <v>233.0333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5778,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>116</v>
-      </c>
-      <c r="K150" t="n">
-        <v>20</v>
-      </c>
-      <c r="L150" t="n">
-        <v>234.8</v>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="N150" t="n">
-        <v>233.0333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5817,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>119</v>
-      </c>
-      <c r="K151" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L151" t="n">
-        <v>235.3</v>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="N151" t="n">
-        <v>233.1666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5856,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>119</v>
-      </c>
-      <c r="K152" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L152" t="n">
-        <v>235.7</v>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N152" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +5895,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>119</v>
-      </c>
-      <c r="K153" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L153" t="n">
-        <v>235.8</v>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N153" t="n">
-        <v>233.4666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8100,26 +5936,14 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>120</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L154" t="n">
-        <v>235.8</v>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N154" t="n">
-        <v>233.5666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +5973,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>121</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L155" t="n">
-        <v>235.6</v>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N155" t="n">
-        <v>233.6333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8202,26 +6014,14 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>122</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L156" t="n">
-        <v>235.5</v>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="N156" t="n">
-        <v>233.7333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,26 +6053,14 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>122</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L157" t="n">
-        <v>235.3</v>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N157" t="n">
-        <v>233.8333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,26 +6092,14 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>122</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L158" t="n">
-        <v>235.1</v>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>234.55</v>
-      </c>
-      <c r="N158" t="n">
-        <v>233.9333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8355,26 +6131,14 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>122</v>
-      </c>
-      <c r="K159" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L159" t="n">
-        <v>235</v>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>234.75</v>
-      </c>
-      <c r="N159" t="n">
-        <v>234</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,26 +6170,14 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>122</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>235.2</v>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>235</v>
-      </c>
-      <c r="N160" t="n">
-        <v>234.0666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8457,26 +6209,14 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>122</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L161" t="n">
-        <v>235.1</v>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="N161" t="n">
-        <v>234.1333333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8508,26 +6248,14 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>122</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L162" t="n">
-        <v>235</v>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N162" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8559,26 +6287,14 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>122</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>234.9</v>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N163" t="n">
-        <v>234.2666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8610,26 +6326,14 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>122</v>
-      </c>
-      <c r="K164" t="n">
-        <v>100</v>
-      </c>
-      <c r="L164" t="n">
-        <v>234.9</v>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N164" t="n">
-        <v>234.3333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8661,24 +6365,14 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>122</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>235</v>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="N165" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,24 +6404,14 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>122</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>235</v>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>235.25</v>
-      </c>
-      <c r="N166" t="n">
-        <v>234.4666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8757,28 +6441,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>123</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L167" t="n">
-        <v>234.9</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="N167" t="n">
-        <v>234.5333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8810,26 +6482,14 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>124</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>234.9</v>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>235</v>
-      </c>
-      <c r="N168" t="n">
-        <v>234.6666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,28 +6519,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>125</v>
-      </c>
-      <c r="K169" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L169" t="n">
-        <v>235</v>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>235</v>
-      </c>
-      <c r="N169" t="n">
-        <v>234.8333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8910,28 +6558,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
-      </c>
-      <c r="J170" t="n">
-        <v>127</v>
-      </c>
-      <c r="K170" t="n">
-        <v>60</v>
-      </c>
-      <c r="L170" t="n">
-        <v>235.3</v>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>235.25</v>
-      </c>
-      <c r="N170" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8961,28 +6597,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>127</v>
-      </c>
-      <c r="K171" t="n">
-        <v>60</v>
-      </c>
-      <c r="L171" t="n">
-        <v>235.6</v>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N171" t="n">
-        <v>235.3333333333333</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9012,28 +6636,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
-      </c>
-      <c r="J172" t="n">
-        <v>127</v>
-      </c>
-      <c r="K172" t="n">
-        <v>60</v>
-      </c>
-      <c r="L172" t="n">
-        <v>235.9</v>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>235.45</v>
-      </c>
-      <c r="N172" t="n">
-        <v>235.5333333333333</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,28 +6675,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
-      </c>
-      <c r="J173" t="n">
-        <v>127</v>
-      </c>
-      <c r="K173" t="n">
-        <v>60</v>
-      </c>
-      <c r="L173" t="n">
-        <v>236.2</v>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>235.55</v>
-      </c>
-      <c r="N173" t="n">
-        <v>235.6333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9114,28 +6714,16 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
-      </c>
-      <c r="J174" t="n">
-        <v>127</v>
-      </c>
-      <c r="K174" t="n">
-        <v>60</v>
-      </c>
-      <c r="L174" t="n">
-        <v>236.5</v>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N174" t="n">
-        <v>235.7333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9165,28 +6753,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
-      </c>
-      <c r="J175" t="n">
-        <v>127</v>
-      </c>
-      <c r="K175" t="n">
-        <v>60</v>
-      </c>
-      <c r="L175" t="n">
-        <v>236.8</v>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N175" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,28 +6792,16 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
-      </c>
-      <c r="J176" t="n">
-        <v>127</v>
-      </c>
-      <c r="K176" t="n">
-        <v>100</v>
-      </c>
-      <c r="L176" t="n">
-        <v>237.1</v>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N176" t="n">
-        <v>235.8666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9267,28 +6831,16 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
-      </c>
-      <c r="J177" t="n">
-        <v>127</v>
-      </c>
-      <c r="K177" t="n">
-        <v>100</v>
-      </c>
-      <c r="L177" t="n">
-        <v>237.5</v>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N177" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,26 +6872,14 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>130</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L178" t="n">
-        <v>237.5</v>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N178" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9369,28 +6909,16 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>4</v>
-      </c>
-      <c r="J179" t="n">
-        <v>134</v>
-      </c>
-      <c r="K179" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L179" t="n">
-        <v>237.8</v>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="N179" t="n">
-        <v>235.9333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9420,28 +6948,16 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>7</v>
-      </c>
-      <c r="J180" t="n">
-        <v>137</v>
-      </c>
-      <c r="K180" t="n">
-        <v>40</v>
-      </c>
-      <c r="L180" t="n">
-        <v>238.2</v>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N180" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9471,28 +6987,16 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>139</v>
-      </c>
-      <c r="K181" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L181" t="n">
-        <v>238.4</v>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>237</v>
-      </c>
-      <c r="N181" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9522,28 +7026,16 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>139</v>
-      </c>
-      <c r="K182" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L182" t="n">
-        <v>238.6</v>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>237.25</v>
-      </c>
-      <c r="N182" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9573,28 +7065,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>5</v>
-      </c>
-      <c r="J183" t="n">
-        <v>139</v>
-      </c>
-      <c r="K183" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L183" t="n">
-        <v>238.8</v>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="N183" t="n">
-        <v>236.6333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9624,28 +7104,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>7</v>
-      </c>
-      <c r="J184" t="n">
-        <v>141</v>
-      </c>
-      <c r="K184" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L184" t="n">
-        <v>239.2</v>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>237.85</v>
-      </c>
-      <c r="N184" t="n">
-        <v>236.8666666666667</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9675,28 +7143,16 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>141</v>
-      </c>
-      <c r="K185" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L185" t="n">
-        <v>239.6</v>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="N185" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9726,30 +7182,16 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>141</v>
-      </c>
-      <c r="K186" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L186" t="n">
-        <v>240</v>
-      </c>
-      <c r="M186" t="n">
-        <v>238.55</v>
-      </c>
-      <c r="N186" t="n">
-        <v>237.3666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9777,28 +7219,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>4</v>
-      </c>
-      <c r="J187" t="n">
-        <v>144</v>
-      </c>
-      <c r="K187" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L187" t="n">
-        <v>240.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>238.8</v>
-      </c>
-      <c r="N187" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,28 +7254,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>145</v>
-      </c>
-      <c r="K188" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L188" t="n">
-        <v>240.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>239.05</v>
-      </c>
-      <c r="N188" t="n">
-        <v>237.6666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,28 +7289,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>146</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L189" t="n">
-        <v>240.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="N189" t="n">
-        <v>237.8666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9930,28 +7324,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>6</v>
-      </c>
-      <c r="J190" t="n">
-        <v>146</v>
-      </c>
-      <c r="K190" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L190" t="n">
-        <v>240.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>239.45</v>
-      </c>
-      <c r="N190" t="n">
-        <v>238.0666666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9981,28 +7359,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>6</v>
-      </c>
-      <c r="J191" t="n">
-        <v>146</v>
-      </c>
-      <c r="K191" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L191" t="n">
-        <v>240.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>239.6</v>
-      </c>
-      <c r="N191" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10032,28 +7394,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>147</v>
-      </c>
-      <c r="K192" t="n">
-        <v>25</v>
-      </c>
-      <c r="L192" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>239.8</v>
-      </c>
-      <c r="N192" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10083,28 +7429,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>7</v>
-      </c>
-      <c r="J193" t="n">
-        <v>147</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>241.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>240</v>
-      </c>
-      <c r="N193" t="n">
-        <v>238.7333333333333</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10134,28 +7464,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>7</v>
-      </c>
-      <c r="J194" t="n">
-        <v>147</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>241.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>240.2</v>
-      </c>
-      <c r="N194" t="n">
-        <v>238.9666666666667</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10185,28 +7499,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>148</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L195" t="n">
-        <v>241.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>240.35</v>
-      </c>
-      <c r="N195" t="n">
-        <v>239.1666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10236,28 +7534,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>6</v>
-      </c>
-      <c r="J196" t="n">
-        <v>148</v>
-      </c>
-      <c r="K196" t="n">
-        <v>50</v>
-      </c>
-      <c r="L196" t="n">
-        <v>241</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="N196" t="n">
-        <v>239.3666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10284,35 +7566,15 @@
         <v>237.0833333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>7</v>
-      </c>
-      <c r="J197" t="n">
-        <v>149</v>
-      </c>
-      <c r="K197" t="n">
-        <v>50</v>
-      </c>
-      <c r="L197" t="n">
-        <v>241.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>240.7</v>
-      </c>
-      <c r="N197" t="n">
-        <v>239.6333333333333</v>
-      </c>
-      <c r="O197" t="n">
-        <v>241</v>
-      </c>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="n">
-        <v>241</v>
-      </c>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10339,37 +7601,15 @@
         <v>237.2333333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>5</v>
-      </c>
-      <c r="J198" t="n">
-        <v>151</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L198" t="n">
-        <v>241.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>240.95</v>
-      </c>
-      <c r="N198" t="n">
-        <v>239.8</v>
-      </c>
-      <c r="O198" t="n">
-        <v>242</v>
-      </c>
-      <c r="P198" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>241</v>
-      </c>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10396,41 +7636,15 @@
         <v>237.3833333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>5</v>
-      </c>
-      <c r="J199" t="n">
-        <v>151</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L199" t="n">
-        <v>241.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>241</v>
-      </c>
-      <c r="N199" t="n">
-        <v>239.9333333333333</v>
-      </c>
-      <c r="O199" t="n">
-        <v>240</v>
-      </c>
-      <c r="P199" t="n">
-        <v>248.4</v>
-      </c>
-      <c r="Q199" t="n">
-        <v>241</v>
-      </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10457,39 +7671,15 @@
         <v>237.55</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>151</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L200" t="n">
-        <v>241.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="N200" t="n">
-        <v>240</v>
-      </c>
-      <c r="O200" t="n">
-        <v>240</v>
-      </c>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="n">
-        <v>241</v>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10516,43 +7706,15 @@
         <v>237.6833333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>4</v>
-      </c>
-      <c r="J201" t="n">
-        <v>152</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L201" t="n">
-        <v>240.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>240.85</v>
-      </c>
-      <c r="N201" t="n">
-        <v>240.0333333333333</v>
-      </c>
-      <c r="O201" t="n">
-        <v>240</v>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q201" t="n">
-        <v>241</v>
-      </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10579,43 +7741,15 @@
         <v>237.8166666666667</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>153</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L202" t="n">
-        <v>240.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>240.85</v>
-      </c>
-      <c r="N202" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="O202" t="n">
-        <v>239</v>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>241</v>
-      </c>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10642,43 +7776,15 @@
         <v>237.9</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>5</v>
-      </c>
-      <c r="J203" t="n">
-        <v>153</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L203" t="n">
-        <v>240.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>240.85</v>
-      </c>
-      <c r="N203" t="n">
-        <v>240.1666666666667</v>
-      </c>
-      <c r="O203" t="n">
-        <v>240</v>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>241</v>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10708,38 +7814,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>4</v>
-      </c>
-      <c r="J204" t="n">
-        <v>154</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L204" t="n">
-        <v>240.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>240.7</v>
-      </c>
-      <c r="N204" t="n">
-        <v>240.2</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q204" t="n">
-        <v>241</v>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10769,38 +7849,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
-      </c>
-      <c r="J205" t="n">
-        <v>155</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L205" t="n">
-        <v>239.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="N205" t="n">
-        <v>240.2</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q205" t="n">
-        <v>241</v>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10830,36 +7884,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="n">
-        <v>157</v>
-      </c>
-      <c r="K206" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L206" t="n">
-        <v>239.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>240.2</v>
-      </c>
-      <c r="N206" t="n">
-        <v>240.1333333333333</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="n">
-        <v>248.4</v>
-      </c>
-      <c r="Q206" t="n">
-        <v>241</v>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10889,34 +7919,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>157</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L207" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>240.05</v>
-      </c>
-      <c r="N207" t="n">
-        <v>240.0666666666667</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="n">
-        <v>241</v>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10946,34 +7954,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
-      </c>
-      <c r="J208" t="n">
-        <v>158</v>
-      </c>
-      <c r="K208" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L208" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>239.9</v>
-      </c>
-      <c r="N208" t="n">
-        <v>240.1333333333333</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="n">
-        <v>241</v>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11003,34 +7989,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>159</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L209" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>239.65</v>
-      </c>
-      <c r="N209" t="n">
-        <v>240.0333333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="n">
-        <v>241</v>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11060,34 +8024,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>2</v>
-      </c>
-      <c r="J210" t="n">
-        <v>160</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L210" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>239.45</v>
-      </c>
-      <c r="N210" t="n">
-        <v>239.8666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="n">
-        <v>241</v>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11119,32 +8061,10 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>162</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L211" t="n">
-        <v>237.4</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>239.15</v>
-      </c>
-      <c r="N211" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="n">
-        <v>241</v>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11174,34 +8094,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>2</v>
-      </c>
-      <c r="J212" t="n">
-        <v>164</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L212" t="n">
-        <v>237.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="N212" t="n">
-        <v>239.6</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="n">
-        <v>241</v>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11231,34 +8129,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
-      </c>
-      <c r="J213" t="n">
-        <v>164</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L213" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>238.65</v>
-      </c>
-      <c r="N213" t="n">
-        <v>239.5</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="n">
-        <v>241</v>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11288,34 +8164,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>164</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L214" t="n">
-        <v>236.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="N214" t="n">
-        <v>239.3333333333333</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="n">
-        <v>241</v>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11345,34 +8199,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
-      </c>
-      <c r="J215" t="n">
-        <v>165</v>
-      </c>
-      <c r="K215" t="n">
-        <v>25</v>
-      </c>
-      <c r="L215" t="n">
-        <v>236.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="N215" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="n">
-        <v>241</v>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11402,35 +8234,13 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>2</v>
-      </c>
-      <c r="J216" t="n">
-        <v>166</v>
-      </c>
-      <c r="K216" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L216" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>238.05</v>
-      </c>
-      <c r="N216" t="n">
-        <v>239.0333333333333</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="n">
-        <v>241</v>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S216" t="n">
-        <v>0.978402489626556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -11459,28 +8269,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>167</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L217" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>237.75</v>
-      </c>
-      <c r="N217" t="n">
-        <v>238.9333333333333</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11510,28 +8304,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="n">
-        <v>167</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0</v>
-      </c>
-      <c r="L218" t="n">
-        <v>236.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="N218" t="n">
-        <v>238.8</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11561,28 +8339,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>168</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="N219" t="n">
-        <v>238.6666666666667</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11612,28 +8374,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>169</v>
-      </c>
-      <c r="K220" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L220" t="n">
-        <v>236.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N220" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11663,28 +8409,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J221" t="n">
-        <v>171</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L221" t="n">
-        <v>236.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N221" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11714,28 +8444,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J222" t="n">
-        <v>172</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L222" t="n">
-        <v>236.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="N222" t="n">
-        <v>237.9666666666667</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11765,28 +8479,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J223" t="n">
-        <v>172</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L223" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>236.25</v>
-      </c>
-      <c r="N223" t="n">
-        <v>237.6666666666667</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11816,28 +8514,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="n">
-        <v>175</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L224" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N224" t="n">
-        <v>237.4666666666667</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11869,26 +8551,10 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>176</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L225" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N225" t="n">
-        <v>237.2666666666667</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11920,1089 +8586,10 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>176</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L226" t="n">
-        <v>235.1</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N226" t="n">
-        <v>237.0666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>235</v>
-      </c>
-      <c r="C227" t="n">
-        <v>235</v>
-      </c>
-      <c r="D227" t="n">
-        <v>235</v>
-      </c>
-      <c r="E227" t="n">
-        <v>235</v>
-      </c>
-      <c r="F227" t="n">
-        <v>530.0872000000001</v>
-      </c>
-      <c r="G227" t="n">
-        <v>238.2333333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>176</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L227" t="n">
-        <v>235</v>
-      </c>
-      <c r="M227" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N227" t="n">
-        <v>236.8333333333333</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>235</v>
-      </c>
-      <c r="C228" t="n">
-        <v>237</v>
-      </c>
-      <c r="D228" t="n">
-        <v>237</v>
-      </c>
-      <c r="E228" t="n">
-        <v>235</v>
-      </c>
-      <c r="F228" t="n">
-        <v>20287.9788</v>
-      </c>
-      <c r="G228" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2</v>
-      </c>
-      <c r="J228" t="n">
-        <v>178</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="M228" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N228" t="n">
-        <v>236.7333333333333</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>235</v>
-      </c>
-      <c r="C229" t="n">
-        <v>235</v>
-      </c>
-      <c r="D229" t="n">
-        <v>235</v>
-      </c>
-      <c r="E229" t="n">
-        <v>235</v>
-      </c>
-      <c r="F229" t="n">
-        <v>681.814</v>
-      </c>
-      <c r="G229" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>180</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L229" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="M229" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="N229" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>234</v>
-      </c>
-      <c r="C230" t="n">
-        <v>234</v>
-      </c>
-      <c r="D230" t="n">
-        <v>234</v>
-      </c>
-      <c r="E230" t="n">
-        <v>234</v>
-      </c>
-      <c r="F230" t="n">
-        <v>920.154</v>
-      </c>
-      <c r="G230" t="n">
-        <v>238.1833333333333</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J230" t="n">
-        <v>181</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0</v>
-      </c>
-      <c r="L230" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="M230" t="n">
-        <v>235.65</v>
-      </c>
-      <c r="N230" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>234</v>
-      </c>
-      <c r="C231" t="n">
-        <v>234</v>
-      </c>
-      <c r="D231" t="n">
-        <v>234</v>
-      </c>
-      <c r="E231" t="n">
-        <v>234</v>
-      </c>
-      <c r="F231" t="n">
-        <v>429.1287</v>
-      </c>
-      <c r="G231" t="n">
-        <v>238.1166666666667</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J231" t="n">
-        <v>181</v>
-      </c>
-      <c r="K231" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L231" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="M231" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="N231" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>234</v>
-      </c>
-      <c r="C232" t="n">
-        <v>234</v>
-      </c>
-      <c r="D232" t="n">
-        <v>234</v>
-      </c>
-      <c r="E232" t="n">
-        <v>234</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3412.0235</v>
-      </c>
-      <c r="G232" t="n">
-        <v>238.05</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J232" t="n">
-        <v>181</v>
-      </c>
-      <c r="K232" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L232" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="M232" t="n">
-        <v>235.45</v>
-      </c>
-      <c r="N232" t="n">
-        <v>236</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>233</v>
-      </c>
-      <c r="C233" t="n">
-        <v>234</v>
-      </c>
-      <c r="D233" t="n">
-        <v>234</v>
-      </c>
-      <c r="E233" t="n">
-        <v>232</v>
-      </c>
-      <c r="F233" t="n">
-        <v>6470.0121</v>
-      </c>
-      <c r="G233" t="n">
-        <v>237.9833333333333</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J233" t="n">
-        <v>181</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L233" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="M233" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="N233" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>234</v>
-      </c>
-      <c r="C234" t="n">
-        <v>234</v>
-      </c>
-      <c r="D234" t="n">
-        <v>234</v>
-      </c>
-      <c r="E234" t="n">
-        <v>234</v>
-      </c>
-      <c r="F234" t="n">
-        <v>969.0272</v>
-      </c>
-      <c r="G234" t="n">
-        <v>237.9166666666667</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J234" t="n">
-        <v>181</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L234" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="M234" t="n">
-        <v>235.15</v>
-      </c>
-      <c r="N234" t="n">
-        <v>235.6333333333333</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>234</v>
-      </c>
-      <c r="C235" t="n">
-        <v>234</v>
-      </c>
-      <c r="D235" t="n">
-        <v>234</v>
-      </c>
-      <c r="E235" t="n">
-        <v>234</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1067.5071</v>
-      </c>
-      <c r="G235" t="n">
-        <v>237.85</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J235" t="n">
-        <v>181</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L235" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="M235" t="n">
-        <v>234.95</v>
-      </c>
-      <c r="N235" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>234</v>
-      </c>
-      <c r="C236" t="n">
-        <v>234</v>
-      </c>
-      <c r="D236" t="n">
-        <v>234</v>
-      </c>
-      <c r="E236" t="n">
-        <v>234</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1328.4759</v>
-      </c>
-      <c r="G236" t="n">
-        <v>237.7833333333333</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J236" t="n">
-        <v>181</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L236" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="M236" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="N236" t="n">
-        <v>235.4333333333333</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>234</v>
-      </c>
-      <c r="C237" t="n">
-        <v>234</v>
-      </c>
-      <c r="D237" t="n">
-        <v>234</v>
-      </c>
-      <c r="E237" t="n">
-        <v>234</v>
-      </c>
-      <c r="F237" t="n">
-        <v>420.126</v>
-      </c>
-      <c r="G237" t="n">
-        <v>237.7166666666667</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J237" t="n">
-        <v>181</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L237" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="M237" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="N237" t="n">
-        <v>235.3666666666667</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>234</v>
-      </c>
-      <c r="C238" t="n">
-        <v>234</v>
-      </c>
-      <c r="D238" t="n">
-        <v>234</v>
-      </c>
-      <c r="E238" t="n">
-        <v>233</v>
-      </c>
-      <c r="F238" t="n">
-        <v>5731.952</v>
-      </c>
-      <c r="G238" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>181</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L238" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="M238" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="N238" t="n">
-        <v>235.2666666666667</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>234</v>
-      </c>
-      <c r="C239" t="n">
-        <v>234</v>
-      </c>
-      <c r="D239" t="n">
-        <v>234</v>
-      </c>
-      <c r="E239" t="n">
-        <v>234</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1373.2427</v>
-      </c>
-      <c r="G239" t="n">
-        <v>237.6166666666667</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J239" t="n">
-        <v>181</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>234</v>
-      </c>
-      <c r="M239" t="n">
-        <v>234.45</v>
-      </c>
-      <c r="N239" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>234</v>
-      </c>
-      <c r="C240" t="n">
-        <v>234</v>
-      </c>
-      <c r="D240" t="n">
-        <v>234</v>
-      </c>
-      <c r="E240" t="n">
-        <v>234</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1302.3299</v>
-      </c>
-      <c r="G240" t="n">
-        <v>237.4833333333333</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J240" t="n">
-        <v>181</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>234</v>
-      </c>
-      <c r="M240" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N240" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>234</v>
-      </c>
-      <c r="C241" t="n">
-        <v>234</v>
-      </c>
-      <c r="D241" t="n">
-        <v>234</v>
-      </c>
-      <c r="E241" t="n">
-        <v>234</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4025.6412</v>
-      </c>
-      <c r="G241" t="n">
-        <v>237.3833333333333</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J241" t="n">
-        <v>181</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>234</v>
-      </c>
-      <c r="M241" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N241" t="n">
-        <v>235.0666666666667</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>234</v>
-      </c>
-      <c r="C242" t="n">
-        <v>234</v>
-      </c>
-      <c r="D242" t="n">
-        <v>234</v>
-      </c>
-      <c r="E242" t="n">
-        <v>234</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2668.8837</v>
-      </c>
-      <c r="G242" t="n">
-        <v>237.2833333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J242" t="n">
-        <v>181</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>234</v>
-      </c>
-      <c r="M242" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="N242" t="n">
-        <v>234.9666666666667</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>235</v>
-      </c>
-      <c r="C243" t="n">
-        <v>235</v>
-      </c>
-      <c r="D243" t="n">
-        <v>235</v>
-      </c>
-      <c r="E243" t="n">
-        <v>235</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1741.6227</v>
-      </c>
-      <c r="G243" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>182</v>
-      </c>
-      <c r="K243" t="n">
-        <v>100</v>
-      </c>
-      <c r="L243" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="M243" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="N243" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>236</v>
-      </c>
-      <c r="C244" t="n">
-        <v>236</v>
-      </c>
-      <c r="D244" t="n">
-        <v>236</v>
-      </c>
-      <c r="E244" t="n">
-        <v>236</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1565.6227</v>
-      </c>
-      <c r="G244" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
-      <c r="J244" t="n">
-        <v>183</v>
-      </c>
-      <c r="K244" t="n">
-        <v>100</v>
-      </c>
-      <c r="L244" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="M244" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="N244" t="n">
-        <v>234.8666666666667</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>237</v>
-      </c>
-      <c r="C245" t="n">
-        <v>237</v>
-      </c>
-      <c r="D245" t="n">
-        <v>237</v>
-      </c>
-      <c r="E245" t="n">
-        <v>237</v>
-      </c>
-      <c r="F245" t="n">
-        <v>3359.6834</v>
-      </c>
-      <c r="G245" t="n">
-        <v>237.0166666666667</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>2</v>
-      </c>
-      <c r="J245" t="n">
-        <v>184</v>
-      </c>
-      <c r="K245" t="n">
-        <v>100</v>
-      </c>
-      <c r="L245" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="M245" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="N245" t="n">
-        <v>234.8333333333333</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>238</v>
-      </c>
-      <c r="C246" t="n">
-        <v>238</v>
-      </c>
-      <c r="D246" t="n">
-        <v>238</v>
-      </c>
-      <c r="E246" t="n">
-        <v>238</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4500.3025</v>
-      </c>
-      <c r="G246" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3</v>
-      </c>
-      <c r="J246" t="n">
-        <v>185</v>
-      </c>
-      <c r="K246" t="n">
-        <v>100</v>
-      </c>
-      <c r="L246" t="n">
-        <v>235</v>
-      </c>
-      <c r="M246" t="n">
-        <v>234.75</v>
-      </c>
-      <c r="N246" t="n">
-        <v>234.8666666666667</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>239</v>
-      </c>
-      <c r="C247" t="n">
-        <v>239</v>
-      </c>
-      <c r="D247" t="n">
-        <v>239</v>
-      </c>
-      <c r="E247" t="n">
-        <v>239</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1</v>
-      </c>
-      <c r="G247" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4</v>
-      </c>
-      <c r="J247" t="n">
-        <v>186</v>
-      </c>
-      <c r="K247" t="n">
-        <v>100</v>
-      </c>
-      <c r="L247" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="M247" t="n">
-        <v>234.95</v>
-      </c>
-      <c r="N247" t="n">
-        <v>234.9666666666667</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -4721,389 +4721,359 @@
         <v>234.7</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>233</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>232</v>
+      </c>
+      <c r="C125" t="n">
+        <v>232</v>
+      </c>
+      <c r="D125" t="n">
+        <v>232</v>
+      </c>
+      <c r="E125" t="n">
+        <v>232</v>
+      </c>
+      <c r="F125" t="n">
+        <v>346</v>
+      </c>
+      <c r="G125" t="n">
+        <v>234.6333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>232</v>
+      </c>
+      <c r="C126" t="n">
+        <v>232</v>
+      </c>
+      <c r="D126" t="n">
+        <v>232</v>
+      </c>
+      <c r="E126" t="n">
+        <v>232</v>
+      </c>
+      <c r="F126" t="n">
+        <v>173</v>
+      </c>
+      <c r="G126" t="n">
+        <v>234.5833333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>232</v>
+      </c>
+      <c r="C127" t="n">
+        <v>232</v>
+      </c>
+      <c r="D127" t="n">
+        <v>232</v>
+      </c>
+      <c r="E127" t="n">
+        <v>232</v>
+      </c>
+      <c r="F127" t="n">
+        <v>134</v>
+      </c>
+      <c r="G127" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>232</v>
+      </c>
+      <c r="C128" t="n">
+        <v>232</v>
+      </c>
+      <c r="D128" t="n">
+        <v>232</v>
+      </c>
+      <c r="E128" t="n">
+        <v>232</v>
+      </c>
+      <c r="F128" t="n">
+        <v>135</v>
+      </c>
+      <c r="G128" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>232</v>
+      </c>
+      <c r="K128" t="n">
+        <v>232</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>233</v>
+      </c>
+      <c r="C129" t="n">
+        <v>233</v>
+      </c>
+      <c r="D129" t="n">
+        <v>233</v>
+      </c>
+      <c r="E129" t="n">
+        <v>233</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>234.3166666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>232</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>233</v>
+      </c>
+      <c r="C130" t="n">
+        <v>233</v>
+      </c>
+      <c r="D130" t="n">
+        <v>233</v>
+      </c>
+      <c r="E130" t="n">
+        <v>233</v>
+      </c>
+      <c r="F130" t="n">
+        <v>462</v>
+      </c>
+      <c r="G130" t="n">
+        <v>234.2833333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>233</v>
+      </c>
+      <c r="K130" t="n">
+        <v>232</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>233</v>
+      </c>
+      <c r="C131" t="n">
+        <v>233</v>
+      </c>
+      <c r="D131" t="n">
+        <v>233</v>
+      </c>
+      <c r="E131" t="n">
+        <v>233</v>
+      </c>
+      <c r="F131" t="n">
+        <v>176</v>
+      </c>
+      <c r="G131" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>233</v>
+      </c>
+      <c r="C132" t="n">
+        <v>233</v>
+      </c>
+      <c r="D132" t="n">
+        <v>233</v>
+      </c>
+      <c r="E132" t="n">
+        <v>233</v>
+      </c>
+      <c r="F132" t="n">
+        <v>225</v>
+      </c>
+      <c r="G132" t="n">
+        <v>234.1166666666667</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>233</v>
+      </c>
+      <c r="K132" t="n">
+        <v>233</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>232</v>
+      </c>
+      <c r="C133" t="n">
+        <v>233</v>
+      </c>
+      <c r="D133" t="n">
+        <v>233</v>
+      </c>
+      <c r="E133" t="n">
+        <v>231</v>
+      </c>
+      <c r="F133" t="n">
+        <v>23629</v>
+      </c>
+      <c r="G133" t="n">
+        <v>234.0666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>233</v>
+      </c>
+      <c r="K133" t="n">
+        <v>233</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>232</v>
-      </c>
-      <c r="C125" t="n">
-        <v>232</v>
-      </c>
-      <c r="D125" t="n">
-        <v>232</v>
-      </c>
-      <c r="E125" t="n">
-        <v>232</v>
-      </c>
-      <c r="F125" t="n">
-        <v>346</v>
-      </c>
-      <c r="G125" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>232</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>232</v>
-      </c>
-      <c r="C126" t="n">
-        <v>232</v>
-      </c>
-      <c r="D126" t="n">
-        <v>232</v>
-      </c>
-      <c r="E126" t="n">
-        <v>232</v>
-      </c>
-      <c r="F126" t="n">
-        <v>173</v>
-      </c>
-      <c r="G126" t="n">
-        <v>234.5833333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>232</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>232</v>
-      </c>
-      <c r="C127" t="n">
-        <v>232</v>
-      </c>
-      <c r="D127" t="n">
-        <v>232</v>
-      </c>
-      <c r="E127" t="n">
-        <v>232</v>
-      </c>
-      <c r="F127" t="n">
-        <v>134</v>
-      </c>
-      <c r="G127" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>232</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>232</v>
-      </c>
-      <c r="C128" t="n">
-        <v>232</v>
-      </c>
-      <c r="D128" t="n">
-        <v>232</v>
-      </c>
-      <c r="E128" t="n">
-        <v>232</v>
-      </c>
-      <c r="F128" t="n">
-        <v>135</v>
-      </c>
-      <c r="G128" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>232</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>233</v>
-      </c>
-      <c r="C129" t="n">
-        <v>233</v>
-      </c>
-      <c r="D129" t="n">
-        <v>233</v>
-      </c>
-      <c r="E129" t="n">
-        <v>233</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>234.3166666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>233</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>233</v>
-      </c>
-      <c r="C130" t="n">
-        <v>233</v>
-      </c>
-      <c r="D130" t="n">
-        <v>233</v>
-      </c>
-      <c r="E130" t="n">
-        <v>233</v>
-      </c>
-      <c r="F130" t="n">
-        <v>462</v>
-      </c>
-      <c r="G130" t="n">
-        <v>234.2833333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>233</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>233</v>
-      </c>
-      <c r="C131" t="n">
-        <v>233</v>
-      </c>
-      <c r="D131" t="n">
-        <v>233</v>
-      </c>
-      <c r="E131" t="n">
-        <v>233</v>
-      </c>
-      <c r="F131" t="n">
-        <v>176</v>
-      </c>
-      <c r="G131" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>233</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>233</v>
-      </c>
-      <c r="C132" t="n">
-        <v>233</v>
-      </c>
-      <c r="D132" t="n">
-        <v>233</v>
-      </c>
-      <c r="E132" t="n">
-        <v>233</v>
-      </c>
-      <c r="F132" t="n">
-        <v>225</v>
-      </c>
-      <c r="G132" t="n">
-        <v>234.1166666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>233</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>232</v>
-      </c>
-      <c r="C133" t="n">
-        <v>233</v>
-      </c>
-      <c r="D133" t="n">
-        <v>233</v>
-      </c>
-      <c r="E133" t="n">
-        <v>231</v>
-      </c>
-      <c r="F133" t="n">
-        <v>23629</v>
-      </c>
-      <c r="G133" t="n">
-        <v>234.0666666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>232</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5131,15 +5101,15 @@
         <v>233.9833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>232</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>233</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,7 +5148,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>233</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5217,7 +5189,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>233</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,7 +5230,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>233</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,15 +5265,15 @@
         <v>233.7666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>231</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>233</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,15 +5306,15 @@
         <v>233.6833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>231</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>233</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,15 +5347,15 @@
         <v>233.5833333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>230</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>233</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,15 +5388,15 @@
         <v>233.4833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>231</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>233</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,15 +5429,15 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>232</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>233</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,15 +5470,15 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>235</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>233</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,15 +5511,15 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>235</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>233</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,15 +5552,15 @@
         <v>233.4166666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>234</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>233</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,15 +5593,15 @@
         <v>233.4333333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>236</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>233</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,7 +5640,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>233</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,7 +5681,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>233</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,7 +5722,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>233</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,7 +5763,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>233</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,7 +5804,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>233</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,7 +5845,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>233</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,7 +5886,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>233</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,7 +5927,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>233</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,7 +5968,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>233</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,7 +6009,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>233</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,7 +6050,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>233</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,7 +6091,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>233</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,7 +6132,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>233</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6173,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>233</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6210,7 +6214,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>233</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,7 +6255,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>233</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,7 +6296,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>233</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6327,7 +6337,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>233</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6366,7 +6378,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>233</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,7 +6419,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>233</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,7 +6460,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>233</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6483,7 +6501,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>233</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,7 +6542,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>233</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6561,7 +6583,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>233</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,7 +6624,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>233</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,7 +6665,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>233</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,7 +6706,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>233</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,7 +6747,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>233</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,7 +6788,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>233</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,7 +6829,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>233</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,7 +6870,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>233</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,7 +6911,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>233</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,7 +6952,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>233</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,7 +6993,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>233</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,7 +7034,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>233</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,17 +7072,19 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>233</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>1</v>
+        <v>1.025042918454936</v>
       </c>
     </row>
     <row r="183">
@@ -7065,15 +7113,11 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +7152,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +7187,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7186,12 +7222,10 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7254,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7324,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7359,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7394,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7569,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -7604,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -7639,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>

--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>1029.1433</v>
+        <v>2947.6464</v>
       </c>
       <c r="G2" t="n">
-        <v>238.7833333333333</v>
+        <v>238.8166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1029.1433</v>
       </c>
       <c r="G3" t="n">
         <v>238.7833333333333</v>
@@ -515,7 +515,7 @@
         <v>236</v>
       </c>
       <c r="F4" t="n">
-        <v>1052.7357</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>238.7833333333333</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" t="n">
-        <v>17414.0336</v>
+        <v>1052.7357</v>
       </c>
       <c r="G5" t="n">
-        <v>238.8166666666667</v>
+        <v>238.7833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="n">
         <v>238</v>
@@ -582,10 +582,10 @@
         <v>238</v>
       </c>
       <c r="E6" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F6" t="n">
-        <v>17.3193</v>
+        <v>17414.0336</v>
       </c>
       <c r="G6" t="n">
         <v>238.8166666666667</v>
@@ -620,7 +620,7 @@
         <v>238</v>
       </c>
       <c r="F7" t="n">
-        <v>720.5924</v>
+        <v>17.3193</v>
       </c>
       <c r="G7" t="n">
         <v>238.8166666666667</v>
@@ -646,19 +646,19 @@
         <v>238</v>
       </c>
       <c r="C8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="n">
         <v>238</v>
       </c>
       <c r="F8" t="n">
-        <v>82.11752426770001</v>
+        <v>720.5924</v>
       </c>
       <c r="G8" t="n">
-        <v>238.8333333333333</v>
+        <v>238.8166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>238</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
         <v>238</v>
       </c>
       <c r="F9" t="n">
-        <v>407</v>
+        <v>82.11752426770001</v>
       </c>
       <c r="G9" t="n">
         <v>238.8333333333333</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" t="n">
-        <v>221.7448</v>
+        <v>407</v>
       </c>
       <c r="G10" t="n">
-        <v>238.8</v>
+        <v>238.8333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" t="n">
-        <v>1539.9586</v>
+        <v>221.7448</v>
       </c>
       <c r="G11" t="n">
-        <v>238.7333333333333</v>
+        <v>238.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1539.9586</v>
       </c>
       <c r="G12" t="n">
-        <v>238.65</v>
+        <v>238.7333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>239</v>
       </c>
       <c r="F13" t="n">
-        <v>823.4225</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>238.5666666666667</v>
+        <v>238.65</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>823.4225</v>
       </c>
       <c r="G14" t="n">
-        <v>238.45</v>
+        <v>238.5666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>238</v>
       </c>
       <c r="F15" t="n">
-        <v>2960.1422</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>238.3833333333333</v>
+        <v>238.45</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
-        <v>1965.1779</v>
+        <v>2960.1422</v>
       </c>
       <c r="G16" t="n">
-        <v>238.25</v>
+        <v>238.3833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F17" t="n">
-        <v>17.276</v>
+        <v>1965.1779</v>
       </c>
       <c r="G17" t="n">
-        <v>238.15</v>
+        <v>238.25</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>17.276</v>
       </c>
       <c r="G18" t="n">
-        <v>238.1</v>
+        <v>238.15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>237</v>
       </c>
       <c r="F19" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>238.0666666666667</v>
+        <v>238.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="G20" t="n">
-        <v>238.05</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>84.8185654008</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>238.0166666666667</v>
+        <v>238.05</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>237</v>
       </c>
       <c r="F22" t="n">
-        <v>87.7932489451</v>
+        <v>84.8185654008</v>
       </c>
       <c r="G22" t="n">
-        <v>237.95</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F23" t="n">
-        <v>218</v>
+        <v>87.7932489451</v>
       </c>
       <c r="G23" t="n">
-        <v>237.8333333333333</v>
+        <v>237.95</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F24" t="n">
-        <v>5548.5054</v>
+        <v>218</v>
       </c>
       <c r="G24" t="n">
-        <v>237.7166666666667</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5548.5054</v>
       </c>
       <c r="G25" t="n">
-        <v>237.6333333333333</v>
+        <v>237.7166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>238</v>
       </c>
       <c r="F26" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>237.6166666666667</v>
+        <v>237.6333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F27" t="n">
-        <v>71.879</v>
+        <v>202</v>
       </c>
       <c r="G27" t="n">
-        <v>237.6</v>
+        <v>237.6166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>237</v>
       </c>
       <c r="F28" t="n">
-        <v>11210</v>
+        <v>71.879</v>
       </c>
       <c r="G28" t="n">
-        <v>237.5333333333333</v>
+        <v>237.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F29" t="n">
-        <v>6235.5182</v>
+        <v>11210</v>
       </c>
       <c r="G29" t="n">
-        <v>237.4666666666667</v>
+        <v>237.5333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>236</v>
       </c>
       <c r="F30" t="n">
-        <v>565.251</v>
+        <v>6235.5182</v>
       </c>
       <c r="G30" t="n">
-        <v>237.3333333333333</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>236</v>
       </c>
       <c r="F31" t="n">
-        <v>2127.6595</v>
+        <v>565.251</v>
       </c>
       <c r="G31" t="n">
-        <v>237.2666666666667</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>236</v>
       </c>
       <c r="F32" t="n">
-        <v>452</v>
+        <v>2127.6595</v>
       </c>
       <c r="G32" t="n">
-        <v>237.1333333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>236</v>
       </c>
       <c r="C33" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D33" t="n">
         <v>236</v>
       </c>
       <c r="E33" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F33" t="n">
-        <v>21112.7883</v>
+        <v>452</v>
       </c>
       <c r="G33" t="n">
-        <v>237.15</v>
+        <v>237.1333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" t="n">
-        <v>1197.2056</v>
+        <v>21112.7883</v>
       </c>
       <c r="G34" t="n">
-        <v>237.0166666666667</v>
+        <v>237.15</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" t="n">
         <v>234</v>
       </c>
       <c r="D35" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" t="n">
         <v>234</v>
       </c>
       <c r="F35" t="n">
-        <v>456.8</v>
+        <v>1197.2056</v>
       </c>
       <c r="G35" t="n">
-        <v>236.85</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C36" t="n">
         <v>234</v>
       </c>
       <c r="D36" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36" t="n">
         <v>234</v>
       </c>
       <c r="F36" t="n">
-        <v>2170.5834</v>
+        <v>456.8</v>
       </c>
       <c r="G36" t="n">
-        <v>236.6833333333333</v>
+        <v>236.85</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" t="n">
-        <v>43.0327</v>
+        <v>2170.5834</v>
       </c>
       <c r="G37" t="n">
-        <v>236.5333333333333</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>235</v>
       </c>
       <c r="F38" t="n">
-        <v>279.9034</v>
+        <v>43.0327</v>
       </c>
       <c r="G38" t="n">
-        <v>236.55</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F39" t="n">
-        <v>3372.1579</v>
+        <v>279.9034</v>
       </c>
       <c r="G39" t="n">
-        <v>236.45</v>
+        <v>236.55</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>234</v>
       </c>
       <c r="F40" t="n">
-        <v>624</v>
+        <v>3372.1579</v>
       </c>
       <c r="G40" t="n">
-        <v>236.35</v>
+        <v>236.45</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>234</v>
       </c>
       <c r="F41" t="n">
-        <v>2612.9999</v>
+        <v>624</v>
       </c>
       <c r="G41" t="n">
-        <v>236.3</v>
+        <v>236.35</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>234</v>
       </c>
       <c r="F42" t="n">
-        <v>1686.5641</v>
+        <v>2612.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>236.2333333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>234</v>
       </c>
       <c r="F43" t="n">
-        <v>1932.3206</v>
+        <v>1686.5641</v>
       </c>
       <c r="G43" t="n">
-        <v>236.15</v>
+        <v>236.2333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F44" t="n">
-        <v>12.7118644067</v>
+        <v>1932.3206</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1666666666667</v>
+        <v>236.15</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>236</v>
       </c>
       <c r="F45" t="n">
-        <v>955.8026</v>
+        <v>12.7118644067</v>
       </c>
       <c r="G45" t="n">
-        <v>236.2166666666667</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>236</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D46" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" t="n">
         <v>236</v>
       </c>
       <c r="F46" t="n">
-        <v>5265.8863</v>
+        <v>955.8026</v>
       </c>
       <c r="G46" t="n">
         <v>236.2166666666667</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F47" t="n">
-        <v>1979.8219</v>
+        <v>5265.8863</v>
       </c>
       <c r="G47" t="n">
-        <v>236.3</v>
+        <v>236.2166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>239</v>
       </c>
       <c r="C48" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" t="n">
         <v>239</v>
       </c>
       <c r="F48" t="n">
-        <v>165.2357</v>
+        <v>1979.8219</v>
       </c>
       <c r="G48" t="n">
-        <v>236.4</v>
+        <v>236.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" t="n">
         <v>240</v>
@@ -2087,13 +2087,13 @@
         <v>240</v>
       </c>
       <c r="E49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" t="n">
-        <v>1027.7416</v>
+        <v>165.2357</v>
       </c>
       <c r="G49" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F50" t="n">
-        <v>2344.483</v>
+        <v>1027.7416</v>
       </c>
       <c r="G50" t="n">
-        <v>236.4</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>236</v>
       </c>
       <c r="F51" t="n">
-        <v>1384.2097</v>
+        <v>2344.483</v>
       </c>
       <c r="G51" t="n">
-        <v>236.4166666666667</v>
+        <v>236.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>236</v>
       </c>
       <c r="F52" t="n">
-        <v>30.6023</v>
+        <v>1384.2097</v>
       </c>
       <c r="G52" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" t="n">
         <v>236</v>
       </c>
       <c r="D53" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" t="n">
         <v>236</v>
       </c>
       <c r="F53" t="n">
-        <v>549.9404</v>
+        <v>30.6023</v>
       </c>
       <c r="G53" t="n">
-        <v>236.4</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C54" t="n">
         <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" t="n">
         <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>562.1909000000001</v>
+        <v>549.9404</v>
       </c>
       <c r="G54" t="n">
-        <v>236.4166666666667</v>
+        <v>236.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F55" t="n">
-        <v>44.3635</v>
+        <v>562.1909000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="F56" t="n">
-        <v>764</v>
+        <v>44.3635</v>
       </c>
       <c r="G56" t="n">
         <v>236.4333333333333</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" t="n">
         <v>238</v>
       </c>
       <c r="D57" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" t="n">
         <v>238</v>
       </c>
       <c r="F57" t="n">
-        <v>9517.2217</v>
+        <v>764</v>
       </c>
       <c r="G57" t="n">
-        <v>236.4833333333333</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C58" t="n">
         <v>238</v>
       </c>
       <c r="D58" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E58" t="n">
         <v>238</v>
       </c>
       <c r="F58" t="n">
-        <v>3641</v>
+        <v>9517.2217</v>
       </c>
       <c r="G58" t="n">
-        <v>236.5333333333333</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>238</v>
       </c>
       <c r="F59" t="n">
-        <v>4730</v>
+        <v>3641</v>
       </c>
       <c r="G59" t="n">
-        <v>236.5833333333333</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>238</v>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>4730</v>
       </c>
       <c r="G60" t="n">
-        <v>236.6333333333333</v>
+        <v>236.5833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" t="n">
-        <v>939.0794648535</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>236.7166666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C62" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D62" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E62" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F62" t="n">
-        <v>319.8039</v>
+        <v>939.0794648535</v>
       </c>
       <c r="G62" t="n">
-        <v>236.75</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>238</v>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" t="n">
         <v>238</v>
       </c>
       <c r="E63" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>319.8039</v>
       </c>
       <c r="G63" t="n">
-        <v>236.7833333333333</v>
+        <v>236.75</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F64" t="n">
-        <v>620</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>236.8</v>
+        <v>236.7833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>1353</v>
+        <v>620</v>
       </c>
       <c r="G65" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>236</v>
       </c>
       <c r="C66" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D66" t="n">
         <v>236</v>
       </c>
       <c r="E66" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F66" t="n">
-        <v>14959.8305</v>
+        <v>1353</v>
       </c>
       <c r="G66" t="n">
-        <v>236.7166666666667</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>14959.8305</v>
       </c>
       <c r="G67" t="n">
-        <v>236.7</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>237</v>
       </c>
       <c r="C68" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" t="n">
         <v>237</v>
       </c>
       <c r="F68" t="n">
-        <v>2743.5583516806</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>236.6833333333333</v>
+        <v>236.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" t="n">
         <v>238</v>
@@ -2787,10 +2787,10 @@
         <v>238</v>
       </c>
       <c r="E69" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F69" t="n">
-        <v>4132.1344537815</v>
+        <v>2743.5583516806</v>
       </c>
       <c r="G69" t="n">
         <v>236.6833333333333</v>
@@ -2816,19 +2816,19 @@
         <v>238</v>
       </c>
       <c r="C70" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D70" t="n">
         <v>238</v>
       </c>
       <c r="E70" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F70" t="n">
-        <v>6231.84</v>
+        <v>4132.1344537815</v>
       </c>
       <c r="G70" t="n">
-        <v>236.6666666666667</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C71" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D71" t="n">
         <v>238</v>
       </c>
       <c r="E71" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" t="n">
-        <v>144</v>
+        <v>6231.84</v>
       </c>
       <c r="G71" t="n">
         <v>236.6666666666667</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" t="n">
         <v>238</v>
@@ -2892,13 +2892,13 @@
         <v>238</v>
       </c>
       <c r="E72" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F72" t="n">
-        <v>385.1302</v>
+        <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>236.65</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>238</v>
       </c>
       <c r="C73" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D73" t="n">
         <v>238</v>
       </c>
       <c r="E73" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F73" t="n">
-        <v>22.878</v>
+        <v>385.1302</v>
       </c>
       <c r="G73" t="n">
-        <v>236.6</v>
+        <v>236.65</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>238</v>
       </c>
       <c r="C74" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D74" t="n">
         <v>238</v>
       </c>
       <c r="E74" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F74" t="n">
-        <v>249.7058</v>
+        <v>22.878</v>
       </c>
       <c r="G74" t="n">
         <v>236.6</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F75" t="n">
-        <v>7.6133</v>
+        <v>249.7058</v>
       </c>
       <c r="G75" t="n">
-        <v>236.5666666666667</v>
+        <v>236.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>236</v>
       </c>
       <c r="F76" t="n">
-        <v>877.723</v>
+        <v>7.6133</v>
       </c>
       <c r="G76" t="n">
         <v>236.5666666666667</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D77" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F77" t="n">
-        <v>37524.6977</v>
+        <v>877.723</v>
       </c>
       <c r="G77" t="n">
-        <v>236.55</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F78" t="n">
-        <v>1501.4316</v>
+        <v>37524.6977</v>
       </c>
       <c r="G78" t="n">
-        <v>236.5333333333333</v>
+        <v>236.55</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>236</v>
       </c>
       <c r="F79" t="n">
-        <v>142.5684</v>
+        <v>1501.4316</v>
       </c>
       <c r="G79" t="n">
-        <v>236.5166666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>236</v>
       </c>
       <c r="F80" t="n">
-        <v>548</v>
+        <v>142.5684</v>
       </c>
       <c r="G80" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F81" t="n">
-        <v>2274.3459915611</v>
+        <v>548</v>
       </c>
       <c r="G81" t="n">
         <v>236.4833333333333</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F82" t="n">
-        <v>35.3262</v>
+        <v>2274.3459915611</v>
       </c>
       <c r="G82" t="n">
-        <v>236.4666666666667</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F83" t="n">
-        <v>765</v>
+        <v>35.3262</v>
       </c>
       <c r="G83" t="n">
-        <v>236.45</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>235</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>765</v>
       </c>
       <c r="G84" t="n">
-        <v>236.4166666666667</v>
+        <v>236.45</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C86" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E86" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F86" t="n">
-        <v>3125.1107</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>236.3333333333333</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" t="n">
         <v>235</v>
@@ -3417,13 +3417,13 @@
         <v>235</v>
       </c>
       <c r="E87" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F87" t="n">
-        <v>301</v>
+        <v>3125.1107</v>
       </c>
       <c r="G87" t="n">
-        <v>236.3</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>235</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="G88" t="n">
-        <v>236.2666666666667</v>
+        <v>236.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>235</v>
       </c>
       <c r="F89" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G89" t="n">
-        <v>236.25</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G90" t="n">
-        <v>236.2</v>
+        <v>236.25</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>233</v>
       </c>
       <c r="F91" t="n">
-        <v>807.6521</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>236.15</v>
+        <v>236.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>807.6521</v>
       </c>
       <c r="G92" t="n">
-        <v>236.1333333333333</v>
+        <v>236.15</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>235</v>
       </c>
       <c r="F93" t="n">
-        <v>961.3106</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
         <v>236.1333333333333</v>
@@ -3653,19 +3653,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C94" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D94" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E94" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F94" t="n">
-        <v>17022.9106</v>
+        <v>961.3106</v>
       </c>
       <c r="G94" t="n">
         <v>236.1333333333333</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" t="n">
         <v>234</v>
@@ -3697,10 +3697,10 @@
         <v>234</v>
       </c>
       <c r="E95" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F95" t="n">
-        <v>980</v>
+        <v>17022.9106</v>
       </c>
       <c r="G95" t="n">
         <v>236.1333333333333</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" t="n">
-        <v>4.8638</v>
+        <v>980</v>
       </c>
       <c r="G96" t="n">
-        <v>236.15</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,7 +3770,7 @@
         <v>235</v>
       </c>
       <c r="F97" t="n">
-        <v>8.187200000000001</v>
+        <v>4.8638</v>
       </c>
       <c r="G97" t="n">
         <v>236.15</v>
@@ -3805,7 +3805,7 @@
         <v>235</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>8.187200000000001</v>
       </c>
       <c r="G98" t="n">
         <v>236.15</v>
@@ -3828,19 +3828,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C99" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D99" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E99" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F99" t="n">
-        <v>11958.3635</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>236.15</v>
@@ -3866,19 +3866,19 @@
         <v>233</v>
       </c>
       <c r="C100" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E100" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F100" t="n">
-        <v>990.0386</v>
+        <v>11958.3635</v>
       </c>
       <c r="G100" t="n">
-        <v>236.1333333333333</v>
+        <v>236.15</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>990.0386</v>
       </c>
       <c r="G101" t="n">
         <v>236.1333333333333</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F102" t="n">
-        <v>425.56</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>236.1166666666667</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>233</v>
       </c>
       <c r="F103" t="n">
-        <v>166</v>
+        <v>425.56</v>
       </c>
       <c r="G103" t="n">
-        <v>236.1</v>
+        <v>236.1166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D104" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F104" t="n">
-        <v>168.7645</v>
+        <v>166</v>
       </c>
       <c r="G104" t="n">
-        <v>236.0166666666667</v>
+        <v>236.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E105" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F105" t="n">
-        <v>232.6454</v>
+        <v>168.7645</v>
       </c>
       <c r="G105" t="n">
-        <v>235.9666666666667</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>232.6454</v>
       </c>
       <c r="G106" t="n">
-        <v>235.9</v>
+        <v>235.9666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>234</v>
       </c>
       <c r="F107" t="n">
-        <v>2427.6527</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>235.8166666666667</v>
+        <v>235.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>234</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2427.6527</v>
       </c>
       <c r="G108" t="n">
-        <v>235.7166666666667</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>234</v>
       </c>
       <c r="F109" t="n">
-        <v>6064.9871</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>235.6166666666667</v>
+        <v>235.7166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F110" t="n">
-        <v>626.9</v>
+        <v>6064.9871</v>
       </c>
       <c r="G110" t="n">
-        <v>235.6</v>
+        <v>235.6166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>235</v>
       </c>
       <c r="C111" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D111" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E111" t="n">
         <v>235</v>
       </c>
       <c r="F111" t="n">
-        <v>1325.2276</v>
+        <v>626.9</v>
       </c>
       <c r="G111" t="n">
-        <v>235.6166666666667</v>
+        <v>235.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>235</v>
       </c>
       <c r="C112" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D112" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E112" t="n">
         <v>235</v>
       </c>
       <c r="F112" t="n">
-        <v>3911.375</v>
+        <v>1325.2276</v>
       </c>
       <c r="G112" t="n">
-        <v>235.6</v>
+        <v>235.6166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,19 +4318,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C113" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D113" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F113" t="n">
-        <v>1498.25</v>
+        <v>3911.375</v>
       </c>
       <c r="G113" t="n">
         <v>235.6</v>
@@ -4356,19 +4356,19 @@
         <v>234</v>
       </c>
       <c r="C114" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D114" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E114" t="n">
         <v>234</v>
       </c>
       <c r="F114" t="n">
-        <v>3987.8319</v>
+        <v>1498.25</v>
       </c>
       <c r="G114" t="n">
-        <v>235.5666666666667</v>
+        <v>235.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F115" t="n">
-        <v>733</v>
+        <v>3987.8319</v>
       </c>
       <c r="G115" t="n">
-        <v>235.4666666666667</v>
+        <v>235.5666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F116" t="n">
-        <v>45.5519</v>
+        <v>733</v>
       </c>
       <c r="G116" t="n">
-        <v>235.3833333333333</v>
+        <v>235.4666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>45.5519</v>
       </c>
       <c r="G117" t="n">
-        <v>235.3166666666667</v>
+        <v>235.3833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>234</v>
       </c>
       <c r="F118" t="n">
-        <v>3465</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>235.25</v>
+        <v>235.3166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>234</v>
       </c>
       <c r="F119" t="n">
-        <v>686</v>
+        <v>3465</v>
       </c>
       <c r="G119" t="n">
-        <v>235.1833333333333</v>
+        <v>235.25</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F120" t="n">
-        <v>97</v>
+        <v>686</v>
       </c>
       <c r="G120" t="n">
-        <v>235.1</v>
+        <v>235.1833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F121" t="n">
-        <v>1730.214</v>
+        <v>97</v>
       </c>
       <c r="G121" t="n">
-        <v>234.9833333333333</v>
+        <v>235.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>1730.214</v>
       </c>
       <c r="G122" t="n">
-        <v>234.9</v>
+        <v>234.9833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F123" t="n">
-        <v>8889.830099999999</v>
+        <v>1730.214</v>
       </c>
       <c r="G123" t="n">
-        <v>234.7833333333333</v>
+        <v>234.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C124" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E124" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F124" t="n">
-        <v>2360</v>
+        <v>8889.830099999999</v>
       </c>
       <c r="G124" t="n">
-        <v>234.7</v>
+        <v>234.7833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C125" t="n">
         <v>232</v>
       </c>
       <c r="D125" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E125" t="n">
         <v>232</v>
       </c>
       <c r="F125" t="n">
-        <v>346</v>
+        <v>2360</v>
       </c>
       <c r="G125" t="n">
-        <v>234.6333333333333</v>
+        <v>234.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>232</v>
       </c>
       <c r="F126" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="G126" t="n">
-        <v>234.5833333333333</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>232</v>
       </c>
       <c r="F127" t="n">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G127" t="n">
-        <v>234.5</v>
+        <v>234.5833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,23 +4855,19 @@
         <v>232</v>
       </c>
       <c r="F128" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G128" t="n">
-        <v>234.4</v>
+        <v>234.5</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>232</v>
-      </c>
-      <c r="K128" t="n">
-        <v>232</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
@@ -4882,155 +4878,155 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>232</v>
+      </c>
+      <c r="C129" t="n">
+        <v>232</v>
+      </c>
+      <c r="D129" t="n">
+        <v>232</v>
+      </c>
+      <c r="E129" t="n">
+        <v>232</v>
+      </c>
+      <c r="F129" t="n">
+        <v>135</v>
+      </c>
+      <c r="G129" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>233</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C130" t="n">
         <v>233</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D130" t="n">
         <v>233</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E130" t="n">
         <v>233</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F130" t="n">
         <v>2</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G130" t="n">
         <v>234.3166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>232</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="K130" t="n">
+        <v>232</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>233</v>
+      </c>
+      <c r="C131" t="n">
+        <v>233</v>
+      </c>
+      <c r="D131" t="n">
+        <v>233</v>
+      </c>
+      <c r="E131" t="n">
+        <v>233</v>
+      </c>
+      <c r="F131" t="n">
+        <v>462</v>
+      </c>
+      <c r="G131" t="n">
+        <v>234.2833333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>233</v>
+      </c>
+      <c r="K131" t="n">
+        <v>232</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>233</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C132" t="n">
         <v>233</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D132" t="n">
         <v>233</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E132" t="n">
         <v>233</v>
       </c>
-      <c r="F130" t="n">
-        <v>462</v>
-      </c>
-      <c r="G130" t="n">
-        <v>234.2833333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>233</v>
-      </c>
-      <c r="K130" t="n">
+      <c r="F132" t="n">
+        <v>176</v>
+      </c>
+      <c r="G132" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
         <v>232</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>233</v>
-      </c>
-      <c r="C131" t="n">
-        <v>233</v>
-      </c>
-      <c r="D131" t="n">
-        <v>233</v>
-      </c>
-      <c r="E131" t="n">
-        <v>233</v>
-      </c>
-      <c r="F131" t="n">
-        <v>176</v>
-      </c>
-      <c r="G131" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>233</v>
-      </c>
-      <c r="C132" t="n">
-        <v>233</v>
-      </c>
-      <c r="D132" t="n">
-        <v>233</v>
-      </c>
-      <c r="E132" t="n">
-        <v>233</v>
-      </c>
-      <c r="F132" t="n">
-        <v>225</v>
-      </c>
-      <c r="G132" t="n">
-        <v>234.1166666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>233</v>
-      </c>
-      <c r="K132" t="n">
-        <v>233</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5036,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C133" t="n">
         <v>233</v>
@@ -5049,31 +5045,23 @@
         <v>233</v>
       </c>
       <c r="E133" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F133" t="n">
-        <v>23629</v>
+        <v>225</v>
       </c>
       <c r="G133" t="n">
-        <v>234.0666666666667</v>
+        <v>234.1166666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>233</v>
-      </c>
-      <c r="K133" t="n">
-        <v>233</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5095,10 +5083,10 @@
         <v>231</v>
       </c>
       <c r="F134" t="n">
-        <v>13483</v>
+        <v>23629</v>
       </c>
       <c r="G134" t="n">
-        <v>233.9833333333333</v>
+        <v>234.0666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5107,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>233</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +5106,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C135" t="n">
         <v>233</v>
@@ -5133,13 +5115,13 @@
         <v>233</v>
       </c>
       <c r="E135" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F135" t="n">
-        <v>12344.9023</v>
+        <v>13483</v>
       </c>
       <c r="G135" t="n">
-        <v>233.9333333333333</v>
+        <v>233.9833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5148,14 +5130,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>233</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5174,13 +5150,13 @@
         <v>233</v>
       </c>
       <c r="E136" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F136" t="n">
-        <v>858.3690987124</v>
+        <v>12344.9023</v>
       </c>
       <c r="G136" t="n">
-        <v>233.8833333333333</v>
+        <v>233.9333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5189,14 +5165,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>233</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5206,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E137" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F137" t="n">
-        <v>14188.3203827586</v>
+        <v>858.3690987124</v>
       </c>
       <c r="G137" t="n">
-        <v>233.85</v>
+        <v>233.8833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5230,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>233</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5247,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E138" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F138" t="n">
-        <v>139</v>
+        <v>14188.3203827586</v>
       </c>
       <c r="G138" t="n">
-        <v>233.7666666666667</v>
+        <v>233.85</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5271,14 +5235,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>233</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5300,10 +5258,10 @@
         <v>231</v>
       </c>
       <c r="F139" t="n">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="G139" t="n">
-        <v>233.6833333333333</v>
+        <v>233.7666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5312,14 +5270,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>233</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5329,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F140" t="n">
-        <v>15477.817</v>
+        <v>605</v>
       </c>
       <c r="G140" t="n">
-        <v>233.5833333333333</v>
+        <v>233.6833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5353,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>233</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5370,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>15477.817</v>
       </c>
       <c r="G141" t="n">
-        <v>233.4833333333333</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5394,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>233</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5411,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F142" t="n">
-        <v>1079.9999</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>233.4166666666667</v>
+        <v>233.4833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5435,14 +5375,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>233</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5452,19 +5386,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>1079.9999</v>
       </c>
       <c r="G143" t="n">
         <v>233.4166666666667</v>
@@ -5476,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>233</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5505,7 +5433,7 @@
         <v>235</v>
       </c>
       <c r="F144" t="n">
-        <v>9140.3603</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
         <v>233.4166666666667</v>
@@ -5517,14 +5445,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>233</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5534,19 +5456,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C145" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D145" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E145" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F145" t="n">
-        <v>501</v>
+        <v>9140.3603</v>
       </c>
       <c r="G145" t="n">
         <v>233.4166666666667</v>
@@ -5558,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>233</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5575,7 +5491,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C146" t="n">
         <v>236</v>
@@ -5584,13 +5500,13 @@
         <v>236</v>
       </c>
       <c r="E146" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F146" t="n">
-        <v>1364</v>
+        <v>501</v>
       </c>
       <c r="G146" t="n">
-        <v>233.4333333333333</v>
+        <v>233.4166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5599,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>233</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5616,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F147" t="n">
-        <v>29.7932</v>
+        <v>1364</v>
       </c>
       <c r="G147" t="n">
-        <v>233.4666666666667</v>
+        <v>233.4333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5640,14 +5550,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>233</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5669,10 +5573,10 @@
         <v>237</v>
       </c>
       <c r="F148" t="n">
-        <v>17.5409</v>
+        <v>29.7932</v>
       </c>
       <c r="G148" t="n">
-        <v>233.5</v>
+        <v>233.4666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5681,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>233</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5698,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F149" t="n">
-        <v>1123.3432</v>
+        <v>17.5409</v>
       </c>
       <c r="G149" t="n">
-        <v>233.5166666666667</v>
+        <v>233.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5722,14 +5620,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>233</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5739,19 +5631,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C150" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D150" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E150" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F150" t="n">
-        <v>5614.26</v>
+        <v>1123.3432</v>
       </c>
       <c r="G150" t="n">
         <v>233.5166666666667</v>
@@ -5763,14 +5655,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>233</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5780,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C151" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D151" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F151" t="n">
-        <v>1174</v>
+        <v>5614.26</v>
       </c>
       <c r="G151" t="n">
-        <v>233.5666666666667</v>
+        <v>233.5166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5804,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>233</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5821,7 +5701,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C152" t="n">
         <v>236</v>
@@ -5830,13 +5710,13 @@
         <v>236</v>
       </c>
       <c r="E152" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F152" t="n">
-        <v>512.7371000000001</v>
+        <v>1174</v>
       </c>
       <c r="G152" t="n">
-        <v>233.5833333333333</v>
+        <v>233.5666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5845,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>233</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +5736,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C153" t="n">
         <v>236</v>
@@ -5871,13 +5745,13 @@
         <v>236</v>
       </c>
       <c r="E153" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F153" t="n">
-        <v>1995.9999</v>
+        <v>512.7371000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>233.6</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5886,14 +5760,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>233</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5903,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F154" t="n">
-        <v>4410.5278</v>
+        <v>1995.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>233.6166666666667</v>
+        <v>233.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5927,14 +5795,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>233</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5944,19 +5806,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F155" t="n">
-        <v>768.1867</v>
+        <v>4410.5278</v>
       </c>
       <c r="G155" t="n">
         <v>233.6166666666667</v>
@@ -5968,14 +5830,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>233</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5988,16 +5844,16 @@
         <v>234</v>
       </c>
       <c r="C156" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D156" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E156" t="n">
         <v>234</v>
       </c>
       <c r="F156" t="n">
-        <v>2127.186</v>
+        <v>768.1867</v>
       </c>
       <c r="G156" t="n">
         <v>233.6166666666667</v>
@@ -6009,14 +5865,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>233</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6026,7 +5876,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" t="n">
         <v>235</v>
@@ -6035,10 +5885,10 @@
         <v>235</v>
       </c>
       <c r="E157" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F157" t="n">
-        <v>5020.47</v>
+        <v>2127.186</v>
       </c>
       <c r="G157" t="n">
         <v>233.6166666666667</v>
@@ -6050,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>233</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6079,7 +5923,7 @@
         <v>235</v>
       </c>
       <c r="F158" t="n">
-        <v>1962.3509</v>
+        <v>5020.47</v>
       </c>
       <c r="G158" t="n">
         <v>233.6166666666667</v>
@@ -6091,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>233</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6108,7 +5946,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C159" t="n">
         <v>235</v>
@@ -6117,13 +5955,13 @@
         <v>235</v>
       </c>
       <c r="E159" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F159" t="n">
-        <v>822.1286</v>
+        <v>1962.3509</v>
       </c>
       <c r="G159" t="n">
-        <v>233.6333333333333</v>
+        <v>233.6166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6132,14 +5970,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>233</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6149,7 +5981,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" t="n">
         <v>235</v>
@@ -6158,13 +5990,13 @@
         <v>235</v>
       </c>
       <c r="E160" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F160" t="n">
-        <v>545.1635</v>
+        <v>822.1286</v>
       </c>
       <c r="G160" t="n">
-        <v>233.6666666666667</v>
+        <v>233.6333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6173,14 +6005,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>233</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6202,10 +6028,10 @@
         <v>235</v>
       </c>
       <c r="F161" t="n">
-        <v>1110.333</v>
+        <v>545.1635</v>
       </c>
       <c r="G161" t="n">
-        <v>233.6833333333333</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6214,14 +6040,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>233</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6243,10 +6063,10 @@
         <v>235</v>
       </c>
       <c r="F162" t="n">
-        <v>594.1781999999999</v>
+        <v>1110.333</v>
       </c>
       <c r="G162" t="n">
-        <v>233.7166666666667</v>
+        <v>233.6833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6255,14 +6075,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>233</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6284,10 +6098,10 @@
         <v>235</v>
       </c>
       <c r="F163" t="n">
-        <v>247.5604</v>
+        <v>594.1781999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>233.75</v>
+        <v>233.7166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6296,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>233</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6325,10 +6133,10 @@
         <v>235</v>
       </c>
       <c r="F164" t="n">
-        <v>3579.0737</v>
+        <v>247.5604</v>
       </c>
       <c r="G164" t="n">
-        <v>233.8166666666667</v>
+        <v>233.75</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6337,14 +6145,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>233</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6366,10 +6168,10 @@
         <v>235</v>
       </c>
       <c r="F165" t="n">
-        <v>244.0732</v>
+        <v>3579.0737</v>
       </c>
       <c r="G165" t="n">
-        <v>233.85</v>
+        <v>233.8166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6378,14 +6180,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>233</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6407,10 +6203,10 @@
         <v>235</v>
       </c>
       <c r="F166" t="n">
-        <v>371.1113</v>
+        <v>244.0732</v>
       </c>
       <c r="G166" t="n">
-        <v>233.8666666666667</v>
+        <v>233.85</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6419,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>233</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6436,19 +6226,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F167" t="n">
-        <v>148.3545</v>
+        <v>371.1113</v>
       </c>
       <c r="G167" t="n">
         <v>233.8666666666667</v>
@@ -6460,14 +6250,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>233</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6480,19 +6264,19 @@
         <v>234</v>
       </c>
       <c r="C168" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D168" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E168" t="n">
         <v>234</v>
       </c>
       <c r="F168" t="n">
-        <v>381.9609</v>
+        <v>148.3545</v>
       </c>
       <c r="G168" t="n">
-        <v>233.8833333333333</v>
+        <v>233.8666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6501,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>233</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6518,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C169" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D169" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E169" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F169" t="n">
-        <v>1200.2407</v>
+        <v>381.9609</v>
       </c>
       <c r="G169" t="n">
-        <v>233.9166666666667</v>
+        <v>233.8833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6542,14 +6320,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>233</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6559,22 +6331,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C170" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D170" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E170" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1200.2407</v>
       </c>
       <c r="G170" t="n">
-        <v>233.9666666666667</v>
+        <v>233.9166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6583,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>233</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +6366,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C171" t="n">
         <v>238</v>
@@ -6609,13 +6375,13 @@
         <v>238</v>
       </c>
       <c r="E171" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F171" t="n">
-        <v>811.7563</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>233.9833333333333</v>
+        <v>233.9666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6624,14 +6390,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>233</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6653,10 +6413,10 @@
         <v>238</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>811.7563</v>
       </c>
       <c r="G172" t="n">
-        <v>234.0333333333333</v>
+        <v>233.9833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6665,14 +6425,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>233</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6694,10 +6448,10 @@
         <v>238</v>
       </c>
       <c r="F173" t="n">
-        <v>1830.0488</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>234.0666666666667</v>
+        <v>234.0333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6706,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>233</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6735,10 +6483,10 @@
         <v>238</v>
       </c>
       <c r="F174" t="n">
-        <v>836</v>
+        <v>1830.0488</v>
       </c>
       <c r="G174" t="n">
-        <v>234.1333333333333</v>
+        <v>234.0666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6747,14 +6495,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>233</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6776,10 +6518,10 @@
         <v>238</v>
       </c>
       <c r="F175" t="n">
-        <v>1203</v>
+        <v>836</v>
       </c>
       <c r="G175" t="n">
-        <v>234.2333333333333</v>
+        <v>234.1333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6788,14 +6530,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>233</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6817,10 +6553,10 @@
         <v>238</v>
       </c>
       <c r="F176" t="n">
-        <v>896.178</v>
+        <v>1203</v>
       </c>
       <c r="G176" t="n">
-        <v>234.3166666666667</v>
+        <v>234.2333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6829,14 +6565,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>233</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6858,10 +6588,10 @@
         <v>238</v>
       </c>
       <c r="F177" t="n">
-        <v>6.2647</v>
+        <v>896.178</v>
       </c>
       <c r="G177" t="n">
-        <v>234.3833333333333</v>
+        <v>234.3166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6870,14 +6600,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>233</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6887,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F178" t="n">
         <v>6.2647</v>
       </c>
       <c r="G178" t="n">
-        <v>234.4</v>
+        <v>234.3833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6911,14 +6635,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>233</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6928,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>6.2647</v>
       </c>
       <c r="G179" t="n">
-        <v>234.4833333333333</v>
+        <v>234.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6952,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>233</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6969,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C180" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D180" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E180" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F180" t="n">
-        <v>16556.2871</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>234.6333333333333</v>
+        <v>234.4833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6993,14 +6705,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>233</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7010,38 +6716,32 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>238</v>
+      </c>
+      <c r="C181" t="n">
         <v>242</v>
-      </c>
-      <c r="C181" t="n">
-        <v>240</v>
       </c>
       <c r="D181" t="n">
         <v>242</v>
       </c>
       <c r="E181" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F181" t="n">
-        <v>2361.7136</v>
+        <v>16556.2871</v>
       </c>
       <c r="G181" t="n">
-        <v>234.7666666666667</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>233</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7051,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C182" t="n">
         <v>240</v>
       </c>
       <c r="D182" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E182" t="n">
         <v>240</v>
       </c>
       <c r="F182" t="n">
-        <v>2054.0535</v>
+        <v>2361.7136</v>
       </c>
       <c r="G182" t="n">
-        <v>234.9</v>
+        <v>234.7666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7075,16 +6775,10 @@
         <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>233</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>1.025042918454936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7104,10 +6798,10 @@
         <v>240</v>
       </c>
       <c r="F183" t="n">
-        <v>2497.7492</v>
+        <v>2054.0535</v>
       </c>
       <c r="G183" t="n">
-        <v>235.05</v>
+        <v>234.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7130,19 +6824,19 @@
         <v>240</v>
       </c>
       <c r="C184" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D184" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E184" t="n">
         <v>240</v>
       </c>
       <c r="F184" t="n">
-        <v>995.2978000000001</v>
+        <v>2497.7492</v>
       </c>
       <c r="G184" t="n">
-        <v>235.2166666666667</v>
+        <v>235.05</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7162,7 +6856,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C185" t="n">
         <v>242</v>
@@ -7171,13 +6865,13 @@
         <v>242</v>
       </c>
       <c r="E185" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F185" t="n">
-        <v>529.9032</v>
+        <v>995.2978000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>235.3833333333333</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7197,7 +6891,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C186" t="n">
         <v>242</v>
@@ -7206,19 +6900,19 @@
         <v>242</v>
       </c>
       <c r="E186" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F186" t="n">
-        <v>5262.9881</v>
+        <v>529.9032</v>
       </c>
       <c r="G186" t="n">
-        <v>235.55</v>
+        <v>235.3833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7232,22 +6926,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>241</v>
+      </c>
+      <c r="C187" t="n">
         <v>242</v>
-      </c>
-      <c r="C187" t="n">
-        <v>239</v>
       </c>
       <c r="D187" t="n">
         <v>242</v>
       </c>
       <c r="E187" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F187" t="n">
-        <v>4170.078</v>
+        <v>5262.9881</v>
       </c>
       <c r="G187" t="n">
-        <v>235.6666666666667</v>
+        <v>235.55</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7267,28 +6961,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C188" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D188" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E188" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F188" t="n">
-        <v>448.2049</v>
+        <v>4170.078</v>
       </c>
       <c r="G188" t="n">
-        <v>235.8</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7302,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F189" t="n">
-        <v>2104.9335850622</v>
+        <v>448.2049</v>
       </c>
       <c r="G189" t="n">
-        <v>235.9333333333333</v>
+        <v>235.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7349,10 +7043,10 @@
         <v>241</v>
       </c>
       <c r="F190" t="n">
-        <v>1749.7924</v>
+        <v>2104.9335850622</v>
       </c>
       <c r="G190" t="n">
-        <v>236.0666666666667</v>
+        <v>235.9333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7372,7 +7066,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" t="n">
         <v>241</v>
@@ -7381,13 +7075,13 @@
         <v>241</v>
       </c>
       <c r="E191" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F191" t="n">
-        <v>1069.5848</v>
+        <v>1749.7924</v>
       </c>
       <c r="G191" t="n">
-        <v>236.2</v>
+        <v>236.0666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7407,28 +7101,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C192" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D192" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E192" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F192" t="n">
-        <v>4319.6404198347</v>
+        <v>1069.5848</v>
       </c>
       <c r="G192" t="n">
-        <v>236.35</v>
+        <v>236.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7454,10 +7148,10 @@
         <v>242</v>
       </c>
       <c r="F193" t="n">
-        <v>972.4545000000001</v>
+        <v>4319.6404198347</v>
       </c>
       <c r="G193" t="n">
-        <v>236.5</v>
+        <v>236.35</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7489,16 +7183,16 @@
         <v>242</v>
       </c>
       <c r="F194" t="n">
-        <v>4280.2809</v>
+        <v>972.4545000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>236.65</v>
+        <v>236.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7512,28 +7206,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D195" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E195" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F195" t="n">
-        <v>6550.8586</v>
+        <v>4280.2809</v>
       </c>
       <c r="G195" t="n">
-        <v>236.7833333333333</v>
+        <v>236.65</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7547,28 +7241,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C196" t="n">
         <v>241</v>
       </c>
       <c r="D196" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E196" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F196" t="n">
-        <v>660.1203319502</v>
+        <v>6550.8586</v>
       </c>
       <c r="G196" t="n">
-        <v>236.9166666666667</v>
+        <v>236.7833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7585,19 +7279,19 @@
         <v>241</v>
       </c>
       <c r="C197" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D197" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E197" t="n">
         <v>241</v>
       </c>
       <c r="F197" t="n">
-        <v>3862.946</v>
+        <v>660.1203319502</v>
       </c>
       <c r="G197" t="n">
-        <v>237.0833333333333</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7617,22 +7311,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>241</v>
+      </c>
+      <c r="C198" t="n">
         <v>242</v>
-      </c>
-      <c r="C198" t="n">
-        <v>240</v>
       </c>
       <c r="D198" t="n">
         <v>242</v>
       </c>
       <c r="E198" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F198" t="n">
-        <v>513.471</v>
+        <v>3862.946</v>
       </c>
       <c r="G198" t="n">
-        <v>237.2333333333333</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7652,22 +7346,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C199" t="n">
         <v>240</v>
       </c>
       <c r="D199" t="n">
+        <v>242</v>
+      </c>
+      <c r="E199" t="n">
         <v>240</v>
       </c>
-      <c r="E199" t="n">
-        <v>239</v>
-      </c>
       <c r="F199" t="n">
-        <v>552.7021999999999</v>
+        <v>513.471</v>
       </c>
       <c r="G199" t="n">
-        <v>237.3833333333333</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7687,7 +7381,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C200" t="n">
         <v>240</v>
@@ -7696,13 +7390,13 @@
         <v>240</v>
       </c>
       <c r="E200" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F200" t="n">
-        <v>233.2931</v>
+        <v>552.7021999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>237.55</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7722,22 +7416,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F201" t="n">
-        <v>1098.4659</v>
+        <v>233.2931</v>
       </c>
       <c r="G201" t="n">
-        <v>237.6833333333333</v>
+        <v>237.55</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7757,22 +7451,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>1098.4659</v>
       </c>
       <c r="G202" t="n">
-        <v>237.8166666666667</v>
+        <v>237.6833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7804,10 +7498,10 @@
         <v>240</v>
       </c>
       <c r="F203" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>237.9</v>
+        <v>237.8166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7827,22 +7521,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F204" t="n">
-        <v>11.0602</v>
+        <v>180</v>
       </c>
       <c r="G204" t="n">
-        <v>237.9666666666667</v>
+        <v>237.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7862,22 +7556,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F205" t="n">
-        <v>798.6667</v>
+        <v>11.0602</v>
       </c>
       <c r="G205" t="n">
-        <v>238</v>
+        <v>237.9666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7897,19 +7591,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C206" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D206" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E206" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F206" t="n">
-        <v>1097.3493</v>
+        <v>798.6667</v>
       </c>
       <c r="G206" t="n">
         <v>238</v>
@@ -7944,10 +7638,10 @@
         <v>236</v>
       </c>
       <c r="F207" t="n">
-        <v>4280.2809</v>
+        <v>1097.3493</v>
       </c>
       <c r="G207" t="n">
-        <v>237.9833333333333</v>
+        <v>238</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7970,16 +7664,16 @@
         <v>237</v>
       </c>
       <c r="C208" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D208" t="n">
         <v>237</v>
       </c>
       <c r="E208" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F208" t="n">
-        <v>45.2444</v>
+        <v>4280.2809</v>
       </c>
       <c r="G208" t="n">
         <v>237.9833333333333</v>
@@ -8002,19 +7696,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F209" t="n">
-        <v>217.1149</v>
+        <v>45.2444</v>
       </c>
       <c r="G209" t="n">
         <v>237.9833333333333</v>
@@ -8037,22 +7731,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F210" t="n">
-        <v>333.0999</v>
+        <v>217.1149</v>
       </c>
       <c r="G210" t="n">
-        <v>238.05</v>
+        <v>237.9833333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8072,31 +7766,35 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F211" t="n">
-        <v>29.4346</v>
+        <v>333.0999</v>
       </c>
       <c r="G211" t="n">
-        <v>238.0333333333333</v>
+        <v>238.05</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>236</v>
+      </c>
+      <c r="K211" t="n">
+        <v>236</v>
+      </c>
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
@@ -8107,22 +7805,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F212" t="n">
-        <v>1519</v>
+        <v>29.4346</v>
       </c>
       <c r="G212" t="n">
-        <v>238.05</v>
+        <v>238.0333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8131,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>236</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8154,10 +7858,10 @@
         <v>237</v>
       </c>
       <c r="F213" t="n">
-        <v>1491.059</v>
+        <v>1519</v>
       </c>
       <c r="G213" t="n">
-        <v>238.0666666666667</v>
+        <v>238.05</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8166,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>236</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8189,10 +7899,10 @@
         <v>237</v>
       </c>
       <c r="F214" t="n">
-        <v>4450.6016</v>
+        <v>1491.059</v>
       </c>
       <c r="G214" t="n">
-        <v>238.1</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8212,22 +7922,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F215" t="n">
-        <v>436.1308</v>
+        <v>4450.6016</v>
       </c>
       <c r="G215" t="n">
-        <v>238.1666666666667</v>
+        <v>238.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8250,19 +7960,19 @@
         <v>238</v>
       </c>
       <c r="C216" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D216" t="n">
         <v>238</v>
       </c>
       <c r="E216" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F216" t="n">
-        <v>3863.1317</v>
+        <v>436.1308</v>
       </c>
       <c r="G216" t="n">
-        <v>238.2</v>
+        <v>238.1666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8282,22 +7992,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D217" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F217" t="n">
-        <v>43.422</v>
+        <v>3863.1317</v>
       </c>
       <c r="G217" t="n">
-        <v>238.2166666666667</v>
+        <v>238.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8329,10 +8039,10 @@
         <v>236</v>
       </c>
       <c r="F218" t="n">
-        <v>5949.5563</v>
+        <v>43.422</v>
       </c>
       <c r="G218" t="n">
-        <v>238.2333333333333</v>
+        <v>238.2166666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8352,22 +8062,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F219" t="n">
-        <v>2</v>
+        <v>5949.5563</v>
       </c>
       <c r="G219" t="n">
-        <v>238.2666666666667</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8387,22 +8097,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C220" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D220" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E220" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F220" t="n">
-        <v>1495.507</v>
+        <v>2</v>
       </c>
       <c r="G220" t="n">
-        <v>238.2833333333333</v>
+        <v>238.2666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8422,22 +8132,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C221" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D221" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E221" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F221" t="n">
-        <v>136.1942</v>
+        <v>1495.507</v>
       </c>
       <c r="G221" t="n">
-        <v>238.2666666666667</v>
+        <v>238.2833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8460,19 +8170,19 @@
         <v>234</v>
       </c>
       <c r="C222" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D222" t="n">
         <v>234</v>
       </c>
       <c r="E222" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F222" t="n">
-        <v>4659.3278</v>
+        <v>136.1942</v>
       </c>
       <c r="G222" t="n">
-        <v>238.2333333333333</v>
+        <v>238.2666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8504,10 +8214,10 @@
         <v>233</v>
       </c>
       <c r="F223" t="n">
-        <v>9305.8606</v>
+        <v>4659.3278</v>
       </c>
       <c r="G223" t="n">
-        <v>238.2</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8530,19 +8240,19 @@
         <v>234</v>
       </c>
       <c r="C224" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D224" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E224" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F224" t="n">
-        <v>3455.1816</v>
+        <v>9305.8606</v>
       </c>
       <c r="G224" t="n">
-        <v>238.2166666666667</v>
+        <v>238.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8562,19 +8272,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D225" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E225" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F225" t="n">
-        <v>1649.1594</v>
+        <v>3455.1816</v>
       </c>
       <c r="G225" t="n">
         <v>238.2166666666667</v>
@@ -8609,7 +8319,7 @@
         <v>235</v>
       </c>
       <c r="F226" t="n">
-        <v>430.129</v>
+        <v>1649.1594</v>
       </c>
       <c r="G226" t="n">
         <v>238.2166666666667</v>
@@ -8627,6 +8337,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>235</v>
+      </c>
+      <c r="C227" t="n">
+        <v>235</v>
+      </c>
+      <c r="D227" t="n">
+        <v>235</v>
+      </c>
+      <c r="E227" t="n">
+        <v>235</v>
+      </c>
+      <c r="F227" t="n">
+        <v>430.129</v>
+      </c>
+      <c r="G227" t="n">
+        <v>238.2166666666667</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:N237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2947.6464</v>
       </c>
       <c r="G2" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>238.8166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1029.1433</v>
       </c>
       <c r="G3" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>238.7833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>238.7833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1052.7357</v>
       </c>
       <c r="G5" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>238.7833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>17414.0336</v>
       </c>
       <c r="G6" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>238.8166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>17.3193</v>
       </c>
       <c r="G7" t="n">
+        <v>236</v>
+      </c>
+      <c r="H7" t="n">
         <v>238.8166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>720.5924</v>
       </c>
       <c r="G8" t="n">
+        <v>236</v>
+      </c>
+      <c r="H8" t="n">
         <v>238.8166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>82.11752426770001</v>
       </c>
       <c r="G9" t="n">
+        <v>236.2666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>238.8333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>407</v>
       </c>
       <c r="G10" t="n">
+        <v>236.4666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>238.8333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>221.7448</v>
       </c>
       <c r="G11" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>238.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1539.9586</v>
       </c>
       <c r="G12" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>238.7333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
+        <v>236.6666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>238.65</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>823.4225</v>
       </c>
       <c r="G14" t="n">
+        <v>236.9333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>238.5666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>238.45</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2960.1422</v>
       </c>
       <c r="G16" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>238.3833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1965.1779</v>
       </c>
       <c r="G17" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>238.25</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>17.276</v>
       </c>
       <c r="G18" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>238.15</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>238.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>263</v>
       </c>
       <c r="G20" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>238.0666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>238.05</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>84.8185654008</v>
       </c>
       <c r="G22" t="n">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>238.0166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>87.7932489451</v>
       </c>
       <c r="G23" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>237.95</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>218</v>
       </c>
       <c r="G24" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>237.8333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>5548.5054</v>
       </c>
       <c r="G25" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>237.7166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>237.6333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>202</v>
       </c>
       <c r="G27" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>237.6166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>71.879</v>
       </c>
       <c r="G28" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>237.6</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>11210</v>
       </c>
       <c r="G29" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>237.5333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>6235.5182</v>
       </c>
       <c r="G30" t="n">
+        <v>236.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>237.4666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>565.251</v>
       </c>
       <c r="G31" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>237.3333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2127.6595</v>
       </c>
       <c r="G32" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>237.2666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>452</v>
       </c>
       <c r="G33" t="n">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>237.1333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>21112.7883</v>
       </c>
       <c r="G34" t="n">
+        <v>236.7333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>237.15</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1197.2056</v>
       </c>
       <c r="G35" t="n">
+        <v>236.5333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>237.0166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>456.8</v>
       </c>
       <c r="G36" t="n">
+        <v>236.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>236.85</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2170.5834</v>
       </c>
       <c r="G37" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>236.6833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>43.0327</v>
       </c>
       <c r="G38" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>236.5333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>279.9034</v>
       </c>
       <c r="G39" t="n">
+        <v>235.8666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>236.55</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3372.1579</v>
       </c>
       <c r="G40" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>236.45</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>624</v>
       </c>
       <c r="G41" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>236.35</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2612.9999</v>
       </c>
       <c r="G42" t="n">
+        <v>235.1333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>236.3</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1686.5641</v>
       </c>
       <c r="G43" t="n">
+        <v>234.9333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>236.2333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1932.3206</v>
       </c>
       <c r="G44" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>236.15</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,25 @@
         <v>12.7118644067</v>
       </c>
       <c r="G45" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>236.1666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>234</v>
+      </c>
+      <c r="L45" t="n">
+        <v>234</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2129,27 @@
         <v>955.8026</v>
       </c>
       <c r="G46" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>236.2166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>234</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2173,27 @@
         <v>5265.8863</v>
       </c>
       <c r="G47" t="n">
+        <v>234.8666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>236.2166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>234</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2217,21 @@
         <v>1979.8219</v>
       </c>
       <c r="G48" t="n">
+        <v>235.0666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>236.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>165.2357</v>
       </c>
       <c r="G49" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>236.4</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2293,21 @@
         <v>1027.7416</v>
       </c>
       <c r="G50" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H50" t="n">
         <v>236.4333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2331,21 @@
         <v>2344.483</v>
       </c>
       <c r="G51" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>236.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2369,21 @@
         <v>1384.2097</v>
       </c>
       <c r="G52" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>236.4166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2407,21 @@
         <v>30.6023</v>
       </c>
       <c r="G53" t="n">
+        <v>236.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>236.3833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2445,21 @@
         <v>549.9404</v>
       </c>
       <c r="G54" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>236.4</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2483,21 @@
         <v>562.1909000000001</v>
       </c>
       <c r="G55" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>236.4166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2521,21 @@
         <v>44.3635</v>
       </c>
       <c r="G56" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>236.4333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,21 @@
         <v>764</v>
       </c>
       <c r="G57" t="n">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>236.4333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2597,21 @@
         <v>9517.2217</v>
       </c>
       <c r="G58" t="n">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2635,21 @@
         <v>3641</v>
       </c>
       <c r="G59" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="H59" t="n">
         <v>236.5333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2673,21 @@
         <v>4730</v>
       </c>
       <c r="G60" t="n">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>236.5833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2711,21 @@
         <v>1000</v>
       </c>
       <c r="G61" t="n">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>236.6333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2749,21 @@
         <v>939.0794648535</v>
       </c>
       <c r="G62" t="n">
+        <v>237.7333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>236.7166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2787,21 @@
         <v>319.8039</v>
       </c>
       <c r="G63" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>236.75</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2825,21 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>236.7833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2863,21 @@
         <v>620</v>
       </c>
       <c r="G65" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>236.8</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2901,21 @@
         <v>1353</v>
       </c>
       <c r="G66" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>236.7666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2939,21 @@
         <v>14959.8305</v>
       </c>
       <c r="G67" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>236.7166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,21 @@
         <v>2</v>
       </c>
       <c r="G68" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>236.7</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3015,21 @@
         <v>2743.5583516806</v>
       </c>
       <c r="G69" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>236.6833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3053,21 @@
         <v>4132.1344537815</v>
       </c>
       <c r="G70" t="n">
+        <v>237.5333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>236.6833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3091,21 @@
         <v>6231.84</v>
       </c>
       <c r="G71" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>236.6666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3129,21 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>236.6666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3167,21 @@
         <v>385.1302</v>
       </c>
       <c r="G73" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>236.65</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3205,21 @@
         <v>22.878</v>
       </c>
       <c r="G74" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H74" t="n">
         <v>236.6</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3243,21 @@
         <v>249.7058</v>
       </c>
       <c r="G75" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H75" t="n">
         <v>236.6</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3281,21 @@
         <v>7.6133</v>
       </c>
       <c r="G76" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>236.5666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3319,21 @@
         <v>877.723</v>
       </c>
       <c r="G77" t="n">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>236.5666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3357,21 @@
         <v>37524.6977</v>
       </c>
       <c r="G78" t="n">
+        <v>236.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>236.55</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,15 +3398,18 @@
         <v>236.5333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3433,21 @@
         <v>142.5684</v>
       </c>
       <c r="G80" t="n">
+        <v>236.4666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>236.5166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3471,21 @@
         <v>548</v>
       </c>
       <c r="G81" t="n">
+        <v>236.4666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3509,21 @@
         <v>2274.3459915611</v>
       </c>
       <c r="G82" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H82" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3547,21 @@
         <v>35.3262</v>
       </c>
       <c r="G83" t="n">
+        <v>236.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>236.4666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3585,21 @@
         <v>765</v>
       </c>
       <c r="G84" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>236.45</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3623,21 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
+        <v>236.1333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>236.4166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3661,21 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>236.3833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3699,21 @@
         <v>3125.1107</v>
       </c>
       <c r="G87" t="n">
+        <v>236</v>
+      </c>
+      <c r="H87" t="n">
         <v>236.3333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3737,21 @@
         <v>301</v>
       </c>
       <c r="G88" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>236.3</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3775,21 @@
         <v>28</v>
       </c>
       <c r="G89" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>236.2666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3813,21 @@
         <v>32</v>
       </c>
       <c r="G90" t="n">
+        <v>235.5333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>236.25</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3851,21 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>236.2</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3889,25 @@
         <v>807.6521</v>
       </c>
       <c r="G92" t="n">
+        <v>235.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>236.15</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>233</v>
+      </c>
+      <c r="L92" t="n">
+        <v>233</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3931,29 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>233</v>
+      </c>
+      <c r="L93" t="n">
+        <v>233</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3977,27 @@
         <v>961.3106</v>
       </c>
       <c r="G94" t="n">
+        <v>235.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>233</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4021,21 @@
         <v>17022.9106</v>
       </c>
       <c r="G95" t="n">
+        <v>235</v>
+      </c>
+      <c r="H95" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4059,21 @@
         <v>980</v>
       </c>
       <c r="G96" t="n">
+        <v>234.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4097,21 @@
         <v>4.8638</v>
       </c>
       <c r="G97" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>236.15</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4135,21 @@
         <v>8.187200000000001</v>
       </c>
       <c r="G98" t="n">
+        <v>234.6666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>236.15</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4173,21 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
+        <v>234.6666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>236.15</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4211,21 @@
         <v>11958.3635</v>
       </c>
       <c r="G100" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>236.15</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4249,21 @@
         <v>990.0386</v>
       </c>
       <c r="G101" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4287,21 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
+        <v>234.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>236.1333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4325,21 @@
         <v>425.56</v>
       </c>
       <c r="G103" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H103" t="n">
         <v>236.1166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4363,21 @@
         <v>166</v>
       </c>
       <c r="G104" t="n">
+        <v>234.0666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>236.1</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4401,27 @@
         <v>168.7645</v>
       </c>
       <c r="G105" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="H105" t="n">
         <v>236.0166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>233</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4445,27 @@
         <v>232.6454</v>
       </c>
       <c r="G106" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="H106" t="n">
         <v>235.9666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>231</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4489,27 @@
         <v>2</v>
       </c>
       <c r="G107" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>235.9</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>233</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4533,25 @@
         <v>2427.6527</v>
       </c>
       <c r="G108" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="H108" t="n">
         <v>235.8166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4575,25 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
+        <v>233.7333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>235.7166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4617,25 @@
         <v>6064.9871</v>
       </c>
       <c r="G110" t="n">
+        <v>233.7333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>235.6166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4659,25 @@
         <v>626.9</v>
       </c>
       <c r="G111" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="H111" t="n">
         <v>235.6</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4701,25 @@
         <v>1325.2276</v>
       </c>
       <c r="G112" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>235.6166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4743,25 @@
         <v>3911.375</v>
       </c>
       <c r="G113" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>235.6</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4785,25 @@
         <v>1498.25</v>
       </c>
       <c r="G114" t="n">
+        <v>234</v>
+      </c>
+      <c r="H114" t="n">
         <v>235.6</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4827,25 @@
         <v>3987.8319</v>
       </c>
       <c r="G115" t="n">
+        <v>234</v>
+      </c>
+      <c r="H115" t="n">
         <v>235.5666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4869,25 @@
         <v>733</v>
       </c>
       <c r="G116" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>235.4666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4911,25 @@
         <v>45.5519</v>
       </c>
       <c r="G117" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>235.3833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4953,25 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>235.3166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4995,25 @@
         <v>3465</v>
       </c>
       <c r="G119" t="n">
+        <v>234</v>
+      </c>
+      <c r="H119" t="n">
         <v>235.25</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5037,25 @@
         <v>686</v>
       </c>
       <c r="G120" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>235.1833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5079,25 @@
         <v>97</v>
       </c>
       <c r="G121" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H121" t="n">
         <v>235.1</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5121,25 @@
         <v>1730.214</v>
       </c>
       <c r="G122" t="n">
+        <v>234.0666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>234.9833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5163,25 @@
         <v>1730.214</v>
       </c>
       <c r="G123" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>234.9</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5205,25 @@
         <v>8889.830099999999</v>
       </c>
       <c r="G124" t="n">
+        <v>233.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>234.7833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5247,25 @@
         <v>2360</v>
       </c>
       <c r="G125" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="H125" t="n">
         <v>234.7</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5289,25 @@
         <v>346</v>
       </c>
       <c r="G126" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>234.6333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5331,25 @@
         <v>173</v>
       </c>
       <c r="G127" t="n">
+        <v>233.0666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>234.5833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5373,25 @@
         <v>134</v>
       </c>
       <c r="G128" t="n">
+        <v>232.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>234.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5415,25 @@
         <v>135</v>
       </c>
       <c r="G129" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="H129" t="n">
         <v>234.4</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,22 +5457,25 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
+        <v>232.5333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>234.3166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>232</v>
-      </c>
-      <c r="K130" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4967,26 +5499,25 @@
         <v>462</v>
       </c>
       <c r="G131" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>234.2833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>233</v>
-      </c>
-      <c r="K131" t="n">
-        <v>232</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,24 +5541,25 @@
         <v>176</v>
       </c>
       <c r="G132" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="H132" t="n">
         <v>234.2</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>232</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5583,25 @@
         <v>225</v>
       </c>
       <c r="G133" t="n">
+        <v>232.5333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>234.1166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5625,25 @@
         <v>23629</v>
       </c>
       <c r="G134" t="n">
+        <v>232.4666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>234.0666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5667,25 @@
         <v>13483</v>
       </c>
       <c r="G135" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="H135" t="n">
         <v>233.9833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5709,25 @@
         <v>12344.9023</v>
       </c>
       <c r="G136" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="H136" t="n">
         <v>233.9333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5751,25 @@
         <v>858.3690987124</v>
       </c>
       <c r="G137" t="n">
+        <v>232.4666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>233.8833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5793,25 @@
         <v>14188.3203827586</v>
       </c>
       <c r="G138" t="n">
+        <v>232.4666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>233.85</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5835,25 @@
         <v>139</v>
       </c>
       <c r="G139" t="n">
+        <v>232.4666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>233.7666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5877,25 @@
         <v>605</v>
       </c>
       <c r="G140" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="H140" t="n">
         <v>233.6833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5919,25 @@
         <v>15477.817</v>
       </c>
       <c r="G141" t="n">
+        <v>232.2666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>233.5833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5961,27 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="H142" t="n">
         <v>233.4833333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>230</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6005,27 @@
         <v>1079.9999</v>
       </c>
       <c r="G143" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="H143" t="n">
         <v>233.4166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>231</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6049,27 @@
         <v>3</v>
       </c>
       <c r="G144" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>233.4166666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>232</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6093,25 @@
         <v>9140.3603</v>
       </c>
       <c r="G145" t="n">
+        <v>232.5333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>233.4166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6135,25 @@
         <v>501</v>
       </c>
       <c r="G146" t="n">
+        <v>232.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>233.4166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6177,25 @@
         <v>1364</v>
       </c>
       <c r="G147" t="n">
+        <v>232.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>233.4333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6219,25 @@
         <v>29.7932</v>
       </c>
       <c r="G148" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>233.4666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6261,25 @@
         <v>17.5409</v>
       </c>
       <c r="G149" t="n">
+        <v>233.4666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>233.5</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6303,25 @@
         <v>1123.3432</v>
       </c>
       <c r="G150" t="n">
+        <v>233.6666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>233.5166666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6345,25 @@
         <v>5614.26</v>
       </c>
       <c r="G151" t="n">
+        <v>233.6666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>233.5166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6387,25 @@
         <v>1174</v>
       </c>
       <c r="G152" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>233.5666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6429,25 @@
         <v>512.7371000000001</v>
       </c>
       <c r="G153" t="n">
+        <v>234.1333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>233.5833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6471,25 @@
         <v>1995.9999</v>
       </c>
       <c r="G154" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>233.6</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6513,25 @@
         <v>4410.5278</v>
       </c>
       <c r="G155" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>233.6166666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6555,27 @@
         <v>768.1867</v>
       </c>
       <c r="G156" t="n">
+        <v>235</v>
+      </c>
+      <c r="H156" t="n">
         <v>233.6166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>235</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6599,27 @@
         <v>2127.186</v>
       </c>
       <c r="G157" t="n">
+        <v>235.2666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>233.6166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>234</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6643,27 @@
         <v>5020.47</v>
       </c>
       <c r="G158" t="n">
+        <v>235.4666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>233.6166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>235</v>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6687,27 @@
         <v>1962.3509</v>
       </c>
       <c r="G159" t="n">
+        <v>235.4666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>233.6166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>235</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6731,27 @@
         <v>822.1286</v>
       </c>
       <c r="G160" t="n">
+        <v>235.4666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>233.6333333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>235</v>
+      </c>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6775,27 @@
         <v>545.1635</v>
       </c>
       <c r="G161" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H161" t="n">
         <v>233.6666666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>235</v>
+      </c>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6819,27 @@
         <v>1110.333</v>
       </c>
       <c r="G162" t="n">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>233.6833333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>235</v>
+      </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6863,27 @@
         <v>594.1781999999999</v>
       </c>
       <c r="G163" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>233.7166666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>235</v>
+      </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6907,25 @@
         <v>247.5604</v>
       </c>
       <c r="G164" t="n">
+        <v>235.0666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>233.75</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6949,25 @@
         <v>3579.0737</v>
       </c>
       <c r="G165" t="n">
+        <v>235</v>
+      </c>
+      <c r="H165" t="n">
         <v>233.8166666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6991,25 @@
         <v>244.0732</v>
       </c>
       <c r="G166" t="n">
+        <v>235.1333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>233.85</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +7033,25 @@
         <v>371.1113</v>
       </c>
       <c r="G167" t="n">
+        <v>235.0666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>233.8666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +7075,25 @@
         <v>148.3545</v>
       </c>
       <c r="G168" t="n">
+        <v>234.9333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>233.8666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7117,27 @@
         <v>381.9609</v>
       </c>
       <c r="G169" t="n">
+        <v>234.8666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>233.8833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>234</v>
+      </c>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7161,27 @@
         <v>1200.2407</v>
       </c>
       <c r="G170" t="n">
+        <v>234.9333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>233.9166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>235</v>
+      </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7205,27 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="H171" t="n">
         <v>233.9666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>236</v>
+      </c>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7249,25 @@
         <v>811.7563</v>
       </c>
       <c r="G172" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H172" t="n">
         <v>233.9833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7291,25 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="H173" t="n">
         <v>234.0333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7333,25 @@
         <v>1830.0488</v>
       </c>
       <c r="G174" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H174" t="n">
         <v>234.0666666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7375,25 @@
         <v>836</v>
       </c>
       <c r="G175" t="n">
+        <v>236</v>
+      </c>
+      <c r="H175" t="n">
         <v>234.1333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7417,25 @@
         <v>1203</v>
       </c>
       <c r="G176" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H176" t="n">
         <v>234.2333333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7459,25 @@
         <v>896.178</v>
       </c>
       <c r="G177" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>234.3166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7501,25 @@
         <v>6.2647</v>
       </c>
       <c r="G178" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H178" t="n">
         <v>234.3833333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7543,25 @@
         <v>6.2647</v>
       </c>
       <c r="G179" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>234.4</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7585,25 @@
         <v>2</v>
       </c>
       <c r="G180" t="n">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>234.4833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7627,25 @@
         <v>16556.2871</v>
       </c>
       <c r="G181" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>234.6333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7669,25 @@
         <v>2361.7136</v>
       </c>
       <c r="G182" t="n">
+        <v>237.6666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>234.7666666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7711,25 @@
         <v>2054.0535</v>
       </c>
       <c r="G183" t="n">
+        <v>238.0666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>234.9</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7753,25 @@
         <v>2497.7492</v>
       </c>
       <c r="G184" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="H184" t="n">
         <v>235.05</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7795,25 @@
         <v>995.2978000000001</v>
       </c>
       <c r="G185" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="H185" t="n">
         <v>235.2166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7837,25 @@
         <v>529.9032</v>
       </c>
       <c r="G186" t="n">
+        <v>239.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>235.3833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7879,25 @@
         <v>5262.9881</v>
       </c>
       <c r="G187" t="n">
+        <v>239.3333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>235.55</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7921,25 @@
         <v>4170.078</v>
       </c>
       <c r="G188" t="n">
+        <v>239.4</v>
+      </c>
+      <c r="H188" t="n">
         <v>235.6666666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7963,25 @@
         <v>448.2049</v>
       </c>
       <c r="G189" t="n">
+        <v>239.5333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>235.8</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +8005,25 @@
         <v>2104.9335850622</v>
       </c>
       <c r="G190" t="n">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>235.9333333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +8047,25 @@
         <v>1749.7924</v>
       </c>
       <c r="G191" t="n">
+        <v>239.9333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>236.0666666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +8089,25 @@
         <v>1069.5848</v>
       </c>
       <c r="G192" t="n">
+        <v>240.1333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>236.2</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +8131,25 @@
         <v>4319.6404198347</v>
       </c>
       <c r="G193" t="n">
+        <v>240.4</v>
+      </c>
+      <c r="H193" t="n">
         <v>236.35</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +8173,25 @@
         <v>972.4545000000001</v>
       </c>
       <c r="G194" t="n">
+        <v>240.8666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>236.5</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,20 +8215,25 @@
         <v>4280.2809</v>
       </c>
       <c r="G195" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>236.65</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7256,18 +8255,21 @@
         <v>6550.8586</v>
       </c>
       <c r="G196" t="n">
+        <v>241</v>
+      </c>
+      <c r="H196" t="n">
         <v>236.7833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8293,21 @@
         <v>660.1203319502</v>
       </c>
       <c r="G197" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>236.9166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8331,21 @@
         <v>3862.946</v>
       </c>
       <c r="G198" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="H198" t="n">
         <v>237.0833333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8369,21 @@
         <v>513.471</v>
       </c>
       <c r="G199" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="H199" t="n">
         <v>237.2333333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8407,21 @@
         <v>552.7021999999999</v>
       </c>
       <c r="G200" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>237.3833333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8445,21 @@
         <v>233.2931</v>
       </c>
       <c r="G201" t="n">
+        <v>240.9333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>237.55</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8483,21 @@
         <v>1098.4659</v>
       </c>
       <c r="G202" t="n">
+        <v>240.7333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>237.6833333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8521,21 @@
         <v>1</v>
       </c>
       <c r="G203" t="n">
+        <v>240.8</v>
+      </c>
+      <c r="H203" t="n">
         <v>237.8166666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8559,21 @@
         <v>180</v>
       </c>
       <c r="G204" t="n">
+        <v>240.8</v>
+      </c>
+      <c r="H204" t="n">
         <v>237.9</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8597,21 @@
         <v>11.0602</v>
       </c>
       <c r="G205" t="n">
+        <v>240.6666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>237.9666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8635,21 @@
         <v>798.6667</v>
       </c>
       <c r="G206" t="n">
-        <v>238</v>
+        <v>240.4666666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8673,21 @@
         <v>1097.3493</v>
       </c>
       <c r="G207" t="n">
-        <v>238</v>
+        <v>240.1333333333333</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8711,21 @@
         <v>4280.2809</v>
       </c>
       <c r="G208" t="n">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>237.9833333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8749,21 @@
         <v>45.2444</v>
       </c>
       <c r="G209" t="n">
+        <v>239.4</v>
+      </c>
+      <c r="H209" t="n">
         <v>237.9833333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8787,21 @@
         <v>217.1149</v>
       </c>
       <c r="G210" t="n">
+        <v>239</v>
+      </c>
+      <c r="H210" t="n">
         <v>237.9833333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,22 +8825,21 @@
         <v>333.0999</v>
       </c>
       <c r="G211" t="n">
+        <v>238.7333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>238.05</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>236</v>
-      </c>
-      <c r="K211" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7820,24 +8863,21 @@
         <v>29.4346</v>
       </c>
       <c r="G212" t="n">
+        <v>238.3333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>238.0333333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>236</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,24 +8901,21 @@
         <v>1519</v>
       </c>
       <c r="G213" t="n">
+        <v>238</v>
+      </c>
+      <c r="H213" t="n">
         <v>238.05</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>236</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,18 +8939,21 @@
         <v>1491.059</v>
       </c>
       <c r="G214" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="H214" t="n">
         <v>238.0666666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,18 +8977,21 @@
         <v>4450.6016</v>
       </c>
       <c r="G215" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="H215" t="n">
         <v>238.1</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,18 +9015,21 @@
         <v>436.1308</v>
       </c>
       <c r="G216" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>238.1666666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8007,18 +9053,21 @@
         <v>3863.1317</v>
       </c>
       <c r="G217" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>238.2</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8042,18 +9091,21 @@
         <v>43.422</v>
       </c>
       <c r="G218" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>238.2166666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,18 +9129,21 @@
         <v>5949.5563</v>
       </c>
       <c r="G219" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="H219" t="n">
         <v>238.2333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8112,18 +9167,21 @@
         <v>2</v>
       </c>
       <c r="G220" t="n">
+        <v>236.6666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>238.2666666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,18 +9205,21 @@
         <v>1495.507</v>
       </c>
       <c r="G221" t="n">
+        <v>236.5333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>238.2833333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8182,18 +9243,21 @@
         <v>136.1942</v>
       </c>
       <c r="G222" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="H222" t="n">
         <v>238.2666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8217,18 +9281,21 @@
         <v>4659.3278</v>
       </c>
       <c r="G223" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H223" t="n">
         <v>238.2333333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8252,18 +9319,21 @@
         <v>9305.8606</v>
       </c>
       <c r="G224" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>238.2</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8287,18 +9357,21 @@
         <v>3455.1816</v>
       </c>
       <c r="G225" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>238.2166666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,18 +9395,21 @@
         <v>1649.1594</v>
       </c>
       <c r="G226" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H226" t="n">
         <v>238.2166666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8357,18 +9433,401 @@
         <v>430.129</v>
       </c>
       <c r="G227" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H227" t="n">
         <v>238.2166666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>235</v>
+      </c>
+      <c r="C228" t="n">
+        <v>235</v>
+      </c>
+      <c r="D228" t="n">
+        <v>235</v>
+      </c>
+      <c r="E228" t="n">
+        <v>235</v>
+      </c>
+      <c r="F228" t="n">
+        <v>530.0872000000001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H228" t="n">
+        <v>238.2333333333333</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>235</v>
+      </c>
+      <c r="C229" t="n">
+        <v>237</v>
+      </c>
+      <c r="D229" t="n">
+        <v>237</v>
+      </c>
+      <c r="E229" t="n">
+        <v>235</v>
+      </c>
+      <c r="F229" t="n">
+        <v>20287.9788</v>
+      </c>
+      <c r="G229" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H229" t="n">
+        <v>238.2666666666667</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>235</v>
+      </c>
+      <c r="C230" t="n">
+        <v>235</v>
+      </c>
+      <c r="D230" t="n">
+        <v>235</v>
+      </c>
+      <c r="E230" t="n">
+        <v>235</v>
+      </c>
+      <c r="F230" t="n">
+        <v>681.814</v>
+      </c>
+      <c r="G230" t="n">
+        <v>235.5333333333333</v>
+      </c>
+      <c r="H230" t="n">
+        <v>238.25</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>234</v>
+      </c>
+      <c r="C231" t="n">
+        <v>234</v>
+      </c>
+      <c r="D231" t="n">
+        <v>234</v>
+      </c>
+      <c r="E231" t="n">
+        <v>234</v>
+      </c>
+      <c r="F231" t="n">
+        <v>920.154</v>
+      </c>
+      <c r="G231" t="n">
+        <v>235.2666666666667</v>
+      </c>
+      <c r="H231" t="n">
+        <v>238.1833333333333</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>234</v>
+      </c>
+      <c r="C232" t="n">
+        <v>234</v>
+      </c>
+      <c r="D232" t="n">
+        <v>234</v>
+      </c>
+      <c r="E232" t="n">
+        <v>234</v>
+      </c>
+      <c r="F232" t="n">
+        <v>429.1287</v>
+      </c>
+      <c r="G232" t="n">
+        <v>235.0666666666667</v>
+      </c>
+      <c r="H232" t="n">
+        <v>238.1166666666667</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>234</v>
+      </c>
+      <c r="C233" t="n">
+        <v>234</v>
+      </c>
+      <c r="D233" t="n">
+        <v>234</v>
+      </c>
+      <c r="E233" t="n">
+        <v>234</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3412.0235</v>
+      </c>
+      <c r="G233" t="n">
+        <v>234.9333333333333</v>
+      </c>
+      <c r="H233" t="n">
+        <v>238.05</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>233</v>
+      </c>
+      <c r="C234" t="n">
+        <v>234</v>
+      </c>
+      <c r="D234" t="n">
+        <v>234</v>
+      </c>
+      <c r="E234" t="n">
+        <v>232</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6470.0121</v>
+      </c>
+      <c r="G234" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>237.9833333333333</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>234</v>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>234</v>
+      </c>
+      <c r="E235" t="n">
+        <v>234</v>
+      </c>
+      <c r="F235" t="n">
+        <v>969.0272</v>
+      </c>
+      <c r="G235" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="H235" t="n">
+        <v>237.9166666666667</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>234</v>
+      </c>
+      <c r="C236" t="n">
+        <v>234</v>
+      </c>
+      <c r="D236" t="n">
+        <v>234</v>
+      </c>
+      <c r="E236" t="n">
+        <v>234</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1067.5071</v>
+      </c>
+      <c r="G236" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>237.85</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>234</v>
+      </c>
+      <c r="C237" t="n">
+        <v>234</v>
+      </c>
+      <c r="D237" t="n">
+        <v>234</v>
+      </c>
+      <c r="E237" t="n">
+        <v>234</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1328.4759</v>
+      </c>
+      <c r="G237" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H237" t="n">
+        <v>237.7833333333333</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>7799.180877685903</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>7801.616577685903</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3251.642022314096</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>11409.5178776859</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>10846.5178776859</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>18175.48277768591</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>17594.48277768591</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>17133.05777768591</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>17135.05777768591</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>17058.81197768591</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>17177.38787768591</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>17008.20037768591</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>17009.20037768591</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>13743.57357768591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>13745.57357768591</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-13479.2151223141</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-13479.2151223141</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-39166.1112223141</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-39166.1112223141</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-39165.1112223141</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-39165.1112223141</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-40583.2560223141</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-40582.2560223141</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-40859.1112223141</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-40859.1112223141</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-40238.76102231409</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-40237.76102231409</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-43192.9453223141</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-42163.80202231409</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-42161.80202231409</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -6952,10 +6952,14 @@
         <v>-178228.7501737039</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>231</v>
+      </c>
+      <c r="J199" t="n">
+        <v>231</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
@@ -6985,11 +6989,19 @@
         <v>-178226.7501737039</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>230</v>
+      </c>
+      <c r="J200" t="n">
+        <v>231</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7030,19 @@
         <v>-177146.7502737039</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>231</v>
+      </c>
+      <c r="J201" t="n">
+        <v>231</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,10 +7071,14 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>232</v>
+      </c>
+      <c r="J202" t="n">
+        <v>232</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
@@ -7084,11 +7108,19 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>235</v>
+      </c>
+      <c r="J203" t="n">
+        <v>232</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7149,19 @@
         <v>-176642.7502737039</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>235</v>
+      </c>
+      <c r="J204" t="n">
+        <v>232</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7513,10 +7553,14 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>235</v>
+      </c>
+      <c r="J216" t="n">
+        <v>235</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7546,11 +7590,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>235</v>
+      </c>
+      <c r="J217" t="n">
+        <v>235</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7631,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>235</v>
+      </c>
+      <c r="J218" t="n">
+        <v>235</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7672,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>235</v>
+      </c>
+      <c r="J219" t="n">
+        <v>235</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7713,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>235</v>
+      </c>
+      <c r="J220" t="n">
+        <v>235</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7754,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>235</v>
+      </c>
+      <c r="J221" t="n">
+        <v>235</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7795,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>235</v>
+      </c>
+      <c r="J222" t="n">
+        <v>235</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7836,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>235</v>
+      </c>
+      <c r="J223" t="n">
+        <v>235</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7877,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>235</v>
+      </c>
+      <c r="J224" t="n">
+        <v>235</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>235</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>235</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,15 +7996,17 @@
         <v>-184994.4823737039</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>234</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>235</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7915,12 +8037,14 @@
         <v>-183794.2416737039</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>235</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>235</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,10 +8078,14 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>236</v>
+      </c>
+      <c r="J229" t="n">
+        <v>235</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,7 +8122,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>235</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,7 +8161,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>235</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,12 +8197,12 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>238</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>235</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8104,12 +8236,12 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>238</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>235</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8143,12 +8275,12 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>238</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>235</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8185,7 +8317,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>235</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,12 +8353,12 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>238</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>235</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,12 +8392,12 @@
         <v>-183798.5063737039</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>238</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>235</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,12 +8431,12 @@
         <v>-183796.5063737039</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>235</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>235</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,12 +8470,12 @@
         <v>-167240.2192737039</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>239</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>235</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,7 +8512,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>235</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,7 +8551,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>235</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8452,7 +8590,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>235</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,7 +8629,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>235</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,7 +8668,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>235</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,7 +8707,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>235</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,7 +8746,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>235</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,7 +8785,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>235</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,7 +8824,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>235</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,7 +8863,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>235</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,7 +8902,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>235</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,7 +8941,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>235</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,7 +8980,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>235</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,7 +9019,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>235</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,7 +9058,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>235</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,7 +9097,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>235</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,7 +9136,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>235</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,7 +9175,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>235</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9044,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>235</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9081,7 +9253,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>235</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9118,7 +9292,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>235</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>235</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9192,7 +9370,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>235</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>235</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9266,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>235</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,7 +9487,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>235</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9337,10 +9523,14 @@
         <v>-172109.859868807</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>236</v>
+      </c>
+      <c r="J266" t="n">
+        <v>235</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,10 +9564,14 @@
         <v>-172064.6154688071</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>236</v>
+      </c>
+      <c r="J267" t="n">
+        <v>235</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9411,10 +9605,14 @@
         <v>-172281.730368807</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>237</v>
+      </c>
+      <c r="J268" t="n">
+        <v>235</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,10 +9646,14 @@
         <v>-171948.630468807</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>236</v>
+      </c>
+      <c r="J269" t="n">
+        <v>235</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9485,10 +9687,14 @@
         <v>-171978.065068807</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>237</v>
+      </c>
+      <c r="J270" t="n">
+        <v>235</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9522,10 +9728,14 @@
         <v>-170459.065068807</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>235</v>
+      </c>
+      <c r="J271" t="n">
+        <v>235</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,10 +9769,14 @@
         <v>-170459.065068807</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>237</v>
+      </c>
+      <c r="J272" t="n">
+        <v>235</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +9813,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>235</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9633,10 +9849,14 @@
         <v>-170022.934268807</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>237</v>
+      </c>
+      <c r="J274" t="n">
+        <v>235</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,10 +9890,14 @@
         <v>-173886.065968807</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>238</v>
+      </c>
+      <c r="J275" t="n">
+        <v>235</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9707,10 +9931,14 @@
         <v>-173929.487968807</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>237</v>
+      </c>
+      <c r="J276" t="n">
+        <v>235</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9744,10 +9972,14 @@
         <v>-173929.487968807</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>236</v>
+      </c>
+      <c r="J277" t="n">
+        <v>235</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9781,10 +10013,14 @@
         <v>-173927.487968807</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>236</v>
+      </c>
+      <c r="J278" t="n">
+        <v>235</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9818,10 +10054,14 @@
         <v>-175422.994968807</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>237</v>
+      </c>
+      <c r="J279" t="n">
+        <v>235</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,10 +10095,14 @@
         <v>-175559.189168807</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>236</v>
+      </c>
+      <c r="J280" t="n">
+        <v>235</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,10 +10136,14 @@
         <v>-180218.516968807</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>234</v>
+      </c>
+      <c r="J281" t="n">
+        <v>235</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,10 +10177,14 @@
         <v>-180218.516968807</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>233</v>
+      </c>
+      <c r="J282" t="n">
+        <v>235</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9966,10 +10218,14 @@
         <v>-176763.335368807</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>233</v>
+      </c>
+      <c r="J283" t="n">
+        <v>235</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,10 +10259,14 @@
         <v>-178412.494768807</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>236</v>
+      </c>
+      <c r="J284" t="n">
+        <v>235</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,7 +10303,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>235</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,7 +10342,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>235</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10117,7 +10381,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>235</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10154,7 +10420,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>235</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10191,7 +10459,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>235</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10228,7 +10498,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>235</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,10 +10534,14 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>234</v>
+      </c>
+      <c r="J291" t="n">
+        <v>235</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10299,10 +10575,14 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>234</v>
+      </c>
+      <c r="J292" t="n">
+        <v>235</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,10 +10616,14 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>234</v>
+      </c>
+      <c r="J293" t="n">
+        <v>235</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10373,10 +10657,14 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>234</v>
+      </c>
+      <c r="J294" t="n">
+        <v>235</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10410,10 +10698,14 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>234</v>
+      </c>
+      <c r="J295" t="n">
+        <v>235</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,6 +10717,6 @@
       <c r="M295" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>18175.48277768591</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>17133.05777768591</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>17135.05777768591</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>17058.81197768591</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>17177.38787768591</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>17008.20037768591</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>17009.20037768591</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>13743.57357768591</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>13745.57357768591</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-13479.2151223141</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-13479.2151223141</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-39166.1112223141</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-39166.1112223141</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-39165.1112223141</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-39165.1112223141</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-40583.2560223141</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-40582.2560223141</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-40859.1112223141</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-40859.1112223141</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-40238.76102231409</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-43192.9453223141</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-42163.80202231409</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-42161.80202231409</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -6952,14 +6952,10 @@
         <v>-178228.7501737039</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>231</v>
-      </c>
-      <c r="J199" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
@@ -6989,19 +6985,11 @@
         <v>-178226.7501737039</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>230</v>
-      </c>
-      <c r="J200" t="n">
-        <v>231</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7030,19 +7018,11 @@
         <v>-177146.7502737039</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>231</v>
-      </c>
-      <c r="J201" t="n">
-        <v>231</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7071,14 +7051,10 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>232</v>
-      </c>
-      <c r="J202" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
@@ -7108,19 +7084,11 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>235</v>
-      </c>
-      <c r="J203" t="n">
-        <v>232</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7149,19 +7117,11 @@
         <v>-176642.7502737039</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>235</v>
-      </c>
-      <c r="J204" t="n">
-        <v>232</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7553,14 +7513,10 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>235</v>
-      </c>
-      <c r="J216" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7590,3086 +7546,2562 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>235</v>
-      </c>
-      <c r="J217" t="n">
-        <v>235</v>
-      </c>
-      <c r="K217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>234</v>
+      </c>
+      <c r="C218" t="n">
+        <v>235</v>
+      </c>
+      <c r="D218" t="n">
+        <v>235</v>
+      </c>
+      <c r="E218" t="n">
+        <v>234</v>
+      </c>
+      <c r="F218" t="n">
+        <v>822.1286</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>235</v>
+      </c>
+      <c r="C219" t="n">
+        <v>235</v>
+      </c>
+      <c r="D219" t="n">
+        <v>235</v>
+      </c>
+      <c r="E219" t="n">
+        <v>235</v>
+      </c>
+      <c r="F219" t="n">
+        <v>545.1635</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>235</v>
+      </c>
+      <c r="C220" t="n">
+        <v>235</v>
+      </c>
+      <c r="D220" t="n">
+        <v>235</v>
+      </c>
+      <c r="E220" t="n">
+        <v>235</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1110.333</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>235</v>
+      </c>
+      <c r="C221" t="n">
+        <v>235</v>
+      </c>
+      <c r="D221" t="n">
+        <v>235</v>
+      </c>
+      <c r="E221" t="n">
+        <v>235</v>
+      </c>
+      <c r="F221" t="n">
+        <v>594.1781999999999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>235</v>
+      </c>
+      <c r="C222" t="n">
+        <v>235</v>
+      </c>
+      <c r="D222" t="n">
+        <v>235</v>
+      </c>
+      <c r="E222" t="n">
+        <v>235</v>
+      </c>
+      <c r="F222" t="n">
+        <v>247.5604</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>235</v>
+      </c>
+      <c r="C223" t="n">
+        <v>235</v>
+      </c>
+      <c r="D223" t="n">
+        <v>235</v>
+      </c>
+      <c r="E223" t="n">
+        <v>235</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3579.0737</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>235</v>
+      </c>
+      <c r="C224" t="n">
+        <v>235</v>
+      </c>
+      <c r="D224" t="n">
+        <v>235</v>
+      </c>
+      <c r="E224" t="n">
+        <v>235</v>
+      </c>
+      <c r="F224" t="n">
+        <v>244.0732</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>235</v>
+      </c>
+      <c r="C225" t="n">
+        <v>235</v>
+      </c>
+      <c r="D225" t="n">
+        <v>235</v>
+      </c>
+      <c r="E225" t="n">
+        <v>235</v>
+      </c>
+      <c r="F225" t="n">
+        <v>371.1113</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-185228.0887737039</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>234</v>
+      </c>
+      <c r="C226" t="n">
+        <v>234</v>
+      </c>
+      <c r="D226" t="n">
+        <v>234</v>
+      </c>
+      <c r="E226" t="n">
+        <v>234</v>
+      </c>
+      <c r="F226" t="n">
+        <v>148.3545</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-185376.4432737039</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>234</v>
+      </c>
+      <c r="C227" t="n">
+        <v>235</v>
+      </c>
+      <c r="D227" t="n">
+        <v>235</v>
+      </c>
+      <c r="E227" t="n">
+        <v>234</v>
+      </c>
+      <c r="F227" t="n">
+        <v>381.9609</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-184994.4823737039</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>236</v>
+      </c>
+      <c r="C228" t="n">
+        <v>236</v>
+      </c>
+      <c r="D228" t="n">
+        <v>236</v>
+      </c>
+      <c r="E228" t="n">
+        <v>236</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1200.2407</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-183794.2416737039</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>237</v>
+      </c>
+      <c r="C229" t="n">
+        <v>238</v>
+      </c>
+      <c r="D229" t="n">
+        <v>238</v>
+      </c>
+      <c r="E229" t="n">
+        <v>237</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>238</v>
+      </c>
+      <c r="C230" t="n">
+        <v>238</v>
+      </c>
+      <c r="D230" t="n">
+        <v>238</v>
+      </c>
+      <c r="E230" t="n">
+        <v>238</v>
+      </c>
+      <c r="F230" t="n">
+        <v>811.7563</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>238</v>
+      </c>
+      <c r="C231" t="n">
+        <v>238</v>
+      </c>
+      <c r="D231" t="n">
+        <v>238</v>
+      </c>
+      <c r="E231" t="n">
+        <v>238</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>238</v>
+      </c>
+      <c r="C232" t="n">
+        <v>238</v>
+      </c>
+      <c r="D232" t="n">
+        <v>238</v>
+      </c>
+      <c r="E232" t="n">
+        <v>238</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1830.0488</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>238</v>
+      </c>
+      <c r="C233" t="n">
+        <v>238</v>
+      </c>
+      <c r="D233" t="n">
+        <v>238</v>
+      </c>
+      <c r="E233" t="n">
+        <v>238</v>
+      </c>
+      <c r="F233" t="n">
+        <v>836</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>238</v>
+      </c>
+      <c r="C234" t="n">
+        <v>238</v>
+      </c>
+      <c r="D234" t="n">
+        <v>238</v>
+      </c>
+      <c r="E234" t="n">
+        <v>238</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>238</v>
+      </c>
+      <c r="C235" t="n">
+        <v>238</v>
+      </c>
+      <c r="D235" t="n">
+        <v>238</v>
+      </c>
+      <c r="E235" t="n">
+        <v>238</v>
+      </c>
+      <c r="F235" t="n">
+        <v>896.178</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>238</v>
+      </c>
+      <c r="C236" t="n">
+        <v>238</v>
+      </c>
+      <c r="D236" t="n">
+        <v>238</v>
+      </c>
+      <c r="E236" t="n">
+        <v>238</v>
+      </c>
+      <c r="F236" t="n">
+        <v>6.2647</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-183792.2416737039</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>235</v>
+      </c>
+      <c r="C237" t="n">
+        <v>235</v>
+      </c>
+      <c r="D237" t="n">
+        <v>235</v>
+      </c>
+      <c r="E237" t="n">
+        <v>235</v>
+      </c>
+      <c r="F237" t="n">
+        <v>6.2647</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-183798.5063737039</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>239</v>
+      </c>
+      <c r="C238" t="n">
+        <v>239</v>
+      </c>
+      <c r="D238" t="n">
+        <v>239</v>
+      </c>
+      <c r="E238" t="n">
+        <v>239</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-183796.5063737039</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>238</v>
+      </c>
+      <c r="C239" t="n">
+        <v>242</v>
+      </c>
+      <c r="D239" t="n">
+        <v>242</v>
+      </c>
+      <c r="E239" t="n">
+        <v>238</v>
+      </c>
+      <c r="F239" t="n">
+        <v>16556.2871</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-167240.2192737039</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>242</v>
+      </c>
+      <c r="C240" t="n">
+        <v>240</v>
+      </c>
+      <c r="D240" t="n">
+        <v>242</v>
+      </c>
+      <c r="E240" t="n">
+        <v>240</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2361.7136</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-169601.9328737039</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>240</v>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>240</v>
+      </c>
+      <c r="E241" t="n">
+        <v>240</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2054.0535</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-169601.9328737039</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>240</v>
+      </c>
+      <c r="C242" t="n">
+        <v>240</v>
+      </c>
+      <c r="D242" t="n">
+        <v>240</v>
+      </c>
+      <c r="E242" t="n">
+        <v>240</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2497.7492</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-169601.9328737039</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>240</v>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>242</v>
+      </c>
+      <c r="E243" t="n">
+        <v>240</v>
+      </c>
+      <c r="F243" t="n">
+        <v>995.2978000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-168606.6350737039</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>242</v>
+      </c>
+      <c r="C244" t="n">
+        <v>242</v>
+      </c>
+      <c r="D244" t="n">
+        <v>242</v>
+      </c>
+      <c r="E244" t="n">
+        <v>242</v>
+      </c>
+      <c r="F244" t="n">
+        <v>529.9032</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-168606.6350737039</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>241</v>
+      </c>
+      <c r="C245" t="n">
+        <v>242</v>
+      </c>
+      <c r="D245" t="n">
+        <v>242</v>
+      </c>
+      <c r="E245" t="n">
+        <v>241</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5262.9881</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-168606.6350737039</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>242</v>
+      </c>
+      <c r="C246" t="n">
+        <v>239</v>
+      </c>
+      <c r="D246" t="n">
+        <v>242</v>
+      </c>
+      <c r="E246" t="n">
+        <v>239</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4170.078</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-172776.7130737039</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>240</v>
+      </c>
+      <c r="C247" t="n">
+        <v>240</v>
+      </c>
+      <c r="D247" t="n">
+        <v>240</v>
+      </c>
+      <c r="E247" t="n">
+        <v>240</v>
+      </c>
+      <c r="F247" t="n">
+        <v>448.2049</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-172328.5081737039</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>241</v>
+      </c>
+      <c r="C248" t="n">
+        <v>241</v>
+      </c>
+      <c r="D248" t="n">
+        <v>241</v>
+      </c>
+      <c r="E248" t="n">
+        <v>241</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2104.9335850622</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-170223.5745886417</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>241</v>
+      </c>
+      <c r="C249" t="n">
+        <v>241</v>
+      </c>
+      <c r="D249" t="n">
+        <v>241</v>
+      </c>
+      <c r="E249" t="n">
+        <v>241</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1749.7924</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-170223.5745886417</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>240</v>
+      </c>
+      <c r="C250" t="n">
+        <v>241</v>
+      </c>
+      <c r="D250" t="n">
+        <v>241</v>
+      </c>
+      <c r="E250" t="n">
+        <v>240</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1069.5848</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-170223.5745886417</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>242</v>
+      </c>
+      <c r="C251" t="n">
+        <v>242</v>
+      </c>
+      <c r="D251" t="n">
+        <v>242</v>
+      </c>
+      <c r="E251" t="n">
+        <v>242</v>
+      </c>
+      <c r="F251" t="n">
+        <v>4319.6404198347</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-165903.934168807</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>242</v>
+      </c>
+      <c r="C252" t="n">
+        <v>242</v>
+      </c>
+      <c r="D252" t="n">
+        <v>242</v>
+      </c>
+      <c r="E252" t="n">
+        <v>242</v>
+      </c>
+      <c r="F252" t="n">
+        <v>972.4545000000001</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-165903.934168807</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>242</v>
+      </c>
+      <c r="C253" t="n">
+        <v>242</v>
+      </c>
+      <c r="D253" t="n">
+        <v>242</v>
+      </c>
+      <c r="E253" t="n">
+        <v>242</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4280.2809</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-165903.934168807</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>243</v>
+      </c>
+      <c r="C254" t="n">
+        <v>241</v>
+      </c>
+      <c r="D254" t="n">
+        <v>243</v>
+      </c>
+      <c r="E254" t="n">
+        <v>240</v>
+      </c>
+      <c r="F254" t="n">
+        <v>6550.8586</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-172454.792768807</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>241</v>
+      </c>
+      <c r="C255" t="n">
+        <v>241</v>
+      </c>
+      <c r="D255" t="n">
+        <v>241</v>
+      </c>
+      <c r="E255" t="n">
+        <v>241</v>
+      </c>
+      <c r="F255" t="n">
+        <v>660.1203319502</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-172454.792768807</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>241</v>
+      </c>
+      <c r="C256" t="n">
+        <v>242</v>
+      </c>
+      <c r="D256" t="n">
+        <v>242</v>
+      </c>
+      <c r="E256" t="n">
+        <v>241</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3862.946</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-168591.846768807</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>242</v>
+      </c>
+      <c r="C257" t="n">
+        <v>240</v>
+      </c>
+      <c r="D257" t="n">
+        <v>242</v>
+      </c>
+      <c r="E257" t="n">
+        <v>240</v>
+      </c>
+      <c r="F257" t="n">
+        <v>513.471</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-169105.317768807</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>239</v>
+      </c>
+      <c r="C258" t="n">
+        <v>240</v>
+      </c>
+      <c r="D258" t="n">
+        <v>240</v>
+      </c>
+      <c r="E258" t="n">
+        <v>239</v>
+      </c>
+      <c r="F258" t="n">
+        <v>552.7021999999999</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-169105.317768807</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>240</v>
+      </c>
+      <c r="C259" t="n">
+        <v>240</v>
+      </c>
+      <c r="D259" t="n">
+        <v>240</v>
+      </c>
+      <c r="E259" t="n">
+        <v>240</v>
+      </c>
+      <c r="F259" t="n">
+        <v>233.2931</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-169105.317768807</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>239</v>
+      </c>
+      <c r="C260" t="n">
+        <v>239</v>
+      </c>
+      <c r="D260" t="n">
+        <v>239</v>
+      </c>
+      <c r="E260" t="n">
+        <v>239</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1098.4659</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-170203.783668807</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>240</v>
+      </c>
+      <c r="C261" t="n">
+        <v>240</v>
+      </c>
+      <c r="D261" t="n">
+        <v>240</v>
+      </c>
+      <c r="E261" t="n">
+        <v>240</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-170202.783668807</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>240</v>
+      </c>
+      <c r="C262" t="n">
+        <v>240</v>
+      </c>
+      <c r="D262" t="n">
+        <v>240</v>
+      </c>
+      <c r="E262" t="n">
+        <v>240</v>
+      </c>
+      <c r="F262" t="n">
+        <v>180</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-170202.783668807</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>239</v>
+      </c>
+      <c r="C263" t="n">
+        <v>239</v>
+      </c>
+      <c r="D263" t="n">
+        <v>239</v>
+      </c>
+      <c r="E263" t="n">
+        <v>239</v>
+      </c>
+      <c r="F263" t="n">
+        <v>11.0602</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-170213.843868807</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>238</v>
+      </c>
+      <c r="C264" t="n">
+        <v>238</v>
+      </c>
+      <c r="D264" t="n">
+        <v>238</v>
+      </c>
+      <c r="E264" t="n">
+        <v>238</v>
+      </c>
+      <c r="F264" t="n">
+        <v>798.6667</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-171012.510568807</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>237</v>
+      </c>
+      <c r="C265" t="n">
+        <v>236</v>
+      </c>
+      <c r="D265" t="n">
+        <v>237</v>
+      </c>
+      <c r="E265" t="n">
+        <v>236</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1097.3493</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-172109.859868807</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>237</v>
+      </c>
+      <c r="C266" t="n">
+        <v>236</v>
+      </c>
+      <c r="D266" t="n">
+        <v>237</v>
+      </c>
+      <c r="E266" t="n">
+        <v>236</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4280.2809</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-172109.859868807</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>237</v>
+      </c>
+      <c r="C267" t="n">
+        <v>237</v>
+      </c>
+      <c r="D267" t="n">
+        <v>237</v>
+      </c>
+      <c r="E267" t="n">
+        <v>237</v>
+      </c>
+      <c r="F267" t="n">
+        <v>45.2444</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-172064.6154688071</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>236</v>
+      </c>
+      <c r="C268" t="n">
+        <v>236</v>
+      </c>
+      <c r="D268" t="n">
+        <v>236</v>
+      </c>
+      <c r="E268" t="n">
+        <v>236</v>
+      </c>
+      <c r="F268" t="n">
+        <v>217.1149</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-172281.730368807</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>237</v>
+      </c>
+      <c r="C269" t="n">
+        <v>237</v>
+      </c>
+      <c r="D269" t="n">
+        <v>237</v>
+      </c>
+      <c r="E269" t="n">
+        <v>237</v>
+      </c>
+      <c r="F269" t="n">
+        <v>333.0999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-171948.630468807</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>235</v>
+      </c>
+      <c r="C270" t="n">
+        <v>235</v>
+      </c>
+      <c r="D270" t="n">
+        <v>235</v>
+      </c>
+      <c r="E270" t="n">
+        <v>235</v>
+      </c>
+      <c r="F270" t="n">
+        <v>29.4346</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-171978.065068807</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>237</v>
+      </c>
+      <c r="C271" t="n">
+        <v>237</v>
+      </c>
+      <c r="D271" t="n">
+        <v>237</v>
+      </c>
+      <c r="E271" t="n">
+        <v>237</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1519</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-170459.065068807</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>237</v>
+      </c>
+      <c r="C272" t="n">
+        <v>237</v>
+      </c>
+      <c r="D272" t="n">
+        <v>237</v>
+      </c>
+      <c r="E272" t="n">
+        <v>237</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1491.059</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-170459.065068807</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>237</v>
+      </c>
+      <c r="C273" t="n">
+        <v>237</v>
+      </c>
+      <c r="D273" t="n">
+        <v>237</v>
+      </c>
+      <c r="E273" t="n">
+        <v>237</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4450.6016</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-170459.065068807</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>238</v>
+      </c>
+      <c r="C274" t="n">
+        <v>238</v>
+      </c>
+      <c r="D274" t="n">
+        <v>238</v>
+      </c>
+      <c r="E274" t="n">
+        <v>238</v>
+      </c>
+      <c r="F274" t="n">
+        <v>436.1308</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-170022.934268807</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>238</v>
+      </c>
+      <c r="C275" t="n">
+        <v>237</v>
+      </c>
+      <c r="D275" t="n">
+        <v>238</v>
+      </c>
+      <c r="E275" t="n">
+        <v>237</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3863.1317</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-173886.065968807</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>236</v>
+      </c>
+      <c r="C276" t="n">
+        <v>236</v>
+      </c>
+      <c r="D276" t="n">
+        <v>236</v>
+      </c>
+      <c r="E276" t="n">
+        <v>236</v>
+      </c>
+      <c r="F276" t="n">
+        <v>43.422</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-173929.487968807</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>236</v>
+      </c>
+      <c r="C277" t="n">
+        <v>236</v>
+      </c>
+      <c r="D277" t="n">
+        <v>236</v>
+      </c>
+      <c r="E277" t="n">
+        <v>236</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5949.5563</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-173929.487968807</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>237</v>
+      </c>
+      <c r="C278" t="n">
+        <v>237</v>
+      </c>
+      <c r="D278" t="n">
+        <v>237</v>
+      </c>
+      <c r="E278" t="n">
+        <v>237</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-173927.487968807</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>235</v>
+      </c>
+      <c r="C279" t="n">
+        <v>236</v>
+      </c>
+      <c r="D279" t="n">
+        <v>236</v>
+      </c>
+      <c r="E279" t="n">
+        <v>235</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1495.507</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-175422.994968807</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>234</v>
+      </c>
+      <c r="C280" t="n">
+        <v>234</v>
+      </c>
+      <c r="D280" t="n">
+        <v>234</v>
+      </c>
+      <c r="E280" t="n">
+        <v>234</v>
+      </c>
+      <c r="F280" t="n">
+        <v>136.1942</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-175559.189168807</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>234</v>
+      </c>
+      <c r="C281" t="n">
+        <v>233</v>
+      </c>
+      <c r="D281" t="n">
+        <v>234</v>
+      </c>
+      <c r="E281" t="n">
+        <v>233</v>
+      </c>
+      <c r="F281" t="n">
+        <v>4659.3278</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-180218.516968807</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>234</v>
+      </c>
+      <c r="C282" t="n">
+        <v>233</v>
+      </c>
+      <c r="D282" t="n">
+        <v>234</v>
+      </c>
+      <c r="E282" t="n">
+        <v>233</v>
+      </c>
+      <c r="F282" t="n">
+        <v>9305.8606</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-180218.516968807</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>234</v>
+      </c>
+      <c r="C283" t="n">
+        <v>236</v>
+      </c>
+      <c r="D283" t="n">
+        <v>236</v>
+      </c>
+      <c r="E283" t="n">
+        <v>234</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3455.1816</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-176763.335368807</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>235</v>
+      </c>
+      <c r="C284" t="n">
+        <v>235</v>
+      </c>
+      <c r="D284" t="n">
+        <v>235</v>
+      </c>
+      <c r="E284" t="n">
+        <v>235</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1649.1594</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-178412.494768807</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>235</v>
+      </c>
+      <c r="C285" t="n">
+        <v>235</v>
+      </c>
+      <c r="D285" t="n">
+        <v>235</v>
+      </c>
+      <c r="E285" t="n">
+        <v>235</v>
+      </c>
+      <c r="F285" t="n">
+        <v>430.129</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-178412.494768807</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>235</v>
+      </c>
+      <c r="C286" t="n">
+        <v>235</v>
+      </c>
+      <c r="D286" t="n">
+        <v>235</v>
+      </c>
+      <c r="E286" t="n">
+        <v>235</v>
+      </c>
+      <c r="F286" t="n">
+        <v>530.0872000000001</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-178412.494768807</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>235</v>
+      </c>
+      <c r="C287" t="n">
+        <v>237</v>
+      </c>
+      <c r="D287" t="n">
+        <v>237</v>
+      </c>
+      <c r="E287" t="n">
+        <v>235</v>
+      </c>
+      <c r="F287" t="n">
+        <v>20287.9788</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-158124.515968807</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>235</v>
+      </c>
+      <c r="C288" t="n">
+        <v>235</v>
+      </c>
+      <c r="D288" t="n">
+        <v>235</v>
+      </c>
+      <c r="E288" t="n">
+        <v>235</v>
+      </c>
+      <c r="F288" t="n">
+        <v>681.814</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-158806.329968807</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>234</v>
+      </c>
+      <c r="C289" t="n">
+        <v>234</v>
+      </c>
+      <c r="D289" t="n">
+        <v>234</v>
+      </c>
+      <c r="E289" t="n">
+        <v>234</v>
+      </c>
+      <c r="F289" t="n">
+        <v>920.154</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>234</v>
+      </c>
+      <c r="C290" t="n">
+        <v>234</v>
+      </c>
+      <c r="D290" t="n">
+        <v>234</v>
+      </c>
+      <c r="E290" t="n">
+        <v>234</v>
+      </c>
+      <c r="F290" t="n">
+        <v>429.1287</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>234</v>
+      </c>
+      <c r="C291" t="n">
+        <v>234</v>
+      </c>
+      <c r="D291" t="n">
+        <v>234</v>
+      </c>
+      <c r="E291" t="n">
+        <v>234</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3412.0235</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>233</v>
+      </c>
+      <c r="C292" t="n">
+        <v>234</v>
+      </c>
+      <c r="D292" t="n">
+        <v>234</v>
+      </c>
+      <c r="E292" t="n">
+        <v>232</v>
+      </c>
+      <c r="F292" t="n">
+        <v>6470.0121</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>234</v>
+      </c>
+      <c r="C293" t="n">
+        <v>234</v>
+      </c>
+      <c r="D293" t="n">
+        <v>234</v>
+      </c>
+      <c r="E293" t="n">
+        <v>234</v>
+      </c>
+      <c r="F293" t="n">
+        <v>969.0272</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>234</v>
+      </c>
+      <c r="J293" t="n">
+        <v>234</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>234</v>
+      </c>
+      <c r="C294" t="n">
+        <v>234</v>
+      </c>
+      <c r="D294" t="n">
+        <v>234</v>
+      </c>
+      <c r="E294" t="n">
+        <v>234</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1067.5071</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-159726.483968807</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>234</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>234</v>
-      </c>
-      <c r="C218" t="n">
-        <v>235</v>
-      </c>
-      <c r="D218" t="n">
-        <v>235</v>
-      </c>
-      <c r="E218" t="n">
-        <v>234</v>
-      </c>
-      <c r="F218" t="n">
-        <v>822.1286</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>235</v>
-      </c>
-      <c r="J218" t="n">
-        <v>235</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>235</v>
-      </c>
-      <c r="C219" t="n">
-        <v>235</v>
-      </c>
-      <c r="D219" t="n">
-        <v>235</v>
-      </c>
-      <c r="E219" t="n">
-        <v>235</v>
-      </c>
-      <c r="F219" t="n">
-        <v>545.1635</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>235</v>
-      </c>
-      <c r="J219" t="n">
-        <v>235</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>235</v>
-      </c>
-      <c r="C220" t="n">
-        <v>235</v>
-      </c>
-      <c r="D220" t="n">
-        <v>235</v>
-      </c>
-      <c r="E220" t="n">
-        <v>235</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1110.333</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>235</v>
-      </c>
-      <c r="J220" t="n">
-        <v>235</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>235</v>
-      </c>
-      <c r="C221" t="n">
-        <v>235</v>
-      </c>
-      <c r="D221" t="n">
-        <v>235</v>
-      </c>
-      <c r="E221" t="n">
-        <v>235</v>
-      </c>
-      <c r="F221" t="n">
-        <v>594.1781999999999</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>235</v>
-      </c>
-      <c r="J221" t="n">
-        <v>235</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>235</v>
-      </c>
-      <c r="C222" t="n">
-        <v>235</v>
-      </c>
-      <c r="D222" t="n">
-        <v>235</v>
-      </c>
-      <c r="E222" t="n">
-        <v>235</v>
-      </c>
-      <c r="F222" t="n">
-        <v>247.5604</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>235</v>
-      </c>
-      <c r="J222" t="n">
-        <v>235</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>235</v>
-      </c>
-      <c r="C223" t="n">
-        <v>235</v>
-      </c>
-      <c r="D223" t="n">
-        <v>235</v>
-      </c>
-      <c r="E223" t="n">
-        <v>235</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3579.0737</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>235</v>
-      </c>
-      <c r="J223" t="n">
-        <v>235</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>235</v>
-      </c>
-      <c r="C224" t="n">
-        <v>235</v>
-      </c>
-      <c r="D224" t="n">
-        <v>235</v>
-      </c>
-      <c r="E224" t="n">
-        <v>235</v>
-      </c>
-      <c r="F224" t="n">
-        <v>244.0732</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>235</v>
-      </c>
-      <c r="J224" t="n">
-        <v>235</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>235</v>
-      </c>
-      <c r="C225" t="n">
-        <v>235</v>
-      </c>
-      <c r="D225" t="n">
-        <v>235</v>
-      </c>
-      <c r="E225" t="n">
-        <v>235</v>
-      </c>
-      <c r="F225" t="n">
-        <v>371.1113</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-185228.0887737039</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>235</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>234</v>
-      </c>
-      <c r="C226" t="n">
-        <v>234</v>
-      </c>
-      <c r="D226" t="n">
-        <v>234</v>
-      </c>
-      <c r="E226" t="n">
-        <v>234</v>
-      </c>
-      <c r="F226" t="n">
-        <v>148.3545</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-185376.4432737039</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>235</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>234</v>
-      </c>
-      <c r="C227" t="n">
-        <v>235</v>
-      </c>
-      <c r="D227" t="n">
-        <v>235</v>
-      </c>
-      <c r="E227" t="n">
-        <v>234</v>
-      </c>
-      <c r="F227" t="n">
-        <v>381.9609</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-184994.4823737039</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>234</v>
-      </c>
-      <c r="J227" t="n">
-        <v>235</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>236</v>
-      </c>
-      <c r="C228" t="n">
-        <v>236</v>
-      </c>
-      <c r="D228" t="n">
-        <v>236</v>
-      </c>
-      <c r="E228" t="n">
-        <v>236</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1200.2407</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-183794.2416737039</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>235</v>
-      </c>
-      <c r="J228" t="n">
-        <v>235</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>237</v>
-      </c>
-      <c r="C229" t="n">
-        <v>238</v>
-      </c>
-      <c r="D229" t="n">
-        <v>238</v>
-      </c>
-      <c r="E229" t="n">
-        <v>237</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>236</v>
-      </c>
-      <c r="J229" t="n">
-        <v>235</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>238</v>
-      </c>
-      <c r="C230" t="n">
-        <v>238</v>
-      </c>
-      <c r="D230" t="n">
-        <v>238</v>
-      </c>
-      <c r="E230" t="n">
-        <v>238</v>
-      </c>
-      <c r="F230" t="n">
-        <v>811.7563</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>235</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>238</v>
-      </c>
-      <c r="C231" t="n">
-        <v>238</v>
-      </c>
-      <c r="D231" t="n">
-        <v>238</v>
-      </c>
-      <c r="E231" t="n">
-        <v>238</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>235</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>238</v>
-      </c>
-      <c r="C232" t="n">
-        <v>238</v>
-      </c>
-      <c r="D232" t="n">
-        <v>238</v>
-      </c>
-      <c r="E232" t="n">
-        <v>238</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1830.0488</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>235</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>238</v>
-      </c>
-      <c r="C233" t="n">
-        <v>238</v>
-      </c>
-      <c r="D233" t="n">
-        <v>238</v>
-      </c>
-      <c r="E233" t="n">
-        <v>238</v>
-      </c>
-      <c r="F233" t="n">
-        <v>836</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>235</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>238</v>
-      </c>
-      <c r="C234" t="n">
-        <v>238</v>
-      </c>
-      <c r="D234" t="n">
-        <v>238</v>
-      </c>
-      <c r="E234" t="n">
-        <v>238</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1203</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>235</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>238</v>
-      </c>
-      <c r="C235" t="n">
-        <v>238</v>
-      </c>
-      <c r="D235" t="n">
-        <v>238</v>
-      </c>
-      <c r="E235" t="n">
-        <v>238</v>
-      </c>
-      <c r="F235" t="n">
-        <v>896.178</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>235</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>238</v>
-      </c>
-      <c r="C236" t="n">
-        <v>238</v>
-      </c>
-      <c r="D236" t="n">
-        <v>238</v>
-      </c>
-      <c r="E236" t="n">
-        <v>238</v>
-      </c>
-      <c r="F236" t="n">
-        <v>6.2647</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-183792.2416737039</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>235</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>235</v>
-      </c>
-      <c r="C237" t="n">
-        <v>235</v>
-      </c>
-      <c r="D237" t="n">
-        <v>235</v>
-      </c>
-      <c r="E237" t="n">
-        <v>235</v>
-      </c>
-      <c r="F237" t="n">
-        <v>6.2647</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-183798.5063737039</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>235</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>239</v>
-      </c>
-      <c r="C238" t="n">
-        <v>239</v>
-      </c>
-      <c r="D238" t="n">
-        <v>239</v>
-      </c>
-      <c r="E238" t="n">
-        <v>239</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-183796.5063737039</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>235</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>238</v>
-      </c>
-      <c r="C239" t="n">
-        <v>242</v>
-      </c>
-      <c r="D239" t="n">
-        <v>242</v>
-      </c>
-      <c r="E239" t="n">
-        <v>238</v>
-      </c>
-      <c r="F239" t="n">
-        <v>16556.2871</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-167240.2192737039</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>235</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>242</v>
-      </c>
-      <c r="C240" t="n">
-        <v>240</v>
-      </c>
-      <c r="D240" t="n">
-        <v>242</v>
-      </c>
-      <c r="E240" t="n">
-        <v>240</v>
-      </c>
-      <c r="F240" t="n">
-        <v>2361.7136</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-169601.9328737039</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>235</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>240</v>
-      </c>
-      <c r="C241" t="n">
-        <v>240</v>
-      </c>
-      <c r="D241" t="n">
-        <v>240</v>
-      </c>
-      <c r="E241" t="n">
-        <v>240</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2054.0535</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-169601.9328737039</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>235</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>240</v>
-      </c>
-      <c r="C242" t="n">
-        <v>240</v>
-      </c>
-      <c r="D242" t="n">
-        <v>240</v>
-      </c>
-      <c r="E242" t="n">
-        <v>240</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2497.7492</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-169601.9328737039</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>235</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>240</v>
-      </c>
-      <c r="C243" t="n">
-        <v>242</v>
-      </c>
-      <c r="D243" t="n">
-        <v>242</v>
-      </c>
-      <c r="E243" t="n">
-        <v>240</v>
-      </c>
-      <c r="F243" t="n">
-        <v>995.2978000000001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-168606.6350737039</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>235</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>242</v>
-      </c>
-      <c r="C244" t="n">
-        <v>242</v>
-      </c>
-      <c r="D244" t="n">
-        <v>242</v>
-      </c>
-      <c r="E244" t="n">
-        <v>242</v>
-      </c>
-      <c r="F244" t="n">
-        <v>529.9032</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-168606.6350737039</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>235</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>241</v>
-      </c>
-      <c r="C245" t="n">
-        <v>242</v>
-      </c>
-      <c r="D245" t="n">
-        <v>242</v>
-      </c>
-      <c r="E245" t="n">
-        <v>241</v>
-      </c>
-      <c r="F245" t="n">
-        <v>5262.9881</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-168606.6350737039</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>235</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>242</v>
-      </c>
-      <c r="C246" t="n">
-        <v>239</v>
-      </c>
-      <c r="D246" t="n">
-        <v>242</v>
-      </c>
-      <c r="E246" t="n">
-        <v>239</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4170.078</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-172776.7130737039</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>235</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>240</v>
-      </c>
-      <c r="C247" t="n">
-        <v>240</v>
-      </c>
-      <c r="D247" t="n">
-        <v>240</v>
-      </c>
-      <c r="E247" t="n">
-        <v>240</v>
-      </c>
-      <c r="F247" t="n">
-        <v>448.2049</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-172328.5081737039</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>235</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>241</v>
-      </c>
-      <c r="C248" t="n">
-        <v>241</v>
-      </c>
-      <c r="D248" t="n">
-        <v>241</v>
-      </c>
-      <c r="E248" t="n">
-        <v>241</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2104.9335850622</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-170223.5745886417</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>235</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>241</v>
-      </c>
-      <c r="C249" t="n">
-        <v>241</v>
-      </c>
-      <c r="D249" t="n">
-        <v>241</v>
-      </c>
-      <c r="E249" t="n">
-        <v>241</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1749.7924</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-170223.5745886417</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>235</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>240</v>
-      </c>
-      <c r="C250" t="n">
-        <v>241</v>
-      </c>
-      <c r="D250" t="n">
-        <v>241</v>
-      </c>
-      <c r="E250" t="n">
-        <v>240</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1069.5848</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-170223.5745886417</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>235</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>242</v>
-      </c>
-      <c r="C251" t="n">
-        <v>242</v>
-      </c>
-      <c r="D251" t="n">
-        <v>242</v>
-      </c>
-      <c r="E251" t="n">
-        <v>242</v>
-      </c>
-      <c r="F251" t="n">
-        <v>4319.6404198347</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-165903.934168807</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>235</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>242</v>
-      </c>
-      <c r="C252" t="n">
-        <v>242</v>
-      </c>
-      <c r="D252" t="n">
-        <v>242</v>
-      </c>
-      <c r="E252" t="n">
-        <v>242</v>
-      </c>
-      <c r="F252" t="n">
-        <v>972.4545000000001</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-165903.934168807</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>235</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>242</v>
-      </c>
-      <c r="C253" t="n">
-        <v>242</v>
-      </c>
-      <c r="D253" t="n">
-        <v>242</v>
-      </c>
-      <c r="E253" t="n">
-        <v>242</v>
-      </c>
-      <c r="F253" t="n">
-        <v>4280.2809</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-165903.934168807</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>235</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>243</v>
-      </c>
-      <c r="C254" t="n">
-        <v>241</v>
-      </c>
-      <c r="D254" t="n">
-        <v>243</v>
-      </c>
-      <c r="E254" t="n">
-        <v>240</v>
-      </c>
-      <c r="F254" t="n">
-        <v>6550.8586</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-172454.792768807</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>235</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>241</v>
-      </c>
-      <c r="C255" t="n">
-        <v>241</v>
-      </c>
-      <c r="D255" t="n">
-        <v>241</v>
-      </c>
-      <c r="E255" t="n">
-        <v>241</v>
-      </c>
-      <c r="F255" t="n">
-        <v>660.1203319502</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-172454.792768807</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>235</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>241</v>
-      </c>
-      <c r="C256" t="n">
-        <v>242</v>
-      </c>
-      <c r="D256" t="n">
-        <v>242</v>
-      </c>
-      <c r="E256" t="n">
-        <v>241</v>
-      </c>
-      <c r="F256" t="n">
-        <v>3862.946</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-168591.846768807</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>235</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>242</v>
-      </c>
-      <c r="C257" t="n">
-        <v>240</v>
-      </c>
-      <c r="D257" t="n">
-        <v>242</v>
-      </c>
-      <c r="E257" t="n">
-        <v>240</v>
-      </c>
-      <c r="F257" t="n">
-        <v>513.471</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-169105.317768807</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>235</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>239</v>
-      </c>
-      <c r="C258" t="n">
-        <v>240</v>
-      </c>
-      <c r="D258" t="n">
-        <v>240</v>
-      </c>
-      <c r="E258" t="n">
-        <v>239</v>
-      </c>
-      <c r="F258" t="n">
-        <v>552.7021999999999</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-169105.317768807</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>235</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>240</v>
-      </c>
-      <c r="C259" t="n">
-        <v>240</v>
-      </c>
-      <c r="D259" t="n">
-        <v>240</v>
-      </c>
-      <c r="E259" t="n">
-        <v>240</v>
-      </c>
-      <c r="F259" t="n">
-        <v>233.2931</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-169105.317768807</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>235</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>239</v>
-      </c>
-      <c r="C260" t="n">
-        <v>239</v>
-      </c>
-      <c r="D260" t="n">
-        <v>239</v>
-      </c>
-      <c r="E260" t="n">
-        <v>239</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1098.4659</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-170203.783668807</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>235</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>240</v>
-      </c>
-      <c r="C261" t="n">
-        <v>240</v>
-      </c>
-      <c r="D261" t="n">
-        <v>240</v>
-      </c>
-      <c r="E261" t="n">
-        <v>240</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-170202.783668807</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>235</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>240</v>
-      </c>
-      <c r="C262" t="n">
-        <v>240</v>
-      </c>
-      <c r="D262" t="n">
-        <v>240</v>
-      </c>
-      <c r="E262" t="n">
-        <v>240</v>
-      </c>
-      <c r="F262" t="n">
-        <v>180</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-170202.783668807</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>235</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>239</v>
-      </c>
-      <c r="C263" t="n">
-        <v>239</v>
-      </c>
-      <c r="D263" t="n">
-        <v>239</v>
-      </c>
-      <c r="E263" t="n">
-        <v>239</v>
-      </c>
-      <c r="F263" t="n">
-        <v>11.0602</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-170213.843868807</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>235</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>238</v>
-      </c>
-      <c r="C264" t="n">
-        <v>238</v>
-      </c>
-      <c r="D264" t="n">
-        <v>238</v>
-      </c>
-      <c r="E264" t="n">
-        <v>238</v>
-      </c>
-      <c r="F264" t="n">
-        <v>798.6667</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-171012.510568807</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>235</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>237</v>
-      </c>
-      <c r="C265" t="n">
-        <v>236</v>
-      </c>
-      <c r="D265" t="n">
-        <v>237</v>
-      </c>
-      <c r="E265" t="n">
-        <v>236</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1097.3493</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-172109.859868807</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>235</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>237</v>
-      </c>
-      <c r="C266" t="n">
-        <v>236</v>
-      </c>
-      <c r="D266" t="n">
-        <v>237</v>
-      </c>
-      <c r="E266" t="n">
-        <v>236</v>
-      </c>
-      <c r="F266" t="n">
-        <v>4280.2809</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-172109.859868807</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>236</v>
-      </c>
-      <c r="J266" t="n">
-        <v>235</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>237</v>
-      </c>
-      <c r="C267" t="n">
-        <v>237</v>
-      </c>
-      <c r="D267" t="n">
-        <v>237</v>
-      </c>
-      <c r="E267" t="n">
-        <v>237</v>
-      </c>
-      <c r="F267" t="n">
-        <v>45.2444</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-172064.6154688071</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>236</v>
-      </c>
-      <c r="J267" t="n">
-        <v>235</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>236</v>
-      </c>
-      <c r="C268" t="n">
-        <v>236</v>
-      </c>
-      <c r="D268" t="n">
-        <v>236</v>
-      </c>
-      <c r="E268" t="n">
-        <v>236</v>
-      </c>
-      <c r="F268" t="n">
-        <v>217.1149</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-172281.730368807</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>237</v>
-      </c>
-      <c r="J268" t="n">
-        <v>235</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>237</v>
-      </c>
-      <c r="C269" t="n">
-        <v>237</v>
-      </c>
-      <c r="D269" t="n">
-        <v>237</v>
-      </c>
-      <c r="E269" t="n">
-        <v>237</v>
-      </c>
-      <c r="F269" t="n">
-        <v>333.0999</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-171948.630468807</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>236</v>
-      </c>
-      <c r="J269" t="n">
-        <v>235</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>235</v>
-      </c>
-      <c r="C270" t="n">
-        <v>235</v>
-      </c>
-      <c r="D270" t="n">
-        <v>235</v>
-      </c>
-      <c r="E270" t="n">
-        <v>235</v>
-      </c>
-      <c r="F270" t="n">
-        <v>29.4346</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-171978.065068807</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>237</v>
-      </c>
-      <c r="J270" t="n">
-        <v>235</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>237</v>
-      </c>
-      <c r="C271" t="n">
-        <v>237</v>
-      </c>
-      <c r="D271" t="n">
-        <v>237</v>
-      </c>
-      <c r="E271" t="n">
-        <v>237</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1519</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-170459.065068807</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>235</v>
-      </c>
-      <c r="J271" t="n">
-        <v>235</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>237</v>
-      </c>
-      <c r="C272" t="n">
-        <v>237</v>
-      </c>
-      <c r="D272" t="n">
-        <v>237</v>
-      </c>
-      <c r="E272" t="n">
-        <v>237</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1491.059</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-170459.065068807</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>237</v>
-      </c>
-      <c r="J272" t="n">
-        <v>235</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>237</v>
-      </c>
-      <c r="C273" t="n">
-        <v>237</v>
-      </c>
-      <c r="D273" t="n">
-        <v>237</v>
-      </c>
-      <c r="E273" t="n">
-        <v>237</v>
-      </c>
-      <c r="F273" t="n">
-        <v>4450.6016</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-170459.065068807</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>235</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>238</v>
-      </c>
-      <c r="C274" t="n">
-        <v>238</v>
-      </c>
-      <c r="D274" t="n">
-        <v>238</v>
-      </c>
-      <c r="E274" t="n">
-        <v>238</v>
-      </c>
-      <c r="F274" t="n">
-        <v>436.1308</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-170022.934268807</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>237</v>
-      </c>
-      <c r="J274" t="n">
-        <v>235</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>238</v>
-      </c>
-      <c r="C275" t="n">
-        <v>237</v>
-      </c>
-      <c r="D275" t="n">
-        <v>238</v>
-      </c>
-      <c r="E275" t="n">
-        <v>237</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3863.1317</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-173886.065968807</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>238</v>
-      </c>
-      <c r="J275" t="n">
-        <v>235</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>236</v>
-      </c>
-      <c r="C276" t="n">
-        <v>236</v>
-      </c>
-      <c r="D276" t="n">
-        <v>236</v>
-      </c>
-      <c r="E276" t="n">
-        <v>236</v>
-      </c>
-      <c r="F276" t="n">
-        <v>43.422</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-173929.487968807</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>237</v>
-      </c>
-      <c r="J276" t="n">
-        <v>235</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>236</v>
-      </c>
-      <c r="C277" t="n">
-        <v>236</v>
-      </c>
-      <c r="D277" t="n">
-        <v>236</v>
-      </c>
-      <c r="E277" t="n">
-        <v>236</v>
-      </c>
-      <c r="F277" t="n">
-        <v>5949.5563</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-173929.487968807</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>236</v>
-      </c>
-      <c r="J277" t="n">
-        <v>235</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>237</v>
-      </c>
-      <c r="C278" t="n">
-        <v>237</v>
-      </c>
-      <c r="D278" t="n">
-        <v>237</v>
-      </c>
-      <c r="E278" t="n">
-        <v>237</v>
-      </c>
-      <c r="F278" t="n">
-        <v>2</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-173927.487968807</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>236</v>
-      </c>
-      <c r="J278" t="n">
-        <v>235</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>235</v>
-      </c>
-      <c r="C279" t="n">
-        <v>236</v>
-      </c>
-      <c r="D279" t="n">
-        <v>236</v>
-      </c>
-      <c r="E279" t="n">
-        <v>235</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1495.507</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-175422.994968807</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>237</v>
-      </c>
-      <c r="J279" t="n">
-        <v>235</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>234</v>
-      </c>
-      <c r="C280" t="n">
-        <v>234</v>
-      </c>
-      <c r="D280" t="n">
-        <v>234</v>
-      </c>
-      <c r="E280" t="n">
-        <v>234</v>
-      </c>
-      <c r="F280" t="n">
-        <v>136.1942</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-175559.189168807</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>236</v>
-      </c>
-      <c r="J280" t="n">
-        <v>235</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>234</v>
-      </c>
-      <c r="C281" t="n">
-        <v>233</v>
-      </c>
-      <c r="D281" t="n">
-        <v>234</v>
-      </c>
-      <c r="E281" t="n">
-        <v>233</v>
-      </c>
-      <c r="F281" t="n">
-        <v>4659.3278</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-180218.516968807</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>234</v>
-      </c>
-      <c r="J281" t="n">
-        <v>235</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>234</v>
-      </c>
-      <c r="C282" t="n">
-        <v>233</v>
-      </c>
-      <c r="D282" t="n">
-        <v>234</v>
-      </c>
-      <c r="E282" t="n">
-        <v>233</v>
-      </c>
-      <c r="F282" t="n">
-        <v>9305.8606</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-180218.516968807</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>233</v>
-      </c>
-      <c r="J282" t="n">
-        <v>235</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>234</v>
-      </c>
-      <c r="C283" t="n">
-        <v>236</v>
-      </c>
-      <c r="D283" t="n">
-        <v>236</v>
-      </c>
-      <c r="E283" t="n">
-        <v>234</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3455.1816</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-176763.335368807</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>233</v>
-      </c>
-      <c r="J283" t="n">
-        <v>235</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>235</v>
-      </c>
-      <c r="C284" t="n">
-        <v>235</v>
-      </c>
-      <c r="D284" t="n">
-        <v>235</v>
-      </c>
-      <c r="E284" t="n">
-        <v>235</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1649.1594</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-178412.494768807</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>236</v>
-      </c>
-      <c r="J284" t="n">
-        <v>235</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>235</v>
-      </c>
-      <c r="C285" t="n">
-        <v>235</v>
-      </c>
-      <c r="D285" t="n">
-        <v>235</v>
-      </c>
-      <c r="E285" t="n">
-        <v>235</v>
-      </c>
-      <c r="F285" t="n">
-        <v>430.129</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-178412.494768807</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>235</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>235</v>
-      </c>
-      <c r="C286" t="n">
-        <v>235</v>
-      </c>
-      <c r="D286" t="n">
-        <v>235</v>
-      </c>
-      <c r="E286" t="n">
-        <v>235</v>
-      </c>
-      <c r="F286" t="n">
-        <v>530.0872000000001</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-178412.494768807</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>235</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>235</v>
-      </c>
-      <c r="C287" t="n">
-        <v>237</v>
-      </c>
-      <c r="D287" t="n">
-        <v>237</v>
-      </c>
-      <c r="E287" t="n">
-        <v>235</v>
-      </c>
-      <c r="F287" t="n">
-        <v>20287.9788</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-158124.515968807</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>235</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>235</v>
-      </c>
-      <c r="C288" t="n">
-        <v>235</v>
-      </c>
-      <c r="D288" t="n">
-        <v>235</v>
-      </c>
-      <c r="E288" t="n">
-        <v>235</v>
-      </c>
-      <c r="F288" t="n">
-        <v>681.814</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-158806.329968807</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>235</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>234</v>
-      </c>
-      <c r="C289" t="n">
-        <v>234</v>
-      </c>
-      <c r="D289" t="n">
-        <v>234</v>
-      </c>
-      <c r="E289" t="n">
-        <v>234</v>
-      </c>
-      <c r="F289" t="n">
-        <v>920.154</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>235</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>234</v>
-      </c>
-      <c r="C290" t="n">
-        <v>234</v>
-      </c>
-      <c r="D290" t="n">
-        <v>234</v>
-      </c>
-      <c r="E290" t="n">
-        <v>234</v>
-      </c>
-      <c r="F290" t="n">
-        <v>429.1287</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>235</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>234</v>
-      </c>
-      <c r="C291" t="n">
-        <v>234</v>
-      </c>
-      <c r="D291" t="n">
-        <v>234</v>
-      </c>
-      <c r="E291" t="n">
-        <v>234</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3412.0235</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>234</v>
-      </c>
-      <c r="J291" t="n">
-        <v>235</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>233</v>
-      </c>
-      <c r="C292" t="n">
-        <v>234</v>
-      </c>
-      <c r="D292" t="n">
-        <v>234</v>
-      </c>
-      <c r="E292" t="n">
-        <v>232</v>
-      </c>
-      <c r="F292" t="n">
-        <v>6470.0121</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>234</v>
-      </c>
-      <c r="J292" t="n">
-        <v>235</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>234</v>
-      </c>
-      <c r="C293" t="n">
-        <v>234</v>
-      </c>
-      <c r="D293" t="n">
-        <v>234</v>
-      </c>
-      <c r="E293" t="n">
-        <v>234</v>
-      </c>
-      <c r="F293" t="n">
-        <v>969.0272</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>234</v>
-      </c>
-      <c r="J293" t="n">
-        <v>235</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>234</v>
-      </c>
-      <c r="C294" t="n">
-        <v>234</v>
-      </c>
-      <c r="D294" t="n">
-        <v>234</v>
-      </c>
-      <c r="E294" t="n">
-        <v>234</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1067.5071</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-159726.483968807</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>234</v>
-      </c>
-      <c r="J294" t="n">
-        <v>235</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10704,11 +10136,11 @@
         <v>234</v>
       </c>
       <c r="J295" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L295" t="n">
@@ -10717,6 +10149,6 @@
       <c r="M295" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest INS.xlsx
+++ b/BackTest/2019-10-20 BackTest INS.xlsx
@@ -1177,7 +1177,7 @@
         <v>18175.48277768591</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>13743.57357768591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-13482.2151223141</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-40237.76102231409</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -7744,10 +7744,14 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>235</v>
+      </c>
+      <c r="J223" t="n">
+        <v>235</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7780,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>235</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7820,19 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>235</v>
+      </c>
+      <c r="J225" t="n">
+        <v>235</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,10 +7861,14 @@
         <v>-185376.4432737039</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>235</v>
+      </c>
+      <c r="J226" t="n">
+        <v>235</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7876,11 +7898,19 @@
         <v>-184994.4823737039</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>234</v>
+      </c>
+      <c r="J227" t="n">
+        <v>235</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7939,19 @@
         <v>-183794.2416737039</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>235</v>
+      </c>
+      <c r="J228" t="n">
+        <v>235</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7980,19 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>236</v>
+      </c>
+      <c r="J229" t="n">
+        <v>235</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>235</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>235</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8099,17 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>235</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8138,17 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>235</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8177,17 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>235</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8216,17 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>235</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8255,19 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>238</v>
+      </c>
+      <c r="J236" t="n">
+        <v>235</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8296,19 @@
         <v>-183798.5063737039</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>238</v>
+      </c>
+      <c r="J237" t="n">
+        <v>235</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8337,19 @@
         <v>-183796.5063737039</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>235</v>
+      </c>
+      <c r="J238" t="n">
+        <v>235</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8378,19 @@
         <v>-167240.2192737039</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>239</v>
+      </c>
+      <c r="J239" t="n">
+        <v>235</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8419,17 @@
         <v>-169601.9328737039</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>235</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>235</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>235</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8539,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>235</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>235</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8617,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>235</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>235</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8695,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>235</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>235</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8773,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>235</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8812,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>235</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>235</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>235</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8929,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>235</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>235</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9007,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>235</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>235</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>235</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>235</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>235</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>235</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>235</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>235</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>235</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9358,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>235</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9397,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>235</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9436,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>235</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9475,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>235</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9514,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>235</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>235</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>235</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>235</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>235</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9709,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>235</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9748,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>235</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9787,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>235</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9826,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>235</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9865,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>235</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9904,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>235</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9943,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>235</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9982,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>235</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10021,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>235</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10060,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>235</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10099,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>235</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10138,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>235</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10177,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>235</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10216,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>235</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10255,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>235</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10294,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>235</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10333,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>235</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10372,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>235</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10411,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>235</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10450,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>235</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,15 +10486,17 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>234</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +10529,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10130,17 +10564,15 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L295" t="n">
